--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -753,15 +753,26 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999">
+    <row r="1" spans="1:14" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -805,7 +816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999">
+    <row r="2" spans="1:14" ht="16.5">
       <c r="A2" s="3">
         <v>70001</v>
       </c>
@@ -839,7 +850,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="17.399999999999999">
+    <row r="3" spans="1:14" ht="16.5">
       <c r="A3" s="3">
         <v>70002</v>
       </c>
@@ -873,7 +884,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="17.399999999999999">
+    <row r="4" spans="1:14" ht="16.5">
       <c r="A4" s="3">
         <v>70003</v>
       </c>
@@ -907,7 +918,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5" s="3">
         <v>70004</v>
       </c>
@@ -943,7 +954,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="17.399999999999999">
+    <row r="6" spans="1:14" ht="16.5">
       <c r="A6" s="3">
         <v>70005</v>
       </c>
@@ -979,7 +990,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="17.399999999999999">
+    <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="3">
         <v>70006</v>
       </c>
@@ -1015,7 +1026,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="17.399999999999999">
+    <row r="8" spans="1:14" ht="16.5">
       <c r="A8" s="3">
         <v>70007</v>
       </c>
@@ -1051,7 +1062,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="17.399999999999999">
+    <row r="9" spans="1:14" ht="16.5">
       <c r="A9" s="3">
         <v>70008</v>
       </c>
@@ -1083,7 +1094,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="17.399999999999999">
+    <row r="10" spans="1:14" ht="16.5">
       <c r="A10" s="3">
         <v>70009</v>
       </c>
@@ -1115,7 +1126,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="17.399999999999999">
+    <row r="11" spans="1:14" ht="16.5">
       <c r="A11" s="3">
         <v>70010</v>
       </c>
@@ -1149,7 +1160,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="17.399999999999999">
+    <row r="12" spans="1:14" ht="16.5">
       <c r="A12" s="3">
         <v>70011</v>
       </c>
@@ -1183,7 +1194,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="17.399999999999999">
+    <row r="13" spans="1:14" ht="16.5">
       <c r="A13" s="3">
         <v>70012</v>
       </c>
@@ -1217,7 +1228,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="17.399999999999999">
+    <row r="14" spans="1:14" ht="16.5">
       <c r="A14" s="3">
         <v>70013</v>
       </c>
@@ -1249,7 +1260,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="17.399999999999999">
+    <row r="15" spans="1:14" ht="16.5">
       <c r="A15" s="3">
         <v>70014</v>
       </c>
@@ -1285,7 +1296,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="17.399999999999999">
+    <row r="16" spans="1:14" ht="16.5">
       <c r="A16" s="3">
         <v>70015</v>
       </c>
@@ -1319,7 +1330,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="17.399999999999999">
+    <row r="17" spans="1:14" ht="16.5">
       <c r="A17" s="3">
         <v>70016</v>
       </c>
@@ -1353,7 +1364,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="17.399999999999999">
+    <row r="18" spans="1:14" ht="16.5">
       <c r="A18" s="3">
         <v>70017</v>
       </c>
@@ -1391,7 +1402,7 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="17.399999999999999">
+    <row r="19" spans="1:14" ht="16.5">
       <c r="A19" s="3">
         <v>70018</v>
       </c>
@@ -1429,7 +1440,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="17.399999999999999">
+    <row r="20" spans="1:14" ht="16.5">
       <c r="A20" s="3">
         <v>70019</v>
       </c>
@@ -1465,7 +1476,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="17.399999999999999">
+    <row r="21" spans="1:14" ht="16.5">
       <c r="A21" s="3">
         <v>70020</v>
       </c>
@@ -1501,7 +1512,7 @@
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="17.399999999999999">
+    <row r="22" spans="1:14" ht="16.5">
       <c r="A22" s="3">
         <v>70021</v>
       </c>
@@ -1539,7 +1550,7 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="17.399999999999999">
+    <row r="23" spans="1:14" ht="16.5">
       <c r="A23" s="3">
         <v>70022</v>
       </c>
@@ -1573,7 +1584,7 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="17.399999999999999">
+    <row r="24" spans="1:14" ht="16.5">
       <c r="A24" s="3">
         <v>70023</v>
       </c>
@@ -1607,7 +1618,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="17.399999999999999">
+    <row r="25" spans="1:14" ht="16.5">
       <c r="A25" s="3">
         <v>70024</v>
       </c>
@@ -1645,7 +1656,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="17.399999999999999">
+    <row r="26" spans="1:14" ht="16.5">
       <c r="A26" s="3">
         <v>70025</v>
       </c>
@@ -1679,7 +1690,7 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="17.399999999999999">
+    <row r="27" spans="1:14" ht="16.5">
       <c r="A27" s="3">
         <v>90001</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="17.399999999999999">
+    <row r="28" spans="1:14" ht="16.5">
       <c r="A28" s="3">
         <v>90002</v>
       </c>
@@ -1743,7 +1754,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="17.399999999999999">
+    <row r="29" spans="1:14" ht="16.5">
       <c r="A29" s="3">
         <v>90003</v>
       </c>
@@ -1775,7 +1786,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="17.399999999999999">
+    <row r="30" spans="1:14" ht="16.5">
       <c r="A30" s="3">
         <v>90004</v>
       </c>
@@ -1805,7 +1816,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="17.399999999999999">
+    <row r="31" spans="1:14" ht="16.5">
       <c r="A31" s="3">
         <v>90005</v>
       </c>
@@ -1835,7 +1846,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="17.399999999999999">
+    <row r="32" spans="1:14" ht="16.5">
       <c r="A32" s="3">
         <v>90006</v>
       </c>
@@ -1863,7 +1874,7 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="17.399999999999999">
+    <row r="33" spans="1:14" ht="16.5">
       <c r="A33" s="3">
         <v>90007</v>
       </c>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -292,13 +292,37 @@
   <si>
     <t>FxSound</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 채우기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSatiety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 소모하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubSatiety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -320,11 +344,19 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -332,6 +364,7 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -381,25 +414,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,11 +789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="A1:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -773,1134 +812,1186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>70001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="16.5">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>70002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="16.5">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>70003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="16.5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>70004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="16.5">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>70005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="16.5">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>70006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>70007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="16.5">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>70008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="16.5">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>70009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="16.5">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>70010</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="16.5">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>70011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>70012</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>70013</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="16.5">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>70014</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="16.5">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>70015</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="16.5">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>70016</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>70017</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="16.5">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>70018</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="16.5">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>70019</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="16.5">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>70020</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="16.5">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>70021</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>8</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="16.5">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>70022</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="16.5">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>70023</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>70024</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>3</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>70025</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" ht="16.5">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>90001</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="I27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" ht="16.5">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>90002</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
+      <c r="I28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" ht="16.5">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>90003</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
         <v>0.2</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
+      <c r="I29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="16.5">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>90004</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" ht="16.5">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>90005</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>2</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="16.5">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>90006</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>30</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="16.5">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>90007</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4">
         <v>0.1</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.5">
+      <c r="A34" s="8">
+        <v>100001</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="8">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="16.5">
+      <c r="A35" s="8">
+        <v>100002</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -295,34 +295,22 @@
   </si>
   <si>
     <t>만복도 채우기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AddSatiety</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>만복도 소모하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubSatiety</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -342,13 +330,6 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -417,28 +398,28 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,12 +774,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="A1:N35"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
@@ -1956,7 +1937,7 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
@@ -1972,17 +1953,17 @@
         <v>100002</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D35" s="8">
         <v>20</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="103">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -304,13 +304,47 @@
   </si>
   <si>
     <t>SubSatiety</t>
+  </si>
+  <si>
+    <t>카드 손으로 소환</t>
+  </si>
+  <si>
+    <t>Summon_Hand</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 뽑을 카드로 소환</t>
+  </si>
+  <si>
+    <t>Summon_DrawDeck</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 그레이브로 소환</t>
+  </si>
+  <si>
+    <t>Summon_GraveDeck</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon_GroupId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -347,8 +381,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +405,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -395,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +473,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,18 +832,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -789,10 +851,12 @@
     <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="1"/>
+    <col min="14" max="14" width="8.75" style="1"/>
+    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5">
+    <row r="1" spans="1:15" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -835,8 +899,11 @@
       <c r="N1" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5">
+      <c r="O1" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5">
       <c r="A2" s="4">
         <v>70001</v>
       </c>
@@ -869,8 +936,9 @@
         <v>19</v>
       </c>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5">
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="4">
         <v>70002</v>
       </c>
@@ -903,8 +971,9 @@
         <v>21</v>
       </c>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.5">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="4">
         <v>70003</v>
       </c>
@@ -937,8 +1006,9 @@
         <v>23</v>
       </c>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5">
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="4">
         <v>70004</v>
       </c>
@@ -973,8 +1043,9 @@
         <v>19</v>
       </c>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5">
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="4">
         <v>70005</v>
       </c>
@@ -1009,8 +1080,9 @@
         <v>21</v>
       </c>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="4">
         <v>70006</v>
       </c>
@@ -1045,8 +1117,9 @@
         <v>23</v>
       </c>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="4">
         <v>70007</v>
       </c>
@@ -1081,8 +1154,9 @@
         <v>33</v>
       </c>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="4">
         <v>70008</v>
       </c>
@@ -1113,8 +1187,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="4">
         <v>70009</v>
       </c>
@@ -1145,8 +1220,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5">
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="4">
         <v>70010</v>
       </c>
@@ -1179,8 +1255,9 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5">
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="4">
         <v>70011</v>
       </c>
@@ -1213,8 +1290,9 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5">
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="4">
         <v>70012</v>
       </c>
@@ -1247,8 +1325,9 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="4">
         <v>70013</v>
       </c>
@@ -1279,8 +1358,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5">
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="4">
         <v>70014</v>
       </c>
@@ -1315,8 +1395,9 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5">
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="4">
         <v>70015</v>
       </c>
@@ -1349,8 +1430,9 @@
         <v>19</v>
       </c>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5">
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5">
       <c r="A17" s="4">
         <v>70016</v>
       </c>
@@ -1383,8 +1465,9 @@
         <v>21</v>
       </c>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5">
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5">
       <c r="A18" s="4">
         <v>70017</v>
       </c>
@@ -1421,8 +1504,9 @@
         <v>58</v>
       </c>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5">
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5">
       <c r="A19" s="4">
         <v>70018</v>
       </c>
@@ -1459,8 +1543,9 @@
         <v>58</v>
       </c>
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="16.5">
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="4">
         <v>70019</v>
       </c>
@@ -1495,8 +1580,9 @@
         <v>19</v>
       </c>
       <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5">
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5">
       <c r="A21" s="4">
         <v>70020</v>
       </c>
@@ -1531,8 +1617,9 @@
         <v>21</v>
       </c>
       <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="16.5">
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="4">
         <v>70021</v>
       </c>
@@ -1569,8 +1656,9 @@
         <v>58</v>
       </c>
       <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.5">
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5">
       <c r="A23" s="4">
         <v>70022</v>
       </c>
@@ -1603,8 +1691,9 @@
         <v>19</v>
       </c>
       <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5">
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5">
       <c r="A24" s="4">
         <v>70023</v>
       </c>
@@ -1637,8 +1726,9 @@
         <v>21</v>
       </c>
       <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.5">
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5">
       <c r="A25" s="4">
         <v>70024</v>
       </c>
@@ -1675,8 +1765,9 @@
         <v>58</v>
       </c>
       <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" ht="16.5">
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="4">
         <v>70025</v>
       </c>
@@ -1709,8 +1800,9 @@
         <v>23</v>
       </c>
       <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" ht="16.5">
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5">
       <c r="A27" s="4">
         <v>90001</v>
       </c>
@@ -1741,8 +1833,9 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.5">
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="4">
         <v>90002</v>
       </c>
@@ -1773,8 +1866,9 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5">
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5">
       <c r="A29" s="4">
         <v>90003</v>
       </c>
@@ -1805,8 +1899,9 @@
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="16.5">
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="4">
         <v>90004</v>
       </c>
@@ -1835,8 +1930,9 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.5">
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5">
       <c r="A31" s="4">
         <v>90005</v>
       </c>
@@ -1865,8 +1961,9 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.5">
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.5">
       <c r="A32" s="4">
         <v>90006</v>
       </c>
@@ -1893,8 +1990,9 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5">
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="16.5">
       <c r="A33" s="4">
         <v>90007</v>
       </c>
@@ -1921,8 +2019,9 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.5">
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" ht="16.5">
       <c r="A34" s="8">
         <v>100001</v>
       </c>
@@ -1947,8 +2046,9 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5">
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5">
       <c r="A35" s="8">
         <v>100002</v>
       </c>
@@ -1973,6 +2073,94 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" ht="16.5">
+      <c r="A36" s="8">
+        <v>100011</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="10">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5">
+      <c r="A37" s="8">
+        <v>100012</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="10">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5">
+      <c r="A38" s="8">
+        <v>100013</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="10">
+        <v>1003</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -363,13 +363,73 @@
   <si>
     <t>AtkUp_02_Desc</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화_2턴 공격력 - 1</t>
+  </si>
+  <si>
+    <t>Weaken</t>
+  </si>
+  <si>
+    <t>Weaken_01</t>
+  </si>
+  <si>
+    <t>Weaken_01_Desc</t>
+  </si>
+  <si>
+    <t>방어구 파괴_1턴 방어력 0</t>
+  </si>
+  <si>
+    <t>ArmorBreak</t>
+  </si>
+  <si>
+    <t>ArmorBreak_01</t>
+  </si>
+  <si>
+    <t>ArmorBreak_01_Desc</t>
+  </si>
+  <si>
+    <t>파멸_3턴 턴 종료 시 캐릭터 사망</t>
+  </si>
+  <si>
+    <t>Doom</t>
+  </si>
+  <si>
+    <t>Doom_01</t>
+  </si>
+  <si>
+    <t>Doom_01_Desc</t>
+  </si>
+  <si>
+    <t>화상_2턴 턴 시작 시 체력 -2</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Burn_01</t>
+  </si>
+  <si>
+    <t>Burn_01_Desc</t>
+  </si>
+  <si>
+    <t>독_2턴 턴 종료 시 체력 -2</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Poison_01</t>
+  </si>
+  <si>
+    <t>Poison_01_Desc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -412,6 +472,29 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -479,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,9 +583,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,6 +592,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -860,11 +953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -918,19 +1011,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1090,10 +1183,10 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1224,7 @@
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2174,65 +2267,249 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5">
-      <c r="A37" s="5">
+    <row r="37" spans="1:16">
+      <c r="A37" s="11">
         <v>100012</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="7">
+      <c r="G37" s="11"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="14">
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5">
-      <c r="A38" s="5">
+    <row r="38" spans="1:16">
+      <c r="A38" s="11">
         <v>100013</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="11">
         <v>1</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="7">
+      <c r="G38" s="11"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="14">
         <v>1003</v>
       </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5">
+      <c r="A39" s="5">
+        <v>100021</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5">
+      <c r="A40" s="5">
+        <v>100022</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5">
+      <c r="A41" s="5">
+        <v>100023</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5">
+      <c r="A42" s="5">
+        <v>100024</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5">
+      <c r="A43" s="5">
+        <v>100025</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -423,13 +423,21 @@
   </si>
   <si>
     <t>Poison_01_Desc</t>
+  </si>
+  <si>
+    <t>Bless_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless_01_Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -476,14 +484,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,16 +595,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -957,14 +958,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -977,7 +978,7 @@
     <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.5">
+    <row r="2" spans="1:16">
       <c r="A2" s="5">
         <v>70001</v>
       </c>
@@ -1063,7 +1064,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
+    <row r="3" spans="1:16">
       <c r="A3" s="5">
         <v>70002</v>
       </c>
@@ -1099,7 +1100,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16">
       <c r="A4" s="5">
         <v>70003</v>
       </c>
@@ -1135,7 +1136,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
+    <row r="5" spans="1:16">
       <c r="A5" s="5">
         <v>70004</v>
       </c>
@@ -1173,7 +1174,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5">
+    <row r="6" spans="1:16">
       <c r="A6" s="5">
         <v>70005</v>
       </c>
@@ -1211,7 +1212,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="16.5">
+    <row r="7" spans="1:16">
       <c r="A7" s="5">
         <v>70006</v>
       </c>
@@ -1249,7 +1250,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
+    <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>70007</v>
       </c>
@@ -1287,7 +1288,7 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5">
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>70008</v>
       </c>
@@ -1321,7 +1322,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5">
+    <row r="10" spans="1:16">
       <c r="A10" s="5">
         <v>70009</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5">
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>70010</v>
       </c>
@@ -1391,7 +1392,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>70011</v>
       </c>
@@ -1427,7 +1428,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5">
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>70012</v>
       </c>
@@ -1463,7 +1464,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5">
+    <row r="14" spans="1:16">
       <c r="A14" s="5">
         <v>70013</v>
       </c>
@@ -1497,7 +1498,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5">
+    <row r="15" spans="1:16">
       <c r="A15" s="5">
         <v>70014</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5">
+    <row r="16" spans="1:16">
       <c r="A16" s="5">
         <v>70015</v>
       </c>
@@ -1573,7 +1574,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5">
+    <row r="17" spans="1:16">
       <c r="A17" s="5">
         <v>70016</v>
       </c>
@@ -1609,7 +1610,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5">
+    <row r="18" spans="1:16">
       <c r="A18" s="5">
         <v>70017</v>
       </c>
@@ -1651,7 +1652,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5">
+    <row r="19" spans="1:16">
       <c r="A19" s="5">
         <v>70018</v>
       </c>
@@ -1693,7 +1694,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5">
+    <row r="20" spans="1:16">
       <c r="A20" s="5">
         <v>70019</v>
       </c>
@@ -1731,7 +1732,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5">
+    <row r="21" spans="1:16">
       <c r="A21" s="5">
         <v>70020</v>
       </c>
@@ -1769,7 +1770,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5">
+    <row r="22" spans="1:16">
       <c r="A22" s="5">
         <v>70021</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5">
+    <row r="23" spans="1:16">
       <c r="A23" s="5">
         <v>70022</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5">
+    <row r="24" spans="1:16">
       <c r="A24" s="5">
         <v>70023</v>
       </c>
@@ -1881,7 +1882,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5">
+    <row r="25" spans="1:16">
       <c r="A25" s="5">
         <v>70024</v>
       </c>
@@ -1923,7 +1924,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5">
+    <row r="26" spans="1:16">
       <c r="A26" s="5">
         <v>70025</v>
       </c>
@@ -1959,7 +1960,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5">
+    <row r="27" spans="1:16">
       <c r="A27" s="5">
         <v>90001</v>
       </c>
@@ -1993,7 +1994,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5">
+    <row r="28" spans="1:16">
       <c r="A28" s="5">
         <v>90002</v>
       </c>
@@ -2027,7 +2028,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5">
+    <row r="29" spans="1:16">
       <c r="A29" s="5">
         <v>90003</v>
       </c>
@@ -2059,7 +2060,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5">
+    <row r="30" spans="1:16">
       <c r="A30" s="5">
         <v>90004</v>
       </c>
@@ -2091,7 +2092,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5">
+    <row r="31" spans="1:16">
       <c r="A31" s="5">
         <v>90005</v>
       </c>
@@ -2117,13 +2118,17 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5">
+    <row r="32" spans="1:16">
       <c r="A32" s="5">
         <v>90006</v>
       </c>
@@ -2153,7 +2158,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5">
+    <row r="33" spans="1:16">
       <c r="A33" s="5">
         <v>90007</v>
       </c>
@@ -2181,7 +2186,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5">
+    <row r="34" spans="1:16">
       <c r="A34" s="5">
         <v>100001</v>
       </c>
@@ -2209,7 +2214,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5">
+    <row r="35" spans="1:16">
       <c r="A35" s="5">
         <v>100002</v>
       </c>
@@ -2237,7 +2242,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5">
+    <row r="36" spans="1:16">
       <c r="A36" s="5">
         <v>100011</v>
       </c>
@@ -2274,7 +2279,7 @@
       <c r="B37" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="11">
@@ -2285,7 +2290,7 @@
         <v>86</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -2293,7 +2298,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="14">
+      <c r="P37" s="13">
         <v>1002</v>
       </c>
     </row>
@@ -2304,7 +2309,7 @@
       <c r="B38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="16" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="11">
@@ -2315,7 +2320,7 @@
         <v>86</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -2323,11 +2328,11 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>1003</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5">
+    <row r="39" spans="1:16">
       <c r="A39" s="5">
         <v>100021</v>
       </c>
@@ -2361,7 +2366,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5">
+    <row r="40" spans="1:16">
       <c r="A40" s="5">
         <v>100022</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5">
+    <row r="41" spans="1:16">
       <c r="A41" s="5">
         <v>100023</v>
       </c>
@@ -2425,7 +2430,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5">
+    <row r="42" spans="1:16">
       <c r="A42" s="5">
         <v>100024</v>
       </c>
@@ -2459,7 +2464,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5">
+    <row r="43" spans="1:16">
       <c r="A43" s="5">
         <v>100025</v>
       </c>
@@ -2494,22 +2499,21 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -431,13 +431,37 @@
   <si>
     <t>Bless_01_Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼키기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swallow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainAbilityId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼킨 카드 비용 감소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReducedMana </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -489,15 +513,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="D2Coding"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +551,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -562,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,11 +624,17 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -954,18 +983,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -974,11 +1003,12 @@
     <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="1"/>
+    <col min="15" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="P1" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="5">
         <v>70001</v>
       </c>
@@ -1063,8 +1096,9 @@
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="5">
         <v>70002</v>
       </c>
@@ -1099,8 +1133,9 @@
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="5">
         <v>70003</v>
       </c>
@@ -1135,8 +1170,9 @@
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="5">
         <v>70004</v>
       </c>
@@ -1173,8 +1209,9 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="5">
         <v>70005</v>
       </c>
@@ -1211,8 +1248,9 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="5">
         <v>70006</v>
       </c>
@@ -1249,8 +1287,9 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>70007</v>
       </c>
@@ -1287,8 +1326,9 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>70008</v>
       </c>
@@ -1321,8 +1361,9 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>70009</v>
       </c>
@@ -1355,8 +1396,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>70010</v>
       </c>
@@ -1391,8 +1433,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5">
         <v>70011</v>
       </c>
@@ -1427,8 +1470,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>70012</v>
       </c>
@@ -1463,8 +1507,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="5">
         <v>70013</v>
       </c>
@@ -1497,8 +1542,9 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="5">
         <v>70014</v>
       </c>
@@ -1537,8 +1583,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="5">
         <v>70015</v>
       </c>
@@ -1573,8 +1620,9 @@
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="5">
         <v>70016</v>
       </c>
@@ -1609,8 +1657,9 @@
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="5">
         <v>70017</v>
       </c>
@@ -1651,8 +1700,9 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="5">
         <v>70018</v>
       </c>
@@ -1693,8 +1743,9 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="5">
         <v>70019</v>
       </c>
@@ -1731,8 +1782,9 @@
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="5">
         <v>70020</v>
       </c>
@@ -1769,8 +1821,9 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="5">
         <v>70021</v>
       </c>
@@ -1809,8 +1862,9 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="5">
         <v>70022</v>
       </c>
@@ -1845,8 +1899,9 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="5">
         <v>70023</v>
       </c>
@@ -1881,8 +1936,9 @@
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="5">
         <v>70024</v>
       </c>
@@ -1923,8 +1979,9 @@
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="5">
         <v>70025</v>
       </c>
@@ -1959,8 +2016,9 @@
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="5">
         <v>90001</v>
       </c>
@@ -1993,8 +2051,9 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="5">
         <v>90002</v>
       </c>
@@ -2027,8 +2086,9 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="5">
         <v>90003</v>
       </c>
@@ -2059,8 +2119,9 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="5">
         <v>90004</v>
       </c>
@@ -2091,8 +2152,9 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="5">
         <v>90005</v>
       </c>
@@ -2127,8 +2189,9 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="5">
         <v>90006</v>
       </c>
@@ -2157,8 +2220,9 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="5">
         <v>90007</v>
       </c>
@@ -2185,8 +2249,9 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="5">
         <v>100001</v>
       </c>
@@ -2213,8 +2278,9 @@
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="5">
         <v>100002</v>
       </c>
@@ -2241,8 +2307,9 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="5">
         <v>100011</v>
       </c>
@@ -2271,15 +2338,16 @@
       <c r="P36" s="7">
         <v>1001</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="11">
         <v>100012</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D37" s="11">
@@ -2301,15 +2369,16 @@
       <c r="P37" s="13">
         <v>1002</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="11">
         <v>100013</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="11">
@@ -2331,8 +2400,9 @@
       <c r="P38" s="13">
         <v>1003</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="5">
         <v>100021</v>
       </c>
@@ -2365,8 +2435,9 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="5">
         <v>100022</v>
       </c>
@@ -2397,8 +2468,9 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="5">
         <v>100023</v>
       </c>
@@ -2429,8 +2501,9 @@
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="5">
         <v>100024</v>
       </c>
@@ -2463,8 +2536,9 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="5">
         <v>100025</v>
       </c>
@@ -2497,23 +2571,77 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="7">
+        <v>100026</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7">
+        <v>100027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="7">
+        <v>100027</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -437,23 +437,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Active</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainAbilityId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼킨 카드 비용 감소</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Swallow</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Active</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChainAbilityId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼킨 카드 비용 감소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ReducedMana </t>
+    <t xml:space="preserve">SwallowReducedMana </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +987,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1058,7 +1058,7 @@
         <v>92</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2581,14 +2581,14 @@
         <v>130</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>100027</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>135</v>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EEE47-0A58-4017-A958-8B7EB5332657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -460,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -982,12 +983,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1409,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8EEE47-0A58-4017-A958-8B7EB5332657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AC00D-6998-443C-9DB4-201372AB2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -456,6 +456,22 @@
   <si>
     <t xml:space="preserve">ReducedMana </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_찌르기 마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_자르기 마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2644,6 +2660,146 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="18"/>
     </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="5">
+        <v>81001000</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
+        <v>81001001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="5">
+        <v>81001001</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="5">
+        <v>81002000</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5">
+        <v>81002001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="5">
+        <v>81002001</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AC00D-6998-443C-9DB4-201372AB2A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB674A1A-4147-419B-B0CA-EA366683E8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L54" sqref="L54"/>
+      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2693,9 +2693,7 @@
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5">
-        <v>81001001</v>
-      </c>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="5">
@@ -2763,9 +2761,7 @@
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="5">
-        <v>81002001</v>
-      </c>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="5">

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB674A1A-4147-419B-B0CA-EA366683E8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0433D9-A4A6-485D-9640-D3DC674A4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="145">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -471,6 +471,26 @@
   </si>
   <si>
     <t>루시_자르기 마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_핥기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_노려보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81004000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81001001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81002001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,11 +1020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O37" sqref="O37"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2722,7 +2742,9 @@
       <c r="L47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -2790,11 +2812,248 @@
       <c r="L49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="5">
+        <v>81003000</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="5">
+        <v>81004000</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="5">
+        <v>81004001</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="5">
+        <v>81005000</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="5">
+        <v>81005001</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="5">
+        <v>81005002</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="5">
+        <v>81005003</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0433D9-A4A6-485D-9640-D3DC674A4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F80CC4-E39F-4F04-AE96-84059F924923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -491,6 +491,18 @@
   </si>
   <si>
     <t>81002001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_다지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81006000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 기본 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,11 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3055,6 +3067,113 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="5">
+        <v>81006000</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="5">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="5">
+        <v>81006001</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="5">
+        <v>81007000</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F80CC4-E39F-4F04-AE96-84059F924923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF92831-72E5-42FA-9CAC-209F9438D561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>AbilityData_Id</t>
-  </si>
-  <si>
-    <t>AbilityType</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -503,6 +500,22 @@
   </si>
   <si>
     <t>임프 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 궁수 기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹주름 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1065,49 +1078,49 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="Q1" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1115,33 +1128,33 @@
         <v>70001</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="5">
         <v>5</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1152,33 +1165,33 @@
         <v>70002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1189,33 +1202,33 @@
         <v>70003</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1226,35 +1239,35 @@
         <v>70004</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -1265,35 +1278,35 @@
         <v>70005</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10">
         <v>3</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1304,35 +1317,35 @@
         <v>70006</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1343,35 +1356,35 @@
         <v>70007</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1382,27 +1395,27 @@
         <v>70008</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1417,27 +1430,27 @@
         <v>70009</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1452,30 +1465,30 @@
         <v>70010</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1489,30 +1502,30 @@
         <v>70011</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1526,30 +1539,30 @@
         <v>70012</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1563,27 +1576,27 @@
         <v>70013</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="5">
         <v>3</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1598,36 +1611,36 @@
         <v>70014</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5">
         <v>2</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1639,33 +1652,33 @@
         <v>70015</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -1676,33 +1689,33 @@
         <v>70016</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5">
         <v>5</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -1713,39 +1726,39 @@
         <v>70017</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5">
         <v>2</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -1756,39 +1769,39 @@
         <v>70018</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1799,35 +1812,35 @@
         <v>70019</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -1838,35 +1851,35 @@
         <v>70020</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -1877,37 +1890,37 @@
         <v>70021</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5">
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -1918,33 +1931,33 @@
         <v>70022</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -1955,33 +1968,33 @@
         <v>70023</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -1992,39 +2005,39 @@
         <v>70024</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -2035,33 +2048,33 @@
         <v>70025</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -2072,27 +2085,27 @@
         <v>90001</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="5">
         <v>4</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2107,28 +2120,28 @@
         <v>90002</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2142,24 +2155,24 @@
         <v>90003</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5">
         <v>0.2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2175,24 +2188,24 @@
         <v>90004</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2208,32 +2221,32 @@
         <v>90005</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -2245,22 +2258,22 @@
         <v>90006</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D32" s="5">
         <v>30</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2276,17 +2289,17 @@
         <v>90007</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5">
         <v>0.1</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
@@ -2305,17 +2318,17 @@
         <v>100001</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="D34" s="5">
         <v>20</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
@@ -2334,17 +2347,17 @@
         <v>100002</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D35" s="5">
         <v>20</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
@@ -2363,17 +2376,17 @@
         <v>100011</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="6"/>
@@ -2394,17 +2407,17 @@
         <v>100012</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="12"/>
@@ -2425,17 +2438,17 @@
         <v>100013</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="12"/>
@@ -2456,17 +2469,17 @@
         <v>100021</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="5">
         <v>2</v>
@@ -2476,10 +2489,10 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M39" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -2491,15 +2504,15 @@
         <v>100022</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -2509,10 +2522,10 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -2524,15 +2537,15 @@
         <v>100023</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="5">
         <v>3</v>
@@ -2542,10 +2555,10 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -2557,17 +2570,17 @@
         <v>100024</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D42" s="5">
         <v>2</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
@@ -2577,10 +2590,10 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2592,17 +2605,17 @@
         <v>100025</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="5">
         <v>2</v>
@@ -2612,10 +2625,10 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -2627,17 +2640,17 @@
         <v>100026</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -2647,10 +2660,10 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -2664,17 +2677,17 @@
         <v>100027</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="D45" s="7">
         <v>2</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="16"/>
@@ -2682,10 +2695,10 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -2697,31 +2710,31 @@
         <v>81001000</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="5">
         <v>3</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -2732,17 +2745,17 @@
         <v>81001001</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="5">
         <v>3</v>
@@ -2752,10 +2765,10 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -2767,31 +2780,31 @@
         <v>81002000</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -2802,17 +2815,17 @@
         <v>81002001</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="5">
         <v>0</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5">
         <v>3</v>
@@ -2822,10 +2835,10 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -2837,31 +2850,31 @@
         <v>81003000</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -2872,17 +2885,17 @@
         <v>81004000</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2901,17 +2914,17 @@
         <v>81004001</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
@@ -2921,10 +2934,10 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -2936,31 +2949,31 @@
         <v>81005000</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="5">
         <v>3</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -2971,17 +2984,17 @@
         <v>81005001</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="5">
         <v>0</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="5">
         <v>2</v>
@@ -2991,7 +3004,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -3004,31 +3017,31 @@
         <v>81005002</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -3039,17 +3052,17 @@
         <v>81005003</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="5">
         <v>0</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="5">
         <v>2</v>
@@ -3059,7 +3072,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -3072,31 +3085,31 @@
         <v>81006000</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="5">
         <v>3</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -3107,17 +3120,17 @@
         <v>81006001</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="5">
         <v>2</v>
@@ -3127,10 +3140,10 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -3142,37 +3155,140 @@
         <v>81007000</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="5">
+        <v>81008000</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="5">
+        <v>81009000</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="5">
+        <v>20</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="5">
+        <v>81010000</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF92831-72E5-42FA-9CAC-209F9438D561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB19509-5849-4967-8D29-0CB6705FE8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="158">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -516,6 +516,34 @@
   </si>
   <si>
     <t>AbilityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충_중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81011001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염_중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81012001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,11 +1073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B68:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3261,7 +3289,7 @@
         <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D62" s="5">
         <v>1</v>
@@ -3289,6 +3317,150 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="5">
+        <v>81011000</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="5">
+        <v>81011001</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="5">
+        <v>3</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="5">
+        <v>81012000</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="5">
+        <v>81012001</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5">
+        <v>3</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB19509-5849-4967-8D29-0CB6705FE8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DCC0F-E406-4F73-BA77-38D77AFF0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="164">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -545,6 +545,30 @@
   <si>
     <t>81012001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토_만복도 소모</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토_만복도 소모</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,15 +620,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +644,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -675,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,32 +716,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1073,18 +1079,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B68:B69"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
     <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -1132,22 +1138,22 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1311,10 +1317,10 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1359,7 @@
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1954,7 +1960,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" s="13" customFormat="1">
       <c r="A23" s="5">
         <v>70022</v>
       </c>
@@ -1991,7 +1997,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" s="13" customFormat="1">
       <c r="A24" s="5">
         <v>70023</v>
       </c>
@@ -2028,7 +2034,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" s="13" customFormat="1">
       <c r="A25" s="5">
         <v>70024</v>
       </c>
@@ -2071,7 +2077,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" s="13" customFormat="1">
       <c r="A26" s="5">
         <v>70025</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" s="13" customFormat="1">
       <c r="A27" s="5">
         <v>90001</v>
       </c>
@@ -2143,7 +2149,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" s="13" customFormat="1">
       <c r="A28" s="5">
         <v>90002</v>
       </c>
@@ -2178,7 +2184,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" s="13" customFormat="1">
       <c r="A29" s="5">
         <v>90003</v>
       </c>
@@ -2211,7 +2217,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" s="13" customFormat="1">
       <c r="A30" s="5">
         <v>90004</v>
       </c>
@@ -2244,7 +2250,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" s="13" customFormat="1">
       <c r="A31" s="5">
         <v>90005</v>
       </c>
@@ -2281,7 +2287,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" s="13" customFormat="1">
       <c r="A32" s="5">
         <v>90006</v>
       </c>
@@ -2312,7 +2318,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" s="13" customFormat="1">
       <c r="A33" s="5">
         <v>90007</v>
       </c>
@@ -2341,7 +2347,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" s="13" customFormat="1">
       <c r="A34" s="5">
         <v>100001</v>
       </c>
@@ -2370,7 +2376,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" s="13" customFormat="1">
       <c r="A35" s="5">
         <v>100002</v>
       </c>
@@ -2399,45 +2405,45 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="5">
+    <row r="36" spans="1:17" s="13" customFormat="1">
+      <c r="A36" s="11">
         <v>100011</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="11">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="7">
+      <c r="G36" s="11"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11">
         <v>1001</v>
       </c>
-      <c r="Q36" s="17"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" s="13" customFormat="1">
       <c r="A37" s="11">
         <v>100012</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="11">
@@ -2448,7 +2454,7 @@
         <v>85</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -2456,19 +2462,19 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <v>1002</v>
       </c>
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:17" s="13" customFormat="1">
       <c r="A38" s="11">
         <v>100013</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="11">
@@ -2479,7 +2485,7 @@
         <v>85</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -2487,288 +2493,288 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <v>1003</v>
       </c>
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="5">
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" s="13" customFormat="1">
+      <c r="A39" s="11">
         <v>100021</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="11">
         <v>1</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="11">
         <v>2</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="5">
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" s="13" customFormat="1">
+      <c r="A40" s="11">
         <v>100022</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="5">
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" s="13" customFormat="1">
+      <c r="A41" s="11">
         <v>100023</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="11">
         <v>3</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="5">
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:17" s="13" customFormat="1">
+      <c r="A42" s="11">
         <v>100024</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="11">
         <v>2</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="11">
         <v>2</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="5">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" s="13" customFormat="1">
+      <c r="A43" s="11">
         <v>100025</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="11">
         <v>2</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="7">
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:17" s="13" customFormat="1">
+      <c r="A44" s="11">
         <v>100026</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="11">
         <v>1</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="11">
         <v>1</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7" t="s">
+      <c r="H44" s="14"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7">
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11">
         <v>100027</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="7">
+    <row r="45" spans="1:17" s="13" customFormat="1">
+      <c r="A45" s="11">
         <v>100027</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="11">
         <v>2</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="18"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="5">
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:17" s="13" customFormat="1">
+      <c r="A46" s="11">
         <v>81001000</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="11">
         <v>3</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="5" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" s="13" customFormat="1">
       <c r="A47" s="5">
         <v>81001001</v>
       </c>
@@ -2803,7 +2809,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" s="13" customFormat="1">
       <c r="A48" s="5">
         <v>81002000</v>
       </c>
@@ -2838,7 +2844,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" s="13" customFormat="1">
       <c r="A49" s="5">
         <v>81002001</v>
       </c>
@@ -2873,7 +2879,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" s="13" customFormat="1">
       <c r="A50" s="5">
         <v>81003000</v>
       </c>
@@ -2908,7 +2914,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" s="13" customFormat="1">
       <c r="A51" s="5">
         <v>81004000</v>
       </c>
@@ -2937,7 +2943,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" s="13" customFormat="1">
       <c r="A52" s="5">
         <v>81004001</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" s="13" customFormat="1">
       <c r="A53" s="5">
         <v>81005000</v>
       </c>
@@ -3007,7 +3013,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" s="13" customFormat="1">
       <c r="A54" s="5">
         <v>81005001</v>
       </c>
@@ -3040,7 +3046,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" s="13" customFormat="1">
       <c r="A55" s="5">
         <v>81005002</v>
       </c>
@@ -3075,7 +3081,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" s="13" customFormat="1">
       <c r="A56" s="5">
         <v>81005003</v>
       </c>
@@ -3108,7 +3114,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" s="13" customFormat="1">
       <c r="A57" s="5">
         <v>81006000</v>
       </c>
@@ -3143,7 +3149,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" s="13" customFormat="1">
       <c r="A58" s="5">
         <v>81006001</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" s="13" customFormat="1">
       <c r="A59" s="5">
         <v>81007000</v>
       </c>
@@ -3215,7 +3221,7 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" s="13" customFormat="1">
       <c r="A60" s="5">
         <v>81008000</v>
       </c>
@@ -3252,7 +3258,7 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" s="13" customFormat="1">
       <c r="A61" s="5">
         <v>81009000</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" s="13" customFormat="1">
       <c r="A62" s="5">
         <v>81010000</v>
       </c>
@@ -3318,7 +3324,7 @@
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" s="13" customFormat="1">
       <c r="A63" s="5">
         <v>81011000</v>
       </c>
@@ -3355,7 +3361,7 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" s="13" customFormat="1">
       <c r="A64" s="5">
         <v>81011001</v>
       </c>
@@ -3390,7 +3396,7 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" s="13" customFormat="1">
       <c r="A65" s="5">
         <v>81012000</v>
       </c>
@@ -3427,7 +3433,7 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" s="13" customFormat="1">
       <c r="A66" s="5">
         <v>81012001</v>
       </c>
@@ -3462,6 +3468,256 @@
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
+    <row r="67" spans="1:17" s="13" customFormat="1">
+      <c r="A67" s="5">
+        <v>81013000</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="68" spans="1:17" s="13" customFormat="1">
+      <c r="A68" s="5">
+        <v>81013001</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" s="13" customFormat="1">
+      <c r="A69" s="5">
+        <v>81014000</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" s="13" customFormat="1">
+      <c r="A70" s="5">
+        <v>81014001</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q70" s="11"/>
+    </row>
+    <row r="71" spans="1:17" s="13" customFormat="1">
+      <c r="A71" s="5">
+        <v>81014002</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="5">
+        <v>20</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" s="13" customFormat="1">
+      <c r="A72" s="5">
+        <v>81015000</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" s="13" customFormat="1">
+      <c r="A73" s="5">
+        <v>81015001</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q73" s="11"/>
+    </row>
+    <row r="74" spans="1:17" s="13" customFormat="1">
+      <c r="A74" s="5">
+        <v>81015002</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="5">
+        <v>20</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DCC0F-E406-4F73-BA77-38D77AFF0C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AAFA5-5C75-4CB7-8D19-C4912A376884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -569,6 +569,14 @@
   <si>
     <t>혈토_만복도 소모</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한입_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두입_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1079,11 +1087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3718,6 +3726,138 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
     </row>
+    <row r="75" spans="1:17" s="13" customFormat="1">
+      <c r="A75" s="5">
+        <v>81016000</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="5">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" s="13" customFormat="1">
+      <c r="A76" s="5">
+        <v>81016001</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="5">
+        <v>10</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" s="13" customFormat="1">
+      <c r="A77" s="5">
+        <v>81017000</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" s="13" customFormat="1">
+      <c r="A78" s="5">
+        <v>81017001</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="5">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807AAFA5-5C75-4CB7-8D19-C4912A376884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5907E69E-6DA3-4357-8102-CCF853B1D519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="185">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -576,6 +576,82 @@
   </si>
   <si>
     <t>두입_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게 한입_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMana</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 채우기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 소비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81020000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치_마나 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골동품_골드 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 숨결_적 전체 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시) 화상 효과 현재는 중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81023001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화불량 카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81025002_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라마사 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 영구 파괴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,27 +1163,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
@@ -3858,6 +3934,592 @@
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
     </row>
+    <row r="79" spans="1:17" s="13" customFormat="1">
+      <c r="A79" s="5">
+        <v>81018000</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" s="13" customFormat="1">
+      <c r="A80" s="5">
+        <v>81018001</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="5">
+        <v>10</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" s="13" customFormat="1">
+      <c r="A81" s="5">
+        <v>81019000</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" s="13" customFormat="1">
+      <c r="A82" s="5">
+        <v>81019001</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="5">
+        <v>10</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" s="13" customFormat="1">
+      <c r="A83" s="5">
+        <v>81019002</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" s="13" customFormat="1">
+      <c r="A84" s="5">
+        <v>81020000</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="5">
+        <v>2</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" s="13" customFormat="1">
+      <c r="A85" s="5">
+        <v>81020001</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="5">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" s="13" customFormat="1">
+      <c r="A86" s="5">
+        <v>81021000</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" s="13" customFormat="1">
+      <c r="A87" s="5">
+        <v>81022000</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" s="5">
+        <v>30</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="1:17" s="13" customFormat="1">
+      <c r="A88" s="5">
+        <v>81023000</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" s="13" customFormat="1">
+      <c r="A89" s="5">
+        <v>81023001</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="5">
+        <v>3</v>
+      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+    </row>
+    <row r="90" spans="1:17" s="13" customFormat="1">
+      <c r="A90" s="5">
+        <v>81024000</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="1:17" s="13" customFormat="1">
+      <c r="A91" s="5">
+        <v>81024001</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="11">
+        <v>1005</v>
+      </c>
+      <c r="Q91" s="11"/>
+    </row>
+    <row r="92" spans="1:17" s="13" customFormat="1">
+      <c r="A92" s="5">
+        <v>81025000</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="5">
+        <v>30</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="1:17" s="13" customFormat="1">
+      <c r="A93" s="5">
+        <v>81025001</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="11">
+        <v>1005</v>
+      </c>
+      <c r="Q93" s="11"/>
+    </row>
+    <row r="94" spans="1:17" s="13" customFormat="1">
+      <c r="A94" s="5">
+        <v>81025002</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="5">
+        <v>3</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" s="11"/>
+    </row>
+    <row r="95" spans="1:17" s="13" customFormat="1">
+      <c r="A95" s="5">
+        <v>81026000</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17" s="13" customFormat="1">
+      <c r="A96" s="5">
+        <v>81026001</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5907E69E-6DA3-4357-8102-CCF853B1D519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898C948-2D28-4B92-A4C6-8B7E2A7F07E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="190">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -652,6 +652,26 @@
   </si>
   <si>
     <t>방어력 영구 파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단식_임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛구역질_카드 두장 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대의 명약_힐링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 아귀 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +731,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -776,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +841,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1163,11 +1192,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
@@ -4520,6 +4549,206 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
+    <row r="97" spans="1:17" s="13" customFormat="1">
+      <c r="A97" s="16">
+        <v>81027000</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="16">
+        <v>1</v>
+      </c>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+    </row>
+    <row r="98" spans="1:17" s="13" customFormat="1">
+      <c r="A98" s="16">
+        <v>81028000</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+    </row>
+    <row r="99" spans="1:17" s="13" customFormat="1">
+      <c r="A99" s="5">
+        <v>81029000</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q99" s="11"/>
+    </row>
+    <row r="100" spans="1:17" s="13" customFormat="1">
+      <c r="A100" s="5">
+        <v>81029001</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q100" s="11"/>
+    </row>
+    <row r="101" spans="1:17" s="13" customFormat="1">
+      <c r="A101" s="5">
+        <v>81030000</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="5">
+        <v>99</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="1:17" s="13" customFormat="1">
+      <c r="A102" s="5">
+        <v>81031000</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898C948-2D28-4B92-A4C6-8B7E2A7F07E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BDE98-2308-4AA9-9A0A-D33E73E691C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -567,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혈토_만복도 소모</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>한입_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,6 +668,10 @@
   </si>
   <si>
     <t>지옥 아귀 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,24 +1195,24 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
@@ -3771,18 +3771,18 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
     </row>
-    <row r="73" spans="1:17" s="13" customFormat="1">
+    <row r="73" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A73" s="5">
         <v>81015001</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D73" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
@@ -3797,23 +3797,21 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
-      <c r="P73" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q73" s="11"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="1:17" s="13" customFormat="1">
       <c r="A74" s="5">
         <v>81015002</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>100</v>
+        <v>189</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D74" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
@@ -3828,15 +3826,17 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
+      <c r="P74" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q74" s="11"/>
     </row>
     <row r="75" spans="1:17" s="13" customFormat="1">
       <c r="A75" s="5">
         <v>81016000</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>13</v>
@@ -3902,7 +3902,7 @@
         <v>81017000</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3968,7 +3968,7 @@
         <v>81018000</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>13</v>
@@ -4034,7 +4034,7 @@
         <v>81019000</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>13</v>
@@ -4100,10 +4100,10 @@
         <v>81019002</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>81020000</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>53</v>
@@ -4156,7 +4156,7 @@
         <v>104</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -4168,7 +4168,7 @@
         <v>81020001</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>100</v>
@@ -4197,10 +4197,10 @@
         <v>81021000</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>81022000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>81</v>
@@ -4255,7 +4255,7 @@
         <v>81023000</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>13</v>
@@ -4292,7 +4292,7 @@
         <v>81023001</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>124</v>
@@ -4315,7 +4315,7 @@
         <v>125</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
@@ -4327,7 +4327,7 @@
         <v>81024000</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>97</v>
@@ -4356,7 +4356,7 @@
         <v>81024001</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>84</v>
@@ -4387,7 +4387,7 @@
         <v>81025000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>97</v>
@@ -4416,7 +4416,7 @@
         <v>81025001</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>84</v>
@@ -4447,7 +4447,7 @@
         <v>81025002</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>48</v>
@@ -4476,7 +4476,7 @@
         <v>103</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
@@ -4488,7 +4488,7 @@
         <v>81026000</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>13</v>
@@ -4521,7 +4521,7 @@
         <v>81026001</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>57</v>
@@ -4554,7 +4554,7 @@
         <v>81027000</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>13</v>
@@ -4587,7 +4587,7 @@
         <v>81028000</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>13</v>
@@ -4620,7 +4620,7 @@
         <v>81029000</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>84</v>
@@ -4651,7 +4651,7 @@
         <v>81029001</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>84</v>
@@ -4682,7 +4682,7 @@
         <v>81030000</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>45</v>
@@ -4717,7 +4717,7 @@
         <v>81031000</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>13</v>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889BDE98-2308-4AA9-9A0A-D33E73E691C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE4B23-1BAA-41F8-8AF0-9260B247248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고래회충_중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81011001_IconDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아메바뇌염_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혈토 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한입_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -671,8 +659,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혈토 소환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>촌충_자기 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충_자기 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염_자기 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_만복도 소모하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1192,11 +1200,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3439,13 +3447,13 @@
     </row>
     <row r="63" spans="1:17" s="13" customFormat="1">
       <c r="A63" s="5">
-        <v>81011000</v>
+        <v>81010001</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
@@ -3454,70 +3462,66 @@
       <c r="F63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="1:17" s="13" customFormat="1">
       <c r="A64" s="5">
-        <v>81011001</v>
+        <v>81011000</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>124</v>
+        <v>152</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D64" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="5">
-        <v>3</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="N64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="1:17" s="13" customFormat="1">
       <c r="A65" s="5">
-        <v>81012000</v>
+        <v>81011001</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>13</v>
+        <v>187</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -3526,35 +3530,29 @@
       <c r="F65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="1:17" s="13" customFormat="1">
       <c r="A66" s="5">
-        <v>81012001</v>
+        <v>81012000</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -3563,74 +3561,82 @@
       <c r="F66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="5">
-        <v>3</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="1:17" s="13" customFormat="1">
       <c r="A67" s="5">
-        <v>81013000</v>
+        <v>81012001</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2</v>
+      </c>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="L67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q67" s="11"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="1:17" s="13" customFormat="1">
       <c r="A68" s="5">
-        <v>81013001</v>
+        <v>81012002</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>100</v>
+        <v>188</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D68" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G68" s="5">
+        <v>1</v>
+      </c>
+      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -3643,51 +3649,47 @@
     </row>
     <row r="69" spans="1:17" s="13" customFormat="1">
       <c r="A69" s="5">
-        <v>81014000</v>
+        <v>81013000</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D69" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
+      <c r="P69" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q69" s="11"/>
     </row>
     <row r="70" spans="1:17" s="13" customFormat="1">
       <c r="A70" s="5">
-        <v>81014001</v>
+        <v>81013001</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
@@ -3702,33 +3704,37 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q70" s="11"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="1:17" s="13" customFormat="1">
       <c r="A71" s="5">
-        <v>81014002</v>
+        <v>81014000</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>100</v>
+        <v>158</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D71" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -3738,45 +3744,41 @@
     </row>
     <row r="72" spans="1:17" s="13" customFormat="1">
       <c r="A72" s="5">
-        <v>81015000</v>
+        <v>81014001</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D72" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="P72" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q72" s="11"/>
+    </row>
+    <row r="73" spans="1:17" s="13" customFormat="1">
       <c r="A73" s="5">
-        <v>81015001</v>
+        <v>81014002</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>100</v>
@@ -3802,84 +3804,82 @@
     </row>
     <row r="74" spans="1:17" s="13" customFormat="1">
       <c r="A74" s="5">
-        <v>81015002</v>
+        <v>81015000</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>84</v>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D74" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q74" s="11"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="1:17" s="13" customFormat="1">
       <c r="A75" s="5">
-        <v>81016000</v>
+        <v>81015001</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>13</v>
+        <v>190</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N75" s="5"/>
       <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-    </row>
-    <row r="76" spans="1:17" s="13" customFormat="1">
+      <c r="P75" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q75" s="11"/>
+    </row>
+    <row r="76" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="5">
-        <v>81016001</v>
+        <v>81015002</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>97</v>
+        <v>191</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D76" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
@@ -3899,10 +3899,10 @@
     </row>
     <row r="77" spans="1:17" s="13" customFormat="1">
       <c r="A77" s="5">
-        <v>81017000</v>
+        <v>81016000</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>13</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="78" spans="1:17" s="13" customFormat="1">
       <c r="A78" s="5">
-        <v>81017001</v>
+        <v>81016001</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>96</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="79" spans="1:17" s="13" customFormat="1">
       <c r="A79" s="5">
-        <v>81018000</v>
+        <v>81017000</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">
@@ -4002,7 +4002,7 @@
     </row>
     <row r="80" spans="1:17" s="13" customFormat="1">
       <c r="A80" s="5">
-        <v>81018001</v>
+        <v>81017001</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>96</v>
@@ -4031,10 +4031,10 @@
     </row>
     <row r="81" spans="1:17" s="13" customFormat="1">
       <c r="A81" s="5">
-        <v>81019000</v>
+        <v>81018000</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>13</v>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>16</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="82" spans="1:17" s="13" customFormat="1">
       <c r="A82" s="5">
-        <v>81019001</v>
+        <v>81018001</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>96</v>
@@ -4097,67 +4097,65 @@
     </row>
     <row r="83" spans="1:17" s="13" customFormat="1">
       <c r="A83" s="5">
-        <v>81019002</v>
+        <v>81019000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D83" s="5">
         <v>1</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="1:17" s="13" customFormat="1">
       <c r="A84" s="5">
-        <v>81020000</v>
+        <v>81019001</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D84" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="5">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
@@ -4165,16 +4163,16 @@
     </row>
     <row r="85" spans="1:17" s="13" customFormat="1">
       <c r="A85" s="5">
-        <v>81020001</v>
+        <v>81019002</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>100</v>
+        <v>165</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D85" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
@@ -4194,28 +4192,38 @@
     </row>
     <row r="86" spans="1:17" s="13" customFormat="1">
       <c r="A86" s="5">
-        <v>81021000</v>
+        <v>81020000</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D86" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="G86" s="5">
+        <v>2</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="L86" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
@@ -4223,23 +4231,23 @@
     </row>
     <row r="87" spans="1:17" s="13" customFormat="1">
       <c r="A87" s="5">
-        <v>81022000</v>
+        <v>81020001</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>81</v>
+        <v>167</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D87" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -4252,71 +4260,57 @@
     </row>
     <row r="88" spans="1:17" s="13" customFormat="1">
       <c r="A88" s="5">
-        <v>81023000</v>
+        <v>81021000</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>13</v>
+        <v>169</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D88" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="5"/>
-      <c r="H88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="1:17" s="13" customFormat="1">
       <c r="A89" s="5">
-        <v>81023001</v>
+        <v>81022000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D89" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="5">
-        <v>3</v>
-      </c>
+      <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
@@ -4324,76 +4318,88 @@
     </row>
     <row r="90" spans="1:17" s="13" customFormat="1">
       <c r="A90" s="5">
-        <v>81024000</v>
+        <v>81023000</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>97</v>
+        <v>171</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D90" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G90" s="5"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
+      <c r="N90" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="1:17" s="13" customFormat="1">
       <c r="A91" s="5">
-        <v>81024001</v>
+        <v>81023001</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>84</v>
+        <v>172</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D91" s="5">
         <v>1</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G91" s="5">
+        <v>3</v>
+      </c>
+      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
-      <c r="P91" s="11">
-        <v>1005</v>
-      </c>
-      <c r="Q91" s="11"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="1:17" s="13" customFormat="1">
       <c r="A92" s="5">
-        <v>81025000</v>
+        <v>81024000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
@@ -4413,10 +4419,10 @@
     </row>
     <row r="93" spans="1:17" s="13" customFormat="1">
       <c r="A93" s="5">
-        <v>81025001</v>
+        <v>81024001</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>84</v>
@@ -4444,310 +4450,370 @@
     </row>
     <row r="94" spans="1:17" s="13" customFormat="1">
       <c r="A94" s="5">
-        <v>81025002</v>
+        <v>81025000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D94" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="5">
-        <v>3</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" s="13" customFormat="1">
       <c r="A95" s="5">
-        <v>81026000</v>
+        <v>81025001</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>13</v>
+        <v>175</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D95" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G95" s="5"/>
-      <c r="H95" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
+      <c r="P95" s="11">
+        <v>1005</v>
+      </c>
+      <c r="Q95" s="11"/>
     </row>
     <row r="96" spans="1:17" s="13" customFormat="1">
       <c r="A96" s="5">
-        <v>81026001</v>
+        <v>81025002</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>57</v>
+        <v>177</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D96" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="G96" s="5">
+        <v>3</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="K96" s="5"/>
       <c r="L96" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="11"/>
     </row>
     <row r="97" spans="1:17" s="13" customFormat="1">
-      <c r="A97" s="16">
+      <c r="A97" s="5">
+        <v>81026000</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5">
+        <v>5</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" s="13" customFormat="1">
+      <c r="A98" s="5">
+        <v>81026001</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="5">
+        <v>3</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" s="13" customFormat="1">
+      <c r="A99" s="16">
         <v>81027000</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C97" s="16" t="s">
+      <c r="B99" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D99" s="16">
         <v>1</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16" t="s">
+      <c r="E99" s="16"/>
+      <c r="F99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-    </row>
-    <row r="98" spans="1:17" s="13" customFormat="1">
-      <c r="A98" s="16">
+      <c r="I99" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+    </row>
+    <row r="100" spans="1:17" s="13" customFormat="1">
+      <c r="A100" s="16">
         <v>81028000</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B100" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D100" s="16">
         <v>1</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16" t="s">
+      <c r="E100" s="16"/>
+      <c r="F100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-    </row>
-    <row r="99" spans="1:17" s="13" customFormat="1">
-      <c r="A99" s="5">
-        <v>81029000</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q99" s="11"/>
-    </row>
-    <row r="100" spans="1:17" s="13" customFormat="1">
-      <c r="A100" s="5">
-        <v>81029001</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="11">
-        <v>1004</v>
-      </c>
-      <c r="Q100" s="11"/>
+      <c r="I100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
     </row>
     <row r="101" spans="1:17" s="13" customFormat="1">
       <c r="A101" s="5">
-        <v>81030000</v>
+        <v>81029000</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>45</v>
+        <v>183</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D101" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G101" s="5"/>
-      <c r="H101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
+      <c r="P101" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q101" s="11"/>
     </row>
     <row r="102" spans="1:17" s="13" customFormat="1">
       <c r="A102" s="5">
-        <v>81031000</v>
+        <v>81029001</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>13</v>
+        <v>183</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D102" s="5">
         <v>1</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q102" s="11"/>
+    </row>
+    <row r="103" spans="1:17" s="13" customFormat="1">
+      <c r="A103" s="5">
+        <v>81030000</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="5">
+        <v>99</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" s="13" customFormat="1">
+      <c r="A104" s="5">
+        <v>81031000</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE4B23-1BAA-41F8-8AF0-9260B247248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1550B-1A05-4CC7-A06B-B3FDCC3C22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="194">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -575,10 +575,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>마나 채우기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>포만감 방어력 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,10 +619,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>아군 공격력 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>81025002_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -681,6 +673,22 @@
   <si>
     <t>혈토 발사_만복도 소모하기</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_만복도 채우기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_마나 채우기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1203,8 +1211,8 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3450,7 +3458,7 @@
         <v>81010001</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>124</v>
@@ -3518,7 +3526,7 @@
         <v>81011001</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>124</v>
@@ -3621,7 +3629,7 @@
         <v>81012002</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>124</v>
@@ -3807,7 +3815,7 @@
         <v>81015000</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>13</v>
@@ -3842,7 +3850,7 @@
         <v>81015001</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>84</v>
@@ -3873,7 +3881,7 @@
         <v>81015002</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>100</v>
@@ -4040,7 +4048,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="s">
@@ -4137,7 +4145,7 @@
         <v>81019001</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>97</v>
@@ -4166,7 +4174,7 @@
         <v>81019002</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>164</v>
@@ -4195,7 +4203,7 @@
         <v>81020000</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>53</v>
@@ -4222,7 +4230,7 @@
         <v>104</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
@@ -4234,7 +4242,7 @@
         <v>81020001</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>100</v>
@@ -4263,7 +4271,7 @@
         <v>81021000</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>164</v>
@@ -4292,7 +4300,7 @@
         <v>81022000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>81</v>
@@ -4321,7 +4329,7 @@
         <v>81023000</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>13</v>
@@ -4358,7 +4366,7 @@
         <v>81023001</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>124</v>
@@ -4381,7 +4389,7 @@
         <v>125</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
@@ -4393,7 +4401,7 @@
         <v>81024000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>97</v>
@@ -4422,7 +4430,7 @@
         <v>81024001</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>84</v>
@@ -4453,7 +4461,7 @@
         <v>81025000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>97</v>
@@ -4482,7 +4490,7 @@
         <v>81025001</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>84</v>
@@ -4513,7 +4521,7 @@
         <v>81025002</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>48</v>
@@ -4542,7 +4550,7 @@
         <v>103</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
@@ -4554,7 +4562,7 @@
         <v>81026000</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>13</v>
@@ -4587,19 +4595,21 @@
         <v>81026001</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D98" s="5">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="5"/>
+      <c r="G98" s="5">
+        <v>99</v>
+      </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -4620,7 +4630,7 @@
         <v>81027000</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>13</v>
@@ -4653,7 +4663,7 @@
         <v>81028000</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>13</v>
@@ -4686,7 +4696,7 @@
         <v>81029000</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>84</v>
@@ -4717,7 +4727,7 @@
         <v>81029001</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>84</v>
@@ -4748,7 +4758,7 @@
         <v>81030000</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>45</v>
@@ -4783,7 +4793,7 @@
         <v>81031000</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>13</v>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1550B-1A05-4CC7-A06B-B3FDCC3C22FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8880742-514A-46AB-90D7-85E3A8F89EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
   <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="D79" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="s">

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8880742-514A-46AB-90D7-85E3A8F89EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AD1BD-8B99-49A1-83A5-74CE495FF232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="5325" windowWidth="31950" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="197">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -688,6 +688,18 @@
   </si>
   <si>
     <t>푸와그라_공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 지휘관 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자폭 공격 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,11 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106:K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4825,6 +4837,117 @@
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
     </row>
+    <row r="105" spans="1:17" s="13" customFormat="1">
+      <c r="A105" s="5">
+        <v>81032000</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="5">
+        <v>81033000</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="4">
+        <v>6</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="5">
+        <v>81033001</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="4">
+        <v>4</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AD1BD-8B99-49A1-83A5-74CE495FF232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D12D62-AD75-45B0-B4F0-7C168FD524B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="198">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -700,6 +700,10 @@
   </si>
   <si>
     <t>자폭 공격 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 뽑을 카드로 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,11 +1224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106:K107"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4948,6 +4952,66 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
     </row>
+    <row r="108" spans="1:17" s="13" customFormat="1">
+      <c r="A108" s="5">
+        <v>81034000</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="11">
+        <v>2</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11">
+        <v>1004</v>
+      </c>
+      <c r="Q108" s="11"/>
+    </row>
+    <row r="109" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A109" s="5">
+        <v>81034001</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="5">
+        <v>20</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D12D62-AD75-45B0-B4F0-7C168FD524B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20233C5-6892-4E54-897B-6E1EEA372A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -704,6 +704,10 @@
   </si>
   <si>
     <t>카드 뽑을 카드로 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제_체력 회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,11 +1228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5012,6 +5016,72 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
     </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="5">
+        <v>81035000</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="5">
+        <v>3</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="1:17" s="13" customFormat="1">
+      <c r="A111" s="5">
+        <v>81035001</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" s="11">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11">
+        <v>1005</v>
+      </c>
+      <c r="Q111" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20233C5-6892-4E54-897B-6E1EEA372A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A10DF-74F3-45B6-BD28-4E4490D68145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="201">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -708,6 +708,14 @@
   </si>
   <si>
     <t>소화제_체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_만복도 소모하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_마나 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5082,6 +5090,64 @@
       </c>
       <c r="Q111" s="11"/>
     </row>
+    <row r="112" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A112" s="5">
+        <v>81037000</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="5">
+        <v>30</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="1:17" s="13" customFormat="1">
+      <c r="A113" s="5">
+        <v>81037001</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A10DF-74F3-45B6-BD28-4E4490D68145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D7332-76B3-4D4A-BEAE-0CC0FCA680F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="204">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -716,6 +716,18 @@
   </si>
   <si>
     <t>만드라고라_마나 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켈배 근접 3번 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시하는 자 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시하는 자 범위 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E117" sqref="E117"/>
+      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5148,6 +5160,117 @@
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
     </row>
+    <row r="114" spans="1:17" s="13" customFormat="1">
+      <c r="A114" s="5">
+        <v>81038000</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="5">
+        <v>81039000</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="4">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="5">
+        <v>81039001</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3D7332-76B3-4D4A-BEAE-0CC0FCA680F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A0794-3689-4387-9A3D-C120381ACEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -728,6 +728,22 @@
   </si>
   <si>
     <t>주시하는 자 범위 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동생 의미 없는 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 언니 원거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠 근거리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 언리 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L115" sqref="L115"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5271,6 +5287,144 @@
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
     </row>
+    <row r="117" spans="1:17" s="13" customFormat="1">
+      <c r="A117" s="5">
+        <v>81040000</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="5">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="1:17" s="13" customFormat="1">
+      <c r="A118" s="5">
+        <v>81041000</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="5">
+        <v>4</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="1:17" s="13" customFormat="1">
+      <c r="A119" s="5">
+        <v>81042000</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="5">
+        <v>4</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="1:17" s="13" customFormat="1">
+      <c r="A120" s="5">
+        <v>81043000</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="5">
+        <v>3</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72A0794-3689-4387-9A3D-C120381ACEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091D318-9E50-40C1-B631-6F5698AFCF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="208">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1264,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5425,6 +5425,68 @@
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
     </row>
+    <row r="121" spans="1:17" s="13" customFormat="1">
+      <c r="A121" s="5">
+        <v>81044000</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="11">
+        <v>1</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G121" s="11">
+        <v>1</v>
+      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="5">
+        <v>81044001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="13" customFormat="1">
+      <c r="A122" s="5">
+        <v>81044001</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="11">
+        <v>99</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8091D318-9E50-40C1-B631-6F5698AFCF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2045B-BDE5-4B64-8D16-24CE9A17AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t>큰 언리 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 트름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수_힐링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수_보호막</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,11 +1276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q124" sqref="Q124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5487,6 +5499,115 @@
       <c r="P122" s="11"/>
       <c r="Q122" s="15"/>
     </row>
+    <row r="123" spans="1:17" s="13" customFormat="1">
+      <c r="A123" s="5">
+        <v>81045000</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="5">
+        <v>3</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="5">
+        <v>3</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="5">
+        <v>81046000</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="5">
+        <v>81046001</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="5">
+        <v>2</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A2045B-BDE5-4B64-8D16-24CE9A17AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECACC9D-9425-42BA-9287-D2881AF48B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="222">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -756,6 +767,47 @@
   </si>
   <si>
     <t>오염된 성수_보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황고구마_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81047000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드카드 선택 소환</t>
+  </si>
+  <si>
+    <t>뽑을카드 선택 소환</t>
+  </si>
+  <si>
+    <t>무덤카드 선택 소환</t>
+  </si>
+  <si>
+    <t>Summon_Hand_Sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon_DrawDeck_Sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon_GraveDeck_Sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카드 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1276,32 +1328,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q124" sqref="Q124"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P133" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="1"/>
+    <col min="3" max="3" width="24" style="10" customWidth="1"/>
+    <col min="4" max="8" width="8.75" style="1"/>
+    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1315,46 +1367,49 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="5">
         <v>70001</v>
       </c>
@@ -1368,30 +1423,31 @@
         <v>5</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="5">
         <v>70002</v>
       </c>
@@ -1405,30 +1461,31 @@
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5">
         <v>70003</v>
       </c>
@@ -1442,30 +1499,31 @@
         <v>4</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5">
         <v>70004</v>
       </c>
@@ -1479,32 +1537,33 @@
         <v>4</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5">
         <v>70005</v>
       </c>
@@ -1518,32 +1577,33 @@
         <v>3</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5">
         <v>70006</v>
       </c>
@@ -1556,33 +1616,34 @@
       <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5">
         <v>70007</v>
       </c>
@@ -1596,32 +1657,33 @@
         <v>5</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5">
         <v>70008</v>
       </c>
@@ -1635,28 +1697,29 @@
         <v>3</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5">
         <v>70009</v>
       </c>
@@ -1670,28 +1733,29 @@
         <v>4</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5">
         <v>70010</v>
       </c>
@@ -1705,30 +1769,31 @@
         <v>2</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5">
         <v>70011</v>
       </c>
@@ -1742,30 +1807,31 @@
         <v>2</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5">
         <v>70012</v>
       </c>
@@ -1779,30 +1845,31 @@
         <v>3</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5">
         <v>70013</v>
       </c>
@@ -1816,28 +1883,29 @@
         <v>3</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="5">
         <v>70014</v>
       </c>
@@ -1851,34 +1919,35 @@
         <v>2</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="5">
         <v>70015</v>
       </c>
@@ -1892,30 +1961,31 @@
         <v>3</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="5">
         <v>70016</v>
       </c>
@@ -1929,30 +1999,31 @@
         <v>5</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="5">
         <v>70017</v>
       </c>
@@ -1966,36 +2037,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="5">
         <v>70018</v>
       </c>
@@ -2009,36 +2081,37 @@
         <v>3</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="5">
         <v>70019</v>
       </c>
@@ -2052,32 +2125,33 @@
         <v>5</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="5">
         <v>70020</v>
       </c>
@@ -2091,32 +2165,33 @@
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="5">
         <v>70021</v>
       </c>
@@ -2130,34 +2205,35 @@
         <v>8</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" s="13" customFormat="1">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1">
       <c r="A23" s="5">
         <v>70022</v>
       </c>
@@ -2171,30 +2247,31 @@
         <v>5</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" s="13" customFormat="1">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="5">
         <v>70023</v>
       </c>
@@ -2208,30 +2285,31 @@
         <v>3</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" s="13" customFormat="1">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="5">
         <v>70024</v>
       </c>
@@ -2245,36 +2323,37 @@
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5">
         <v>3</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" s="13" customFormat="1">
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" s="13" customFormat="1">
       <c r="A26" s="5">
         <v>70025</v>
       </c>
@@ -2288,30 +2367,31 @@
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" s="13" customFormat="1">
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="5">
         <v>90001</v>
       </c>
@@ -2325,28 +2405,29 @@
         <v>4</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1">
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" s="13" customFormat="1">
       <c r="A28" s="5">
         <v>90002</v>
       </c>
@@ -2360,28 +2441,29 @@
         <v>5</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
+      <c r="J28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" s="13" customFormat="1">
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" s="13" customFormat="1">
       <c r="A29" s="5">
         <v>90003</v>
       </c>
@@ -2392,20 +2474,20 @@
         <v>72</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
         <v>0.2</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -2413,8 +2495,9 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" s="13" customFormat="1">
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" s="13" customFormat="1">
       <c r="A30" s="5">
         <v>90004</v>
       </c>
@@ -2428,17 +2511,17 @@
         <v>1</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2446,8 +2529,9 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" s="13" customFormat="1">
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" s="13" customFormat="1">
       <c r="A31" s="5">
         <v>90005</v>
       </c>
@@ -2461,30 +2545,31 @@
         <v>2</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="N31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" s="13" customFormat="1">
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="5">
         <v>90006</v>
       </c>
@@ -2498,15 +2583,15 @@
         <v>30</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2514,8 +2599,9 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" s="13" customFormat="1">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="5">
         <v>90007</v>
       </c>
@@ -2526,15 +2612,15 @@
         <v>72</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
         <v>0.1</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2543,8 +2629,9 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" s="13" customFormat="1">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" s="13" customFormat="1">
       <c r="A34" s="5">
         <v>100001</v>
       </c>
@@ -2558,12 +2645,12 @@
         <v>20</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2572,8 +2659,9 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" s="13" customFormat="1">
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="5">
         <v>100002</v>
       </c>
@@ -2587,12 +2675,12 @@
         <v>20</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -2601,8 +2689,9 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" s="13" customFormat="1">
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="11">
         <v>100011</v>
       </c>
@@ -2616,24 +2705,25 @@
         <v>1</v>
       </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
-      <c r="P36" s="11">
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11">
         <v>1001</v>
       </c>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" spans="1:17" s="13" customFormat="1">
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:18" s="13" customFormat="1">
       <c r="A37" s="11">
         <v>100012</v>
       </c>
@@ -2647,24 +2737,25 @@
         <v>1</v>
       </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="11">
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11">
         <v>1002</v>
       </c>
-      <c r="Q37" s="11"/>
-    </row>
-    <row r="38" spans="1:17" s="13" customFormat="1">
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" s="13" customFormat="1">
       <c r="A38" s="11">
         <v>100013</v>
       </c>
@@ -2678,24 +2769,25 @@
         <v>1</v>
       </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="P38" s="11">
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11">
         <v>1003</v>
       </c>
-      <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="1:17" s="13" customFormat="1">
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" s="13" customFormat="1">
       <c r="A39" s="11">
         <v>100021</v>
       </c>
@@ -2709,28 +2801,29 @@
         <v>1</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="11">
         <v>2</v>
       </c>
-      <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="11"/>
+      <c r="M39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="N39" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" s="13" customFormat="1">
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" s="13" customFormat="1">
       <c r="A40" s="11">
         <v>100022</v>
       </c>
@@ -2742,28 +2835,29 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="N40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17" s="13" customFormat="1">
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="1:18" s="13" customFormat="1">
       <c r="A41" s="11">
         <v>100023</v>
       </c>
@@ -2775,28 +2869,29 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="11">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="11">
         <v>3</v>
       </c>
-      <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="N41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:17" s="13" customFormat="1">
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="1:18" s="13" customFormat="1">
       <c r="A42" s="11">
         <v>100024</v>
       </c>
@@ -2810,28 +2905,29 @@
         <v>2</v>
       </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11">
         <v>2</v>
       </c>
-      <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="11"/>
+      <c r="M42" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="N42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-    </row>
-    <row r="43" spans="1:17" s="13" customFormat="1">
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" s="13" customFormat="1">
       <c r="A43" s="11">
         <v>100025</v>
       </c>
@@ -2845,28 +2941,29 @@
         <v>2</v>
       </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="11">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="11">
         <v>2</v>
       </c>
-      <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="11"/>
+      <c r="M43" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="N43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-    </row>
-    <row r="44" spans="1:17" s="13" customFormat="1">
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="1:18" s="13" customFormat="1">
       <c r="A44" s="11">
         <v>100026</v>
       </c>
@@ -2880,30 +2977,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="11">
+      <c r="H44" s="11">
         <v>1</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="11"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="11"/>
+      <c r="M44" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="N44" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="11">
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11">
         <v>100027</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="13" customFormat="1">
+    <row r="45" spans="1:18" s="13" customFormat="1">
       <c r="A45" s="11">
         <v>100027</v>
       </c>
@@ -2917,26 +3015,27 @@
         <v>2</v>
       </c>
       <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="11"/>
+      <c r="M45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="N45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="15"/>
-    </row>
-    <row r="46" spans="1:17" s="13" customFormat="1">
+      <c r="Q45" s="11"/>
+      <c r="R45" s="15"/>
+    </row>
+    <row r="46" spans="1:18" s="13" customFormat="1">
       <c r="A46" s="11">
         <v>81001000</v>
       </c>
@@ -2950,28 +3049,29 @@
         <v>3</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="F46" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="11"/>
       <c r="I46" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="11"/>
+      <c r="O46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-    </row>
-    <row r="47" spans="1:17" s="13" customFormat="1">
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:18" s="13" customFormat="1">
       <c r="A47" s="5">
         <v>81001001</v>
       </c>
@@ -2985,28 +3085,29 @@
         <v>0</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="5">
         <v>3</v>
       </c>
-      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="N47" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:17" s="13" customFormat="1">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" s="13" customFormat="1">
       <c r="A48" s="5">
         <v>81002000</v>
       </c>
@@ -3020,28 +3121,29 @@
         <v>2</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" s="13" customFormat="1">
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" s="13" customFormat="1">
       <c r="A49" s="5">
         <v>81002001</v>
       </c>
@@ -3055,28 +3157,29 @@
         <v>0</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="5">
         <v>3</v>
       </c>
-      <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="N49" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-    </row>
-    <row r="50" spans="1:17" s="13" customFormat="1">
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" s="13" customFormat="1">
       <c r="A50" s="5">
         <v>81003000</v>
       </c>
@@ -3090,28 +3193,29 @@
         <v>1</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-    </row>
-    <row r="51" spans="1:17" s="13" customFormat="1">
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" s="13" customFormat="1">
       <c r="A51" s="5">
         <v>81004000</v>
       </c>
@@ -3125,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -3139,8 +3243,9 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-    </row>
-    <row r="52" spans="1:17" s="13" customFormat="1">
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="1:18" s="13" customFormat="1">
       <c r="A52" s="5">
         <v>81004001</v>
       </c>
@@ -3154,28 +3259,29 @@
         <v>3</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="5">
         <v>2</v>
       </c>
-      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-    </row>
-    <row r="53" spans="1:17" s="13" customFormat="1">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:18" s="13" customFormat="1">
       <c r="A53" s="5">
         <v>81005000</v>
       </c>
@@ -3189,28 +3295,29 @@
         <v>3</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="5"/>
       <c r="I53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-    </row>
-    <row r="54" spans="1:17" s="13" customFormat="1">
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:18" s="13" customFormat="1">
       <c r="A54" s="5">
         <v>81005001</v>
       </c>
@@ -3224,26 +3331,27 @@
         <v>0</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="5">
         <v>2</v>
       </c>
-      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="5"/>
+      <c r="M54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-    </row>
-    <row r="55" spans="1:17" s="13" customFormat="1">
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="1:18" s="13" customFormat="1">
       <c r="A55" s="5">
         <v>81005002</v>
       </c>
@@ -3257,28 +3365,29 @@
         <v>2</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="5"/>
       <c r="I55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-    </row>
-    <row r="56" spans="1:17" s="13" customFormat="1">
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="1:18" s="13" customFormat="1">
       <c r="A56" s="5">
         <v>81005003</v>
       </c>
@@ -3292,26 +3401,27 @@
         <v>0</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="5">
         <v>2</v>
       </c>
-      <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-    </row>
-    <row r="57" spans="1:17" s="13" customFormat="1">
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="1:18" s="13" customFormat="1">
       <c r="A57" s="5">
         <v>81006000</v>
       </c>
@@ -3325,28 +3435,29 @@
         <v>3</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-    </row>
-    <row r="58" spans="1:17" s="13" customFormat="1">
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="1:18" s="13" customFormat="1">
       <c r="A58" s="5">
         <v>81006001</v>
       </c>
@@ -3360,28 +3471,29 @@
         <v>3</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="5">
         <v>2</v>
       </c>
-      <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="5"/>
+      <c r="M58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="N58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-    </row>
-    <row r="59" spans="1:17" s="13" customFormat="1">
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="1:18" s="13" customFormat="1">
       <c r="A59" s="5">
         <v>81007000</v>
       </c>
@@ -3395,30 +3507,31 @@
         <v>2</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-    </row>
-    <row r="60" spans="1:17" s="13" customFormat="1">
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="1:18" s="13" customFormat="1">
       <c r="A60" s="5">
         <v>81008000</v>
       </c>
@@ -3432,30 +3545,31 @@
         <v>3</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-    </row>
-    <row r="61" spans="1:17" s="13" customFormat="1">
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="1:18" s="13" customFormat="1">
       <c r="A61" s="5">
         <v>81009000</v>
       </c>
@@ -3469,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -3483,8 +3597,9 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:17" s="13" customFormat="1">
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="1:18" s="13" customFormat="1">
       <c r="A62" s="5">
         <v>81010000</v>
       </c>
@@ -3498,30 +3613,31 @@
         <v>1</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:17" s="13" customFormat="1">
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="1:18" s="13" customFormat="1">
       <c r="A63" s="5">
         <v>81010001</v>
       </c>
@@ -3535,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="5">
         <v>1</v>
       </c>
-      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -3551,8 +3667,9 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-    </row>
-    <row r="64" spans="1:17" s="13" customFormat="1">
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="1:18" s="13" customFormat="1">
       <c r="A64" s="5">
         <v>81011000</v>
       </c>
@@ -3566,30 +3683,31 @@
         <v>4</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="s">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" s="13" customFormat="1">
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="1:18" s="13" customFormat="1">
       <c r="A65" s="5">
         <v>81011001</v>
       </c>
@@ -3603,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="5">
         <v>1</v>
       </c>
-      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3619,8 +3737,9 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-    </row>
-    <row r="66" spans="1:17" s="13" customFormat="1">
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="1:18" s="13" customFormat="1">
       <c r="A66" s="5">
         <v>81012000</v>
       </c>
@@ -3634,30 +3753,31 @@
         <v>1</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5" t="s">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" s="13" customFormat="1">
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="1:18" s="13" customFormat="1">
       <c r="A67" s="5">
         <v>81012001</v>
       </c>
@@ -3671,28 +3791,29 @@
         <v>2</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5">
         <v>2</v>
       </c>
-      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="N67" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-    </row>
-    <row r="68" spans="1:17" s="13" customFormat="1">
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="1:18" s="13" customFormat="1">
       <c r="A68" s="5">
         <v>81012002</v>
       </c>
@@ -3706,13 +3827,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="5">
         <v>1</v>
       </c>
-      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -3722,8 +3843,9 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" s="13" customFormat="1">
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="1:18" s="13" customFormat="1">
       <c r="A69" s="5">
         <v>81013000</v>
       </c>
@@ -3737,24 +3859,25 @@
         <v>1</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
-      <c r="P69" s="11">
+      <c r="P69" s="5"/>
+      <c r="Q69" s="11">
         <v>1004</v>
       </c>
-      <c r="Q69" s="11"/>
-    </row>
-    <row r="70" spans="1:17" s="13" customFormat="1">
+      <c r="R69" s="11"/>
+    </row>
+    <row r="70" spans="1:18" s="13" customFormat="1">
       <c r="A70" s="5">
         <v>81013001</v>
       </c>
@@ -3768,12 +3891,12 @@
         <v>20</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -3782,8 +3905,9 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" s="13" customFormat="1">
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="1:18" s="13" customFormat="1">
       <c r="A71" s="5">
         <v>81014000</v>
       </c>
@@ -3797,28 +3921,29 @@
         <v>2</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5" t="s">
+      <c r="J71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-    </row>
-    <row r="72" spans="1:17" s="13" customFormat="1">
+      <c r="R71" s="5"/>
+    </row>
+    <row r="72" spans="1:18" s="13" customFormat="1">
       <c r="A72" s="5">
         <v>81014001</v>
       </c>
@@ -3832,24 +3957,25 @@
         <v>1</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="11">
+      <c r="P72" s="5"/>
+      <c r="Q72" s="11">
         <v>1004</v>
       </c>
-      <c r="Q72" s="11"/>
-    </row>
-    <row r="73" spans="1:17" s="13" customFormat="1">
+      <c r="R72" s="11"/>
+    </row>
+    <row r="73" spans="1:18" s="13" customFormat="1">
       <c r="A73" s="5">
         <v>81014002</v>
       </c>
@@ -3863,12 +3989,12 @@
         <v>20</v>
       </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -3877,8 +4003,9 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-    </row>
-    <row r="74" spans="1:17" s="13" customFormat="1">
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="1:18" s="13" customFormat="1">
       <c r="A74" s="5">
         <v>81015000</v>
       </c>
@@ -3892,28 +4019,29 @@
         <v>2</v>
       </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5" t="s">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5" t="s">
+      <c r="J74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-    </row>
-    <row r="75" spans="1:17" s="13" customFormat="1">
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="1:18" s="13" customFormat="1">
       <c r="A75" s="5">
         <v>81015001</v>
       </c>
@@ -3927,24 +4055,25 @@
         <v>1</v>
       </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
-      <c r="P75" s="11">
+      <c r="P75" s="5"/>
+      <c r="Q75" s="11">
         <v>1004</v>
       </c>
-      <c r="Q75" s="11"/>
-    </row>
-    <row r="76" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="R75" s="11"/>
+    </row>
+    <row r="76" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="5">
         <v>81015002</v>
       </c>
@@ -3958,12 +4087,12 @@
         <v>20</v>
       </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -3972,8 +4101,9 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-    </row>
-    <row r="77" spans="1:17" s="13" customFormat="1">
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="1:18" s="13" customFormat="1">
       <c r="A77" s="5">
         <v>81016000</v>
       </c>
@@ -3987,30 +4117,31 @@
         <v>2</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5" t="s">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="5"/>
+      <c r="O77" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-    </row>
-    <row r="78" spans="1:17" s="13" customFormat="1">
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="1:18" s="13" customFormat="1">
       <c r="A78" s="5">
         <v>81016001</v>
       </c>
@@ -4024,12 +4155,12 @@
         <v>10</v>
       </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -4038,8 +4169,9 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-    </row>
-    <row r="79" spans="1:17" s="13" customFormat="1">
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="1:18" s="13" customFormat="1">
       <c r="A79" s="5">
         <v>81017000</v>
       </c>
@@ -4053,30 +4185,31 @@
         <v>6</v>
       </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5" t="s">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="5"/>
+      <c r="O79" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-    </row>
-    <row r="80" spans="1:17" s="13" customFormat="1">
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="1:18" s="13" customFormat="1">
       <c r="A80" s="5">
         <v>81017001</v>
       </c>
@@ -4090,12 +4223,12 @@
         <v>10</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -4104,8 +4237,9 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-    </row>
-    <row r="81" spans="1:17" s="13" customFormat="1">
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="1:18" s="13" customFormat="1">
       <c r="A81" s="5">
         <v>81018000</v>
       </c>
@@ -4119,30 +4253,31 @@
         <v>2</v>
       </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5" t="s">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-    </row>
-    <row r="82" spans="1:17" s="13" customFormat="1">
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="1:18" s="13" customFormat="1">
       <c r="A82" s="5">
         <v>81018001</v>
       </c>
@@ -4156,12 +4291,12 @@
         <v>10</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -4170,8 +4305,9 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-    </row>
-    <row r="83" spans="1:17" s="13" customFormat="1">
+      <c r="R82" s="5"/>
+    </row>
+    <row r="83" spans="1:18" s="13" customFormat="1">
       <c r="A83" s="5">
         <v>81019000</v>
       </c>
@@ -4185,30 +4321,31 @@
         <v>1</v>
       </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5" t="s">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="5"/>
+      <c r="O83" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-    </row>
-    <row r="84" spans="1:17" s="13" customFormat="1">
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="1:18" s="13" customFormat="1">
       <c r="A84" s="5">
         <v>81019001</v>
       </c>
@@ -4222,12 +4359,12 @@
         <v>10</v>
       </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -4236,8 +4373,9 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-    </row>
-    <row r="85" spans="1:17" s="13" customFormat="1">
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="1:18" s="13" customFormat="1">
       <c r="A85" s="5">
         <v>81019002</v>
       </c>
@@ -4251,12 +4389,12 @@
         <v>1</v>
       </c>
       <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -4265,8 +4403,9 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
-    </row>
-    <row r="86" spans="1:17" s="13" customFormat="1">
+      <c r="R85" s="5"/>
+    </row>
+    <row r="86" spans="1:18" s="13" customFormat="1">
       <c r="A86" s="5">
         <v>81020000</v>
       </c>
@@ -4280,32 +4419,33 @@
         <v>3</v>
       </c>
       <c r="E86" s="5"/>
-      <c r="F86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="5">
         <v>2</v>
       </c>
-      <c r="H86" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-      <c r="L86" s="5" t="s">
+      <c r="L86" s="5"/>
+      <c r="M86" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="N86" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-    </row>
-    <row r="87" spans="1:17" s="13" customFormat="1">
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="1:18" s="13" customFormat="1">
       <c r="A87" s="5">
         <v>81020001</v>
       </c>
@@ -4319,12 +4459,12 @@
         <v>10</v>
       </c>
       <c r="E87" s="5"/>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
@@ -4333,8 +4473,9 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
-    </row>
-    <row r="88" spans="1:17" s="13" customFormat="1">
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="1:18" s="13" customFormat="1">
       <c r="A88" s="5">
         <v>81021000</v>
       </c>
@@ -4348,10 +4489,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -4362,8 +4503,9 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
-    </row>
-    <row r="89" spans="1:17" s="13" customFormat="1">
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="1:18" s="13" customFormat="1">
       <c r="A89" s="5">
         <v>81022000</v>
       </c>
@@ -4377,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -4391,8 +4533,9 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
-    </row>
-    <row r="90" spans="1:17" s="13" customFormat="1">
+      <c r="R89" s="5"/>
+    </row>
+    <row r="90" spans="1:18" s="13" customFormat="1">
       <c r="A90" s="5">
         <v>81023000</v>
       </c>
@@ -4406,30 +4549,31 @@
         <v>3</v>
       </c>
       <c r="E90" s="5"/>
-      <c r="F90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5" t="s">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I90" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="5"/>
+      <c r="O90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
-    </row>
-    <row r="91" spans="1:17" s="13" customFormat="1">
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="1:18" s="13" customFormat="1">
       <c r="A91" s="5">
         <v>81023001</v>
       </c>
@@ -4443,28 +4587,29 @@
         <v>1</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="5">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="5">
         <v>3</v>
       </c>
-      <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="5" t="s">
+      <c r="L91" s="5"/>
+      <c r="M91" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="N91" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-    </row>
-    <row r="92" spans="1:17" s="13" customFormat="1">
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="1:18" s="13" customFormat="1">
       <c r="A92" s="5">
         <v>81024000</v>
       </c>
@@ -4478,12 +4623,12 @@
         <v>20</v>
       </c>
       <c r="E92" s="5"/>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -4492,8 +4637,9 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
-    </row>
-    <row r="93" spans="1:17" s="13" customFormat="1">
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="1:18" s="13" customFormat="1">
       <c r="A93" s="5">
         <v>81024001</v>
       </c>
@@ -4507,24 +4653,25 @@
         <v>1</v>
       </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
-      <c r="P93" s="11">
+      <c r="P93" s="5"/>
+      <c r="Q93" s="11">
         <v>1005</v>
       </c>
-      <c r="Q93" s="11"/>
-    </row>
-    <row r="94" spans="1:17" s="13" customFormat="1">
+      <c r="R93" s="11"/>
+    </row>
+    <row r="94" spans="1:18" s="13" customFormat="1">
       <c r="A94" s="5">
         <v>81025000</v>
       </c>
@@ -4538,12 +4685,12 @@
         <v>30</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -4552,8 +4699,9 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
-    </row>
-    <row r="95" spans="1:17" s="13" customFormat="1">
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="1:18" s="13" customFormat="1">
       <c r="A95" s="5">
         <v>81025001</v>
       </c>
@@ -4567,24 +4715,25 @@
         <v>1</v>
       </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
-      <c r="P95" s="11">
+      <c r="P95" s="5"/>
+      <c r="Q95" s="11">
         <v>1005</v>
       </c>
-      <c r="Q95" s="11"/>
-    </row>
-    <row r="96" spans="1:17" s="13" customFormat="1">
+      <c r="R95" s="11"/>
+    </row>
+    <row r="96" spans="1:18" s="13" customFormat="1">
       <c r="A96" s="5">
         <v>81025002</v>
       </c>
@@ -4598,34 +4747,35 @@
         <v>2</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="5">
         <v>3</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5" t="s">
+      <c r="L96" s="5"/>
+      <c r="M96" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="N96" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-      <c r="P96" s="11"/>
+      <c r="P96" s="5"/>
       <c r="Q96" s="11"/>
-    </row>
-    <row r="97" spans="1:17" s="13" customFormat="1">
+      <c r="R96" s="11"/>
+    </row>
+    <row r="97" spans="1:18" s="13" customFormat="1">
       <c r="A97" s="5">
         <v>81026000</v>
       </c>
@@ -4639,17 +4789,17 @@
         <v>5</v>
       </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5" t="s">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -4657,8 +4807,9 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
-    </row>
-    <row r="98" spans="1:17" s="13" customFormat="1">
+      <c r="R97" s="5"/>
+    </row>
+    <row r="98" spans="1:18" s="13" customFormat="1">
       <c r="A98" s="5">
         <v>81026001</v>
       </c>
@@ -4672,28 +4823,29 @@
         <v>99</v>
       </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="5">
         <v>99</v>
       </c>
-      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="5" t="s">
+      <c r="L98" s="5"/>
+      <c r="M98" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="N98" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-    </row>
-    <row r="99" spans="1:17" s="13" customFormat="1">
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="1:18" s="13" customFormat="1">
       <c r="A99" s="16">
         <v>81027000</v>
       </c>
@@ -4707,17 +4859,17 @@
         <v>1</v>
       </c>
       <c r="E99" s="16"/>
-      <c r="F99" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16" t="s">
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I99" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J99" s="16"/>
+      <c r="J99" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
@@ -4725,8 +4877,9 @@
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
       <c r="Q99" s="16"/>
-    </row>
-    <row r="100" spans="1:17" s="13" customFormat="1">
+      <c r="R99" s="16"/>
+    </row>
+    <row r="100" spans="1:18" s="13" customFormat="1">
       <c r="A100" s="16">
         <v>81028000</v>
       </c>
@@ -4740,17 +4893,17 @@
         <v>1</v>
       </c>
       <c r="E100" s="16"/>
-      <c r="F100" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16" t="s">
+      <c r="F100" s="16"/>
+      <c r="G100" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="16"/>
+      <c r="J100" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
@@ -4758,8 +4911,9 @@
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
       <c r="Q100" s="16"/>
-    </row>
-    <row r="101" spans="1:17" s="13" customFormat="1">
+      <c r="R100" s="16"/>
+    </row>
+    <row r="101" spans="1:18" s="13" customFormat="1">
       <c r="A101" s="5">
         <v>81029000</v>
       </c>
@@ -4773,24 +4927,25 @@
         <v>1</v>
       </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
-      <c r="P101" s="11">
+      <c r="P101" s="5"/>
+      <c r="Q101" s="11">
         <v>1004</v>
       </c>
-      <c r="Q101" s="11"/>
-    </row>
-    <row r="102" spans="1:17" s="13" customFormat="1">
+      <c r="R101" s="11"/>
+    </row>
+    <row r="102" spans="1:18" s="13" customFormat="1">
       <c r="A102" s="5">
         <v>81029001</v>
       </c>
@@ -4804,24 +4959,25 @@
         <v>1</v>
       </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
-      <c r="P102" s="11">
+      <c r="P102" s="5"/>
+      <c r="Q102" s="11">
         <v>1004</v>
       </c>
-      <c r="Q102" s="11"/>
-    </row>
-    <row r="103" spans="1:17" s="13" customFormat="1">
+      <c r="R102" s="11"/>
+    </row>
+    <row r="103" spans="1:18" s="13" customFormat="1">
       <c r="A103" s="5">
         <v>81030000</v>
       </c>
@@ -4835,28 +4991,29 @@
         <v>99</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5" t="s">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I103" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-    </row>
-    <row r="104" spans="1:17" s="13" customFormat="1">
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="1:18" s="13" customFormat="1">
       <c r="A104" s="5">
         <v>81031000</v>
       </c>
@@ -4870,30 +5027,31 @@
         <v>1</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5" t="s">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="5"/>
+      <c r="O104" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" s="13" customFormat="1">
+      <c r="R104" s="5"/>
+    </row>
+    <row r="105" spans="1:18" s="13" customFormat="1">
       <c r="A105" s="5">
         <v>81032000</v>
       </c>
@@ -4907,30 +5065,31 @@
         <v>2</v>
       </c>
       <c r="E105" s="5"/>
-      <c r="F105" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5" t="s">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I105" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="5"/>
+      <c r="O105" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105" s="5"/>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="5">
         <v>81033000</v>
       </c>
@@ -4944,30 +5103,31 @@
         <v>6</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="F106" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="5" t="s">
+      <c r="F106" s="4"/>
+      <c r="G106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J106" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="5"/>
+      <c r="O106" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106" s="5"/>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="5">
         <v>81033001</v>
       </c>
@@ -4981,30 +5141,31 @@
         <v>4</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="5" t="s">
+      <c r="F107" s="4"/>
+      <c r="G107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="4"/>
+      <c r="I107" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I107" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J107" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="5"/>
+      <c r="O107" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-    </row>
-    <row r="108" spans="1:17" s="13" customFormat="1">
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="1:18" s="13" customFormat="1">
       <c r="A108" s="5">
         <v>81034000</v>
       </c>
@@ -5018,24 +5179,25 @@
         <v>2</v>
       </c>
       <c r="E108" s="11"/>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="11"/>
+      <c r="G108" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
-      <c r="P108" s="11">
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11">
         <v>1004</v>
       </c>
-      <c r="Q108" s="11"/>
-    </row>
-    <row r="109" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="R108" s="11"/>
+    </row>
+    <row r="109" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A109" s="5">
         <v>81034001</v>
       </c>
@@ -5049,12 +5211,12 @@
         <v>20</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -5063,8 +5225,9 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109" s="5"/>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="5">
         <v>81035000</v>
       </c>
@@ -5078,28 +5241,29 @@
         <v>3</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5" t="s">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I110" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-    </row>
-    <row r="111" spans="1:17" s="13" customFormat="1">
+      <c r="R110" s="5"/>
+    </row>
+    <row r="111" spans="1:18" s="13" customFormat="1">
       <c r="A111" s="5">
         <v>81035001</v>
       </c>
@@ -5113,24 +5277,25 @@
         <v>1</v>
       </c>
       <c r="E111" s="11"/>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="11"/>
+      <c r="G111" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
-      <c r="P111" s="11">
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11">
         <v>1005</v>
       </c>
-      <c r="Q111" s="11"/>
-    </row>
-    <row r="112" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="R111" s="11"/>
+    </row>
+    <row r="112" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A112" s="5">
         <v>81037000</v>
       </c>
@@ -5144,12 +5309,12 @@
         <v>30</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="5"/>
+      <c r="G112" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -5158,8 +5323,9 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
-    </row>
-    <row r="113" spans="1:17" s="13" customFormat="1">
+      <c r="R112" s="5"/>
+    </row>
+    <row r="113" spans="1:18" s="13" customFormat="1">
       <c r="A113" s="5">
         <v>81037001</v>
       </c>
@@ -5173,10 +5339,10 @@
         <v>3</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
@@ -5187,8 +5353,9 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-    </row>
-    <row r="114" spans="1:17" s="13" customFormat="1">
+      <c r="R113" s="5"/>
+    </row>
+    <row r="114" spans="1:18" s="13" customFormat="1">
       <c r="A114" s="5">
         <v>81038000</v>
       </c>
@@ -5202,30 +5369,31 @@
         <v>2</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5" t="s">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I114" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="5"/>
+      <c r="O114" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114" s="5"/>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="5">
         <v>81039000</v>
       </c>
@@ -5239,30 +5407,31 @@
         <v>3</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="F115" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="5" t="s">
+      <c r="F115" s="4"/>
+      <c r="G115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="4"/>
+      <c r="I115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I115" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="5"/>
+      <c r="O115" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="5">
         <v>81039001</v>
       </c>
@@ -5276,30 +5445,31 @@
         <v>1</v>
       </c>
       <c r="E116" s="4"/>
-      <c r="F116" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="5" t="s">
+      <c r="F116" s="4"/>
+      <c r="G116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="4"/>
+      <c r="I116" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I116" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="5"/>
+      <c r="O116" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
-    </row>
-    <row r="117" spans="1:17" s="13" customFormat="1">
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="1:18" s="13" customFormat="1">
       <c r="A117" s="5">
         <v>81040000</v>
       </c>
@@ -5313,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="E117" s="5"/>
-      <c r="F117" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="5">
+      <c r="F117" s="5"/>
+      <c r="G117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="5">
         <v>1</v>
       </c>
-      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -5329,8 +5499,9 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
-    </row>
-    <row r="118" spans="1:17" s="13" customFormat="1">
+      <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="1:18" s="13" customFormat="1">
       <c r="A118" s="5">
         <v>81041000</v>
       </c>
@@ -5344,30 +5515,31 @@
         <v>4</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5" t="s">
+      <c r="F118" s="5"/>
+      <c r="G118" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I118" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="5"/>
+      <c r="O118" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
-    </row>
-    <row r="119" spans="1:17" s="13" customFormat="1">
+      <c r="R118" s="5"/>
+    </row>
+    <row r="119" spans="1:18" s="13" customFormat="1">
       <c r="A119" s="5">
         <v>81042000</v>
       </c>
@@ -5381,30 +5553,31 @@
         <v>4</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5" t="s">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I119" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="5"/>
+      <c r="O119" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
-    </row>
-    <row r="120" spans="1:17" s="13" customFormat="1">
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="1:18" s="13" customFormat="1">
       <c r="A120" s="5">
         <v>81043000</v>
       </c>
@@ -5418,17 +5591,17 @@
         <v>3</v>
       </c>
       <c r="E120" s="5"/>
-      <c r="F120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5" t="s">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J120" s="5"/>
+      <c r="J120" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -5436,8 +5609,9 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
-    </row>
-    <row r="121" spans="1:17" s="13" customFormat="1">
+      <c r="R120" s="5"/>
+    </row>
+    <row r="121" spans="1:18" s="13" customFormat="1">
       <c r="A121" s="5">
         <v>81044000</v>
       </c>
@@ -5451,14 +5625,14 @@
         <v>1</v>
       </c>
       <c r="E121" s="11"/>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="11"/>
+      <c r="G121" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G121" s="11">
+      <c r="H121" s="11">
         <v>1</v>
       </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="11"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
       <c r="L121" s="11"/>
@@ -5466,11 +5640,12 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="5">
+      <c r="Q121" s="11"/>
+      <c r="R121" s="5">
         <v>81044001</v>
       </c>
     </row>
-    <row r="122" spans="1:17" s="13" customFormat="1">
+    <row r="122" spans="1:18" s="13" customFormat="1">
       <c r="A122" s="5">
         <v>81044001</v>
       </c>
@@ -5484,12 +5659,12 @@
         <v>99</v>
       </c>
       <c r="E122" s="11"/>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="11"/>
+      <c r="G122" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="14"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
@@ -5497,9 +5672,10 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
-      <c r="Q122" s="15"/>
-    </row>
-    <row r="123" spans="1:17" s="13" customFormat="1">
+      <c r="Q122" s="11"/>
+      <c r="R122" s="15"/>
+    </row>
+    <row r="123" spans="1:18" s="13" customFormat="1">
       <c r="A123" s="5">
         <v>81045000</v>
       </c>
@@ -5513,28 +5689,29 @@
         <v>3</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="5">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="5">
         <v>3</v>
       </c>
-      <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="5" t="s">
+      <c r="L123" s="5"/>
+      <c r="M123" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="N123" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
-    </row>
-    <row r="124" spans="1:17">
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="5">
         <v>81046000</v>
       </c>
@@ -5548,28 +5725,29 @@
         <v>3</v>
       </c>
       <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5" t="s">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I124" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
-    </row>
-    <row r="125" spans="1:17">
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="5">
         <v>81046001</v>
       </c>
@@ -5583,30 +5761,201 @@
         <v>3</v>
       </c>
       <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" s="5">
+      <c r="F125" s="5"/>
+      <c r="G125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="5">
         <v>2</v>
       </c>
-      <c r="H125" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="I125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="5" t="s">
+      <c r="L125" s="5"/>
+      <c r="M125" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M125" s="5" t="s">
+      <c r="N125" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="1:18" s="13" customFormat="1">
+      <c r="A126" s="5">
+        <v>81047000</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="5">
+        <v>10</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H126" s="5">
+        <v>2</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+    </row>
+    <row r="127" spans="1:18" s="13" customFormat="1">
+      <c r="A127" s="11">
+        <v>99991000</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D127" s="11">
+        <v>1</v>
+      </c>
+      <c r="E127" s="11">
+        <v>2</v>
+      </c>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R127" s="11"/>
+    </row>
+    <row r="128" spans="1:18" s="13" customFormat="1">
+      <c r="A128" s="11">
+        <v>99992000</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" s="11">
+        <v>1</v>
+      </c>
+      <c r="E128" s="11">
+        <v>3</v>
+      </c>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R128" s="11"/>
+    </row>
+    <row r="129" spans="1:18" s="13" customFormat="1">
+      <c r="A129" s="11">
+        <v>99993000</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D129" s="11">
+        <v>1</v>
+      </c>
+      <c r="E129" s="11">
+        <v>4</v>
+      </c>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" s="11"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R129" s="11"/>
+    </row>
+    <row r="130" spans="1:18" s="13" customFormat="1">
+      <c r="A130" s="11">
+        <v>99994000</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" s="11">
+        <v>2</v>
+      </c>
+      <c r="E130" s="11">
+        <v>1015</v>
+      </c>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130" s="11"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECACC9D-9425-42BA-9287-D2881AF48B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2B1FF8-60BF-49C2-A2EB-6E4F5A3282BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="1920" windowWidth="34815" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -1331,8 +1331,8 @@
   <dimension ref="A1:R130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P133" sqref="P133"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2B1FF8-60BF-49C2-A2EB-6E4F5A3282BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566DA2A5-60C0-4AD2-A2AF-AB37979C4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1920" windowWidth="34815" windowHeight="19005" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="224">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -808,6 +808,14 @@
   </si>
   <si>
     <t>DeleteCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_첫열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_후열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R130"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3037,193 +3045,183 @@
     </row>
     <row r="46" spans="1:18" s="13" customFormat="1">
       <c r="A46" s="11">
-        <v>81001000</v>
+        <v>99991000</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="D46" s="11">
-        <v>3</v>
-      </c>
-      <c r="E46" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2</v>
+      </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:18" s="13" customFormat="1">
+      <c r="A47" s="11">
+        <v>99992000</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" s="11">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11">
+        <v>3</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="1:18" s="13" customFormat="1">
+      <c r="A48" s="11">
+        <v>99993000</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="11">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="1:18" s="13" customFormat="1">
+      <c r="A49" s="11">
+        <v>99994000</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11">
+        <v>1015</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="1:18" s="13" customFormat="1">
+      <c r="A50" s="11">
+        <v>81001000</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="11">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" s="13" customFormat="1">
-      <c r="A47" s="5">
-        <v>81001001</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="5">
-        <v>3</v>
-      </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="1:18" s="13" customFormat="1">
-      <c r="A48" s="5">
-        <v>81002000</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="5">
-        <v>2</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="1:18" s="13" customFormat="1">
-      <c r="A49" s="5">
-        <v>81002001</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="1:18" s="13" customFormat="1">
-      <c r="A50" s="5">
-        <v>81003000</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" s="13" customFormat="1">
       <c r="A51" s="5">
-        <v>81004000</v>
+        <v>81001001</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
@@ -3233,13 +3231,19 @@
       <c r="G51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="5"/>
+      <c r="H51" s="5">
+        <v>3</v>
+      </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="M51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -3247,122 +3251,124 @@
     </row>
     <row r="52" spans="1:18" s="13" customFormat="1">
       <c r="A52" s="5">
-        <v>81004001</v>
+        <v>81002000</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>137</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D52" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="5">
-        <v>2</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="1:18" s="13" customFormat="1">
       <c r="A53" s="5">
-        <v>81005000</v>
+        <v>81002001</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
+        <v>138</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D53" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H53" s="5">
+        <v>3</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="M53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="1:18" s="13" customFormat="1">
       <c r="A54" s="5">
-        <v>81005001</v>
+        <v>81003000</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="5">
-        <v>2</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
     <row r="55" spans="1:18" s="13" customFormat="1">
       <c r="A55" s="5">
-        <v>81005002</v>
+        <v>81004000</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3370,35 +3376,29 @@
         <v>14</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
     <row r="56" spans="1:18" s="13" customFormat="1">
       <c r="A56" s="5">
-        <v>81005003</v>
+        <v>81004001</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -3415,7 +3415,9 @@
       <c r="M56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
@@ -3423,12 +3425,12 @@
     </row>
     <row r="57" spans="1:18" s="13" customFormat="1">
       <c r="A57" s="5">
-        <v>81006000</v>
+        <v>81005000</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="5">
@@ -3459,16 +3461,16 @@
     </row>
     <row r="58" spans="1:18" s="13" customFormat="1">
       <c r="A58" s="5">
-        <v>81006001</v>
+        <v>81005001</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -3485,9 +3487,7 @@
       <c r="M58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
@@ -3495,10 +3495,10 @@
     </row>
     <row r="59" spans="1:18" s="13" customFormat="1">
       <c r="A59" s="5">
-        <v>81007000</v>
+        <v>81005002</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>13</v>
@@ -3513,19 +3513,17 @@
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -3533,54 +3531,50 @@
     </row>
     <row r="60" spans="1:18" s="13" customFormat="1">
       <c r="A60" s="5">
-        <v>81008000</v>
+        <v>81005003</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>13</v>
+        <v>138</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D60" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H60" s="5">
+        <v>2</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="M60" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
     <row r="61" spans="1:18" s="13" customFormat="1">
       <c r="A61" s="5">
-        <v>81009000</v>
+        <v>81006000</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>97</v>
+        <v>144</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D61" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3588,99 +3582,109 @@
         <v>14</v>
       </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="I61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+      <c r="O61" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
     <row r="62" spans="1:18" s="13" customFormat="1">
       <c r="A62" s="5">
-        <v>81010000</v>
+        <v>81006001</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D62" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="H62" s="5">
+        <v>2</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="M62" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="1:18" s="13" customFormat="1">
       <c r="A63" s="5">
-        <v>81010001</v>
+        <v>81007000</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="D63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="1:18" s="13" customFormat="1">
       <c r="A64" s="5">
-        <v>81011000</v>
+        <v>81008000</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3689,7 +3693,7 @@
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>16</v>
@@ -3701,7 +3705,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
@@ -3709,25 +3713,23 @@
     </row>
     <row r="65" spans="1:18" s="13" customFormat="1">
       <c r="A65" s="5">
-        <v>81011001</v>
+        <v>81009000</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D65" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3741,13 +3743,13 @@
     </row>
     <row r="66" spans="1:18" s="13" customFormat="1">
       <c r="A66" s="5">
-        <v>81012000</v>
+        <v>81010000</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -3771,7 +3773,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -3779,16 +3781,16 @@
     </row>
     <row r="67" spans="1:18" s="13" customFormat="1">
       <c r="A67" s="5">
-        <v>81012001</v>
+        <v>81010001</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3796,18 +3798,14 @@
         <v>14</v>
       </c>
       <c r="H67" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
@@ -3815,45 +3813,51 @@
     </row>
     <row r="68" spans="1:18" s="13" customFormat="1">
       <c r="A68" s="5">
-        <v>81012002</v>
+        <v>81011000</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>124</v>
+        <v>152</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D68" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="5">
-        <v>1</v>
-      </c>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
+      <c r="O68" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
     <row r="69" spans="1:18" s="13" customFormat="1">
       <c r="A69" s="5">
-        <v>81013000</v>
+        <v>81011001</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>84</v>
+        <v>185</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D69" s="5">
         <v>1</v>
@@ -3861,10 +3865,12 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -3872,50 +3878,56 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R69" s="11"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
     </row>
     <row r="70" spans="1:18" s="13" customFormat="1">
       <c r="A70" s="5">
-        <v>81013001</v>
+        <v>81012000</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D70" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
     <row r="71" spans="1:18" s="13" customFormat="1">
       <c r="A71" s="5">
-        <v>81014000</v>
+        <v>81012001</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
@@ -3925,19 +3937,19 @@
       <c r="G71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H71" s="5">
+        <v>2</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
@@ -3945,13 +3957,13 @@
     </row>
     <row r="72" spans="1:18" s="13" customFormat="1">
       <c r="A72" s="5">
-        <v>81014001</v>
+        <v>81012002</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>84</v>
+        <v>186</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D72" s="5">
         <v>1</v>
@@ -3959,10 +3971,12 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -3970,23 +3984,21 @@
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R72" s="11"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
     </row>
     <row r="73" spans="1:18" s="13" customFormat="1">
       <c r="A73" s="5">
-        <v>81014002</v>
+        <v>81013000</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D73" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4002,38 +4014,34 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
+      <c r="Q73" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18" s="13" customFormat="1">
       <c r="A74" s="5">
-        <v>81015000</v>
+        <v>81013001</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D74" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H74" s="5"/>
-      <c r="I74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I74" s="6"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -4043,48 +4051,52 @@
     </row>
     <row r="75" spans="1:18" s="13" customFormat="1">
       <c r="A75" s="5">
-        <v>81015001</v>
+        <v>81014000</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>84</v>
+        <v>158</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H75" s="5"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="L75" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R75" s="11"/>
-    </row>
-    <row r="76" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="1:18" s="13" customFormat="1">
       <c r="A76" s="5">
-        <v>81015002</v>
+        <v>81014001</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>159</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D76" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4100,70 +4112,70 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
+      <c r="Q76" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R76" s="11"/>
     </row>
     <row r="77" spans="1:18" s="13" customFormat="1">
       <c r="A77" s="5">
-        <v>81016000</v>
+        <v>81014002</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D77" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H77" s="5"/>
-      <c r="I77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I77" s="6"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
     <row r="78" spans="1:18" s="13" customFormat="1">
       <c r="A78" s="5">
-        <v>81016001</v>
+        <v>81015000</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D78" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="5"/>
+      <c r="I78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
+      <c r="L78" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -4173,54 +4185,48 @@
     </row>
     <row r="79" spans="1:18" s="13" customFormat="1">
       <c r="A79" s="5">
-        <v>81017000</v>
+        <v>81015001</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>13</v>
+        <v>188</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D79" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H79" s="5"/>
-      <c r="I79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I79" s="6"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="1:18" s="13" customFormat="1">
+      <c r="Q79" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R79" s="11"/>
+    </row>
+    <row r="80" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A80" s="5">
-        <v>81017001</v>
+        <v>81015002</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>97</v>
+        <v>189</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D80" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -4241,10 +4247,10 @@
     </row>
     <row r="81" spans="1:18" s="13" customFormat="1">
       <c r="A81" s="5">
-        <v>81018000</v>
+        <v>81016000</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>13</v>
@@ -4279,7 +4285,7 @@
     </row>
     <row r="82" spans="1:18" s="13" customFormat="1">
       <c r="A82" s="5">
-        <v>81018001</v>
+        <v>81016001</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>96</v>
@@ -4309,16 +4315,16 @@
     </row>
     <row r="83" spans="1:18" s="13" customFormat="1">
       <c r="A83" s="5">
-        <v>81019000</v>
+        <v>81017000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -4327,7 +4333,7 @@
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>16</v>
@@ -4347,10 +4353,10 @@
     </row>
     <row r="84" spans="1:18" s="13" customFormat="1">
       <c r="A84" s="5">
-        <v>81019001</v>
+        <v>81017001</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>97</v>
@@ -4377,69 +4383,67 @@
     </row>
     <row r="85" spans="1:18" s="13" customFormat="1">
       <c r="A85" s="5">
-        <v>81019002</v>
+        <v>81018000</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="I85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
+      <c r="O85" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
     <row r="86" spans="1:18" s="13" customFormat="1">
       <c r="A86" s="5">
-        <v>81020000</v>
+        <v>81018001</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D86" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="5">
-        <v>2</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
@@ -4447,54 +4451,62 @@
     </row>
     <row r="87" spans="1:18" s="13" customFormat="1">
       <c r="A87" s="5">
-        <v>81020001</v>
+        <v>81019000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>100</v>
+        <v>163</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D87" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="I87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
+      <c r="O87" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
     <row r="88" spans="1:18" s="13" customFormat="1">
       <c r="A88" s="5">
-        <v>81021000</v>
+        <v>81019001</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D88" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -4507,24 +4519,24 @@
     </row>
     <row r="89" spans="1:18" s="13" customFormat="1">
       <c r="A89" s="5">
-        <v>81022000</v>
+        <v>81019002</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="D89" s="5">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -4537,13 +4549,13 @@
     </row>
     <row r="90" spans="1:18" s="13" customFormat="1">
       <c r="A90" s="5">
-        <v>81023000</v>
+        <v>81020000</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
@@ -4553,57 +4565,53 @@
       <c r="G90" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="5"/>
+      <c r="H90" s="5">
+        <v>2</v>
+      </c>
       <c r="I90" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="M90" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
     <row r="91" spans="1:18" s="13" customFormat="1">
       <c r="A91" s="5">
-        <v>81023001</v>
+        <v>81020001</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>124</v>
+        <v>166</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="5">
-        <v>3</v>
-      </c>
-      <c r="I91" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
@@ -4611,24 +4619,24 @@
     </row>
     <row r="92" spans="1:18" s="13" customFormat="1">
       <c r="A92" s="5">
-        <v>81024000</v>
+        <v>81021000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="D92" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="6"/>
+      <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -4641,24 +4649,24 @@
     </row>
     <row r="93" spans="1:18" s="13" customFormat="1">
       <c r="A93" s="5">
-        <v>81024001</v>
+        <v>81022000</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>84</v>
+        <v>169</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D93" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="6"/>
+      <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -4666,50 +4674,56 @@
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
-      <c r="Q93" s="11">
-        <v>1005</v>
-      </c>
-      <c r="R93" s="11"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
     </row>
     <row r="94" spans="1:18" s="13" customFormat="1">
       <c r="A94" s="5">
-        <v>81025000</v>
+        <v>81023000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>97</v>
+        <v>170</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D94" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="I94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
+      <c r="O94" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
     <row r="95" spans="1:18" s="13" customFormat="1">
       <c r="A95" s="5">
-        <v>81025001</v>
+        <v>81023001</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>84</v>
+        <v>171</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
@@ -4717,435 +4731,413 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="5"/>
-      <c r="I95" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H95" s="5">
+        <v>3</v>
+      </c>
+      <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
+      <c r="M95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
-      <c r="Q95" s="11">
-        <v>1005</v>
-      </c>
-      <c r="R95" s="11"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
     </row>
     <row r="96" spans="1:18" s="13" customFormat="1">
       <c r="A96" s="5">
-        <v>81025002</v>
+        <v>81024000</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="5">
-        <v>3</v>
-      </c>
-      <c r="I96" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
     </row>
     <row r="97" spans="1:18" s="13" customFormat="1">
       <c r="A97" s="5">
-        <v>81026000</v>
+        <v>81024001</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D97" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H97" s="5"/>
-      <c r="I97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="I97" s="6"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
+      <c r="Q97" s="11">
+        <v>1005</v>
+      </c>
+      <c r="R97" s="11"/>
     </row>
     <row r="98" spans="1:18" s="13" customFormat="1">
       <c r="A98" s="5">
-        <v>81026001</v>
+        <v>81025000</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>57</v>
+        <v>175</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D98" s="5">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="5">
-        <v>99</v>
-      </c>
-      <c r="I98" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
     <row r="99" spans="1:18" s="13" customFormat="1">
-      <c r="A99" s="16">
-        <v>81027000</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="16">
+      <c r="A99" s="5">
+        <v>81025001</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="5">
         <v>1</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16" t="s">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="11">
+        <v>1005</v>
+      </c>
+      <c r="R99" s="11"/>
+    </row>
+    <row r="100" spans="1:18" s="13" customFormat="1">
+      <c r="A100" s="5">
+        <v>81025002</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="5">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="5">
+        <v>3</v>
+      </c>
+      <c r="I100" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J99" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-    </row>
-    <row r="100" spans="1:18" s="13" customFormat="1">
-      <c r="A100" s="16">
-        <v>81028000</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="16">
-        <v>1</v>
-      </c>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
+      <c r="J100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="11"/>
+      <c r="R100" s="11"/>
     </row>
     <row r="101" spans="1:18" s="13" customFormat="1">
       <c r="A101" s="5">
-        <v>81029000</v>
+        <v>81026000</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>84</v>
+        <v>177</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D101" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="5"/>
+      <c r="I101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R101" s="11"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
     </row>
     <row r="102" spans="1:18" s="13" customFormat="1">
       <c r="A102" s="5">
-        <v>81029001</v>
+        <v>81026001</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>84</v>
+        <v>178</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D102" s="5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H102" s="5"/>
-      <c r="I102" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H102" s="5">
+        <v>99</v>
+      </c>
+      <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
+      <c r="M102" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
-      <c r="Q102" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R102" s="11"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
     </row>
     <row r="103" spans="1:18" s="13" customFormat="1">
-      <c r="A103" s="5">
-        <v>81030000</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D103" s="5">
-        <v>99</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5" t="s">
+      <c r="A103" s="16">
+        <v>81027000</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="16">
+        <v>1</v>
+      </c>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J103" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
+      <c r="J103" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
     </row>
     <row r="104" spans="1:18" s="13" customFormat="1">
-      <c r="A104" s="5">
-        <v>81031000</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="A104" s="16">
+        <v>81028000</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="16">
         <v>1</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
     </row>
     <row r="105" spans="1:18" s="13" customFormat="1">
       <c r="A105" s="5">
-        <v>81032000</v>
+        <v>81029000</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D105" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I105" s="6"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O105" s="5"/>
       <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="Q105" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R105" s="11"/>
+    </row>
+    <row r="106" spans="1:18" s="13" customFormat="1">
       <c r="A106" s="5">
-        <v>81033000</v>
+        <v>81029001</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="4">
-        <v>6</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K106" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
-      <c r="O106" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O106" s="5"/>
       <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="Q106" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R106" s="11"/>
+    </row>
+    <row r="107" spans="1:18" s="13" customFormat="1">
       <c r="A107" s="5">
-        <v>81033001</v>
+        <v>81030000</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="4">
-        <v>4</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D107" s="5">
+        <v>99</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H107" s="4"/>
+      <c r="H107" s="5"/>
       <c r="I107" s="5" t="s">
         <v>24</v>
       </c>
@@ -5153,99 +5145,111 @@
         <v>16</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
-      <c r="O107" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
     <row r="108" spans="1:18" s="13" customFormat="1">
       <c r="A108" s="5">
-        <v>81034000</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" s="11">
+        <v>81031000</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+    </row>
+    <row r="109" spans="1:18" s="13" customFormat="1">
+      <c r="A109" s="5">
+        <v>81032000</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5">
         <v>2</v>
-      </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H108" s="11"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R108" s="11"/>
-    </row>
-    <row r="109" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A109" s="5">
-        <v>81034001</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" s="5">
-        <v>20</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H109" s="5"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="I109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
+      <c r="O109" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="5">
-        <v>81035000</v>
+        <v>81033000</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" s="5">
-        <v>3</v>
-      </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D110" s="4">
+        <v>6</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H110" s="5"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="5" t="s">
         <v>24</v>
       </c>
@@ -5253,98 +5257,110 @@
         <v>16</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
+      <c r="O110" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="1:18" s="13" customFormat="1">
+    <row r="111" spans="1:18">
       <c r="A111" s="5">
-        <v>81035001</v>
-      </c>
-      <c r="B111" s="11" t="s">
+        <v>81033001</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="4">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+    </row>
+    <row r="112" spans="1:18" s="13" customFormat="1">
+      <c r="A112" s="5">
+        <v>81034000</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D111" s="11">
+      <c r="C112" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" s="11">
         <v>1</v>
       </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11" t="s">
+      <c r="E112" s="11">
+        <v>3</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H111" s="11"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11">
-        <v>1005</v>
-      </c>
-      <c r="R111" s="11"/>
-    </row>
-    <row r="112" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A112" s="5">
-        <v>81037000</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="H112" s="11"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11">
+        <v>1004</v>
+      </c>
+      <c r="R112" s="11"/>
+    </row>
+    <row r="113" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A113" s="5">
+        <v>81034001</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D112" s="5">
-        <v>30</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="1:18" s="13" customFormat="1">
-      <c r="A113" s="5">
-        <v>81037001</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="D113" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="I113" s="6"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -5355,18 +5371,18 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="1:18" s="13" customFormat="1">
+    <row r="114" spans="1:18">
       <c r="A114" s="5">
-        <v>81038000</v>
+        <v>81035000</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D114" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5375,121 +5391,103 @@
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" s="13" customFormat="1">
       <c r="A115" s="5">
-        <v>81039000</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="4">
-        <v>3</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="4"/>
-      <c r="I115" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K115" s="5" t="s">
+        <v>81035001</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D115" s="11">
+        <v>1</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11">
+        <v>1005</v>
+      </c>
+      <c r="R115" s="11"/>
+    </row>
+    <row r="116" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A116" s="5">
+        <v>81037000</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="5">
         <v>30</v>
       </c>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="A116" s="5">
-        <v>81039001</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="4"/>
-      <c r="I116" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
     <row r="117" spans="1:18" s="13" customFormat="1">
       <c r="A117" s="5">
-        <v>81040000</v>
+        <v>81037001</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>53</v>
+        <v>200</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D117" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="5">
-        <v>1</v>
-      </c>
+      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
@@ -5503,16 +5501,16 @@
     </row>
     <row r="118" spans="1:18" s="13" customFormat="1">
       <c r="A118" s="5">
-        <v>81041000</v>
+        <v>81038000</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5521,7 +5519,7 @@
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>16</v>
@@ -5533,193 +5531,205 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="1:18" s="13" customFormat="1">
+    <row r="119" spans="1:18">
       <c r="A119" s="5">
-        <v>81042000</v>
+        <v>81039000</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="5">
-        <v>4</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="D119" s="4">
+        <v>3</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
       <c r="G119" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H119" s="5"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="1:18" s="13" customFormat="1">
+    <row r="120" spans="1:18">
       <c r="A120" s="5">
-        <v>81043000</v>
+        <v>81039001</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="5">
-        <v>3</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="5"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J120" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
+      <c r="O120" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
     <row r="121" spans="1:18" s="13" customFormat="1">
       <c r="A121" s="5">
-        <v>81044000</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D121" s="11">
+        <v>81040000</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="5">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="5">
         <v>1</v>
       </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H121" s="11">
-        <v>1</v>
-      </c>
-      <c r="I121" s="14"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="5">
-        <v>81044001</v>
-      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
     </row>
     <row r="122" spans="1:18" s="13" customFormat="1">
       <c r="A122" s="5">
-        <v>81044001</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D122" s="11">
-        <v>99</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="15"/>
+        <v>81041000</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="5">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
     </row>
     <row r="123" spans="1:18" s="13" customFormat="1">
       <c r="A123" s="5">
-        <v>81045000</v>
+        <v>81042000</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>57</v>
+        <v>206</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D123" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H123" s="5">
-        <v>3</v>
-      </c>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L123" s="5"/>
-      <c r="M123" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N123" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" s="13" customFormat="1">
       <c r="A124" s="5">
-        <v>81046000</v>
+        <v>81043000</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D124" s="5">
         <v>3</v>
@@ -5736,9 +5746,7 @@
       <c r="J124" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K124" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -5747,215 +5755,289 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" s="13" customFormat="1">
       <c r="A125" s="5">
-        <v>81046001</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" s="5">
-        <v>3</v>
-      </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="5">
-        <v>2</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N125" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
+        <v>81044000</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="11">
+        <v>1</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H125" s="11">
+        <v>1</v>
+      </c>
+      <c r="I125" s="14"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="Q125" s="11"/>
+      <c r="R125" s="5">
+        <v>81044001</v>
+      </c>
     </row>
     <row r="126" spans="1:18" s="13" customFormat="1">
       <c r="A126" s="5">
+        <v>81044001</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" s="11">
+        <v>99</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H126" s="11"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="15"/>
+    </row>
+    <row r="127" spans="1:18" s="13" customFormat="1">
+      <c r="A127" s="5">
+        <v>81045000</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="5">
+        <v>3</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="5">
+        <v>3</v>
+      </c>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="5">
+        <v>81046000</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="5">
+        <v>81046001</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D129" s="5">
+        <v>3</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="5">
+        <v>2</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="1:18" s="13" customFormat="1">
+      <c r="A130" s="5">
         <v>81047000</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D130" s="5">
         <v>10</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5" t="s">
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H130" s="5">
         <v>2</v>
       </c>
-      <c r="I126" s="6"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5" t="s">
+      <c r="I130" s="6"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N130" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="1:18" s="13" customFormat="1">
-      <c r="A127" s="11">
-        <v>99991000</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D127" s="11">
-        <v>1</v>
-      </c>
-      <c r="E127" s="11">
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+    </row>
+    <row r="131" spans="1:18" s="13" customFormat="1">
+      <c r="A131" s="5">
+        <v>81048000</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="11">
+        <v>4</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="11"/>
+    </row>
+    <row r="132" spans="1:18" s="13" customFormat="1">
+      <c r="A132" s="5">
+        <v>81048001</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="11">
         <v>2</v>
       </c>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H127" s="11"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R127" s="11"/>
-    </row>
-    <row r="128" spans="1:18" s="13" customFormat="1">
-      <c r="A128" s="11">
-        <v>99992000</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D128" s="11">
-        <v>1</v>
-      </c>
-      <c r="E128" s="11">
-        <v>3</v>
-      </c>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R128" s="11"/>
-    </row>
-    <row r="129" spans="1:18" s="13" customFormat="1">
-      <c r="A129" s="11">
-        <v>99993000</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D129" s="11">
-        <v>1</v>
-      </c>
-      <c r="E129" s="11">
-        <v>4</v>
-      </c>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
-      <c r="P129" s="11"/>
-      <c r="Q129" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R129" s="11"/>
-    </row>
-    <row r="130" spans="1:18" s="13" customFormat="1">
-      <c r="A130" s="11">
-        <v>99994000</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="11">
-        <v>2</v>
-      </c>
-      <c r="E130" s="11">
-        <v>1015</v>
-      </c>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H130" s="11"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
-      <c r="P130" s="11"/>
-      <c r="Q130" s="11"/>
-      <c r="R130" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566DA2A5-60C0-4AD2-A2AF-AB37979C4C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF1E49-9E80-49B9-9338-1475AA95E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="229">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -816,6 +816,26 @@
   </si>
   <si>
     <t>묵직한 한방_후열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSatiety_Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubSatiety_Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEndTurn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +895,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +938,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -946,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,6 +1014,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1336,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1348,20 +1384,22 @@
     <col min="1" max="1" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="10" customWidth="1"/>
-    <col min="4" max="8" width="8.75" style="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="4" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.75" style="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1377,47 +1415,50 @@
       <c r="E1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="5">
         <v>70001</v>
       </c>
@@ -1432,30 +1473,31 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="5">
         <v>70002</v>
       </c>
@@ -1470,30 +1512,31 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="5">
         <v>70003</v>
       </c>
@@ -1508,30 +1551,31 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="5">
         <v>70004</v>
       </c>
@@ -1546,32 +1590,33 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5">
         <v>70005</v>
       </c>
@@ -1586,32 +1631,33 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5">
         <v>70006</v>
       </c>
@@ -1625,33 +1671,34 @@
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5">
         <v>70007</v>
       </c>
@@ -1666,32 +1713,33 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5">
         <v>70008</v>
       </c>
@@ -1706,28 +1754,29 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5">
         <v>70009</v>
       </c>
@@ -1742,28 +1791,29 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="5">
         <v>70010</v>
       </c>
@@ -1778,30 +1828,31 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5">
         <v>70011</v>
       </c>
@@ -1816,30 +1867,31 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5">
         <v>70012</v>
       </c>
@@ -1854,30 +1906,31 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5">
         <v>70013</v>
       </c>
@@ -1892,28 +1945,29 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5">
         <v>70014</v>
       </c>
@@ -1928,34 +1982,35 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="O15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5">
         <v>70015</v>
       </c>
@@ -1970,30 +2025,31 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5">
         <v>70016</v>
       </c>
@@ -2008,30 +2064,31 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5">
         <v>70017</v>
       </c>
@@ -2046,36 +2103,37 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="O18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5">
         <v>70018</v>
       </c>
@@ -2090,36 +2148,37 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5">
         <v>70019</v>
       </c>
@@ -2134,32 +2193,33 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5">
         <v>70020</v>
       </c>
@@ -2174,32 +2234,33 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5">
         <v>70021</v>
       </c>
@@ -2214,34 +2275,35 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:18" s="13" customFormat="1">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" s="13" customFormat="1">
       <c r="A23" s="5">
         <v>70022</v>
       </c>
@@ -2256,30 +2318,31 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" s="13" customFormat="1">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="13" customFormat="1">
       <c r="A24" s="5">
         <v>70023</v>
       </c>
@@ -2294,30 +2357,31 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:18" s="13" customFormat="1">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" s="13" customFormat="1">
       <c r="A25" s="5">
         <v>70024</v>
       </c>
@@ -2332,36 +2396,37 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="5">
         <v>3</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="P25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" s="13" customFormat="1">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" s="13" customFormat="1">
       <c r="A26" s="5">
         <v>70025</v>
       </c>
@@ -2376,30 +2441,31 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="1:18" s="13" customFormat="1">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" s="13" customFormat="1">
       <c r="A27" s="5">
         <v>90001</v>
       </c>
@@ -2414,28 +2480,29 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="1:18" s="13" customFormat="1">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" s="13" customFormat="1">
       <c r="A28" s="5">
         <v>90002</v>
       </c>
@@ -2450,28 +2517,29 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5" t="s">
+      <c r="K28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="1:18" s="13" customFormat="1">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" s="13" customFormat="1">
       <c r="A29" s="5">
         <v>90003</v>
       </c>
@@ -2483,20 +2551,20 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
         <v>0.2</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -2504,8 +2572,9 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:18" s="13" customFormat="1">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" s="13" customFormat="1">
       <c r="A30" s="5">
         <v>90004</v>
       </c>
@@ -2520,17 +2589,17 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="6"/>
+      <c r="K30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -2538,8 +2607,9 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="1:18" s="13" customFormat="1">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" s="13" customFormat="1">
       <c r="A31" s="5">
         <v>90005</v>
       </c>
@@ -2554,30 +2624,31 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>2</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="1:18" s="13" customFormat="1">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" s="13" customFormat="1">
       <c r="A32" s="5">
         <v>90006</v>
       </c>
@@ -2592,15 +2663,15 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -2608,8 +2679,9 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="1:18" s="13" customFormat="1">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" s="13" customFormat="1">
       <c r="A33" s="5">
         <v>90007</v>
       </c>
@@ -2621,15 +2693,15 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
         <v>0.1</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2638,8 +2710,9 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="1:18" s="13" customFormat="1">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19" s="13" customFormat="1">
       <c r="A34" s="5">
         <v>100001</v>
       </c>
@@ -2654,12 +2727,12 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2668,8 +2741,9 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="1:18" s="13" customFormat="1">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" s="13" customFormat="1">
       <c r="A35" s="5">
         <v>100002</v>
       </c>
@@ -2684,12 +2758,12 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2698,8 +2772,9 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="1:18" s="13" customFormat="1">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="1:19" s="13" customFormat="1">
       <c r="A36" s="11">
         <v>100011</v>
       </c>
@@ -2714,24 +2789,25 @@
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="11">
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11">
         <v>1001</v>
       </c>
-      <c r="R36" s="11"/>
-    </row>
-    <row r="37" spans="1:18" s="13" customFormat="1">
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" s="13" customFormat="1">
       <c r="A37" s="11">
         <v>100012</v>
       </c>
@@ -2746,24 +2822,25 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="11">
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11">
         <v>1002</v>
       </c>
-      <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" s="13" customFormat="1">
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" s="13" customFormat="1">
       <c r="A38" s="11">
         <v>100013</v>
       </c>
@@ -2778,24 +2855,25 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="11">
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11">
         <v>1003</v>
       </c>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" s="13" customFormat="1">
+      <c r="S38" s="11"/>
+    </row>
+    <row r="39" spans="1:19" s="13" customFormat="1">
       <c r="A39" s="11">
         <v>100021</v>
       </c>
@@ -2810,28 +2888,29 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="11">
         <v>2</v>
       </c>
-      <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="O39" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" s="13" customFormat="1">
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="1:19" s="13" customFormat="1">
       <c r="A40" s="11">
         <v>100022</v>
       </c>
@@ -2844,28 +2923,29 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="11">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="11">
         <v>1</v>
       </c>
-      <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="11"/>
+      <c r="N40" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="O40" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" s="13" customFormat="1">
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="1:19" s="13" customFormat="1">
       <c r="A41" s="11">
         <v>100023</v>
       </c>
@@ -2878,28 +2958,29 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="11">
         <v>3</v>
       </c>
-      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="11"/>
+      <c r="N41" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="O41" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" s="13" customFormat="1">
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="1:19" s="13" customFormat="1">
       <c r="A42" s="11">
         <v>100024</v>
       </c>
@@ -2914,28 +2995,29 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="11">
         <v>2</v>
       </c>
-      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="11"/>
+      <c r="N42" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="O42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" s="13" customFormat="1">
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="1:19" s="13" customFormat="1">
       <c r="A43" s="11">
         <v>100025</v>
       </c>
@@ -2950,28 +3032,29 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="11">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="11">
         <v>2</v>
       </c>
-      <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="11"/>
+      <c r="N43" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="O43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" s="13" customFormat="1">
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" s="13" customFormat="1">
       <c r="A44" s="11">
         <v>100026</v>
       </c>
@@ -2986,30 +3069,31 @@
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="11">
+      <c r="I44" s="11">
         <v>1</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="11"/>
+      <c r="J44" s="14"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="11"/>
+      <c r="N44" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="O44" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
-      <c r="R44" s="11">
+      <c r="R44" s="11"/>
+      <c r="S44" s="11">
         <v>100027</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1">
+    <row r="45" spans="1:19" s="13" customFormat="1">
       <c r="A45" s="11">
         <v>100027</v>
       </c>
@@ -3024,26 +3108,27 @@
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="14"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="11"/>
+      <c r="N45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="O45" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
-      <c r="R45" s="15"/>
-    </row>
-    <row r="46" spans="1:18" s="13" customFormat="1">
+      <c r="R45" s="11"/>
+      <c r="S45" s="15"/>
+    </row>
+    <row r="46" spans="1:19" s="13" customFormat="1">
       <c r="A46" s="11">
         <v>99991000</v>
       </c>
@@ -3060,24 +3145,25 @@
         <v>2</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="14"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="11">
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11">
         <v>1004</v>
       </c>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" s="13" customFormat="1">
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" s="13" customFormat="1">
       <c r="A47" s="11">
         <v>99992000</v>
       </c>
@@ -3094,24 +3180,25 @@
         <v>3</v>
       </c>
       <c r="F47" s="11"/>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="14"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="11">
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11">
         <v>1004</v>
       </c>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" s="13" customFormat="1">
+      <c r="S47" s="11"/>
+    </row>
+    <row r="48" spans="1:19" s="13" customFormat="1">
       <c r="A48" s="11">
         <v>99993000</v>
       </c>
@@ -3128,24 +3215,25 @@
         <v>4</v>
       </c>
       <c r="F48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="11">
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11">
         <v>1004</v>
       </c>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" s="13" customFormat="1">
+      <c r="S48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" s="13" customFormat="1">
       <c r="A49" s="11">
         <v>99994000</v>
       </c>
@@ -3162,12 +3250,12 @@
         <v>1015</v>
       </c>
       <c r="F49" s="11"/>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="11"/>
+      <c r="H49" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="14"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -3176,121 +3264,121 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" s="13" customFormat="1">
-      <c r="A50" s="11">
+      <c r="S49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" s="20" customFormat="1">
+      <c r="A50" s="17">
+        <v>99995000</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="17">
+        <v>10</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="17">
+        <v>3</v>
+      </c>
+      <c r="J50" s="19"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+    </row>
+    <row r="51" spans="1:19" s="20" customFormat="1">
+      <c r="A51" s="17">
+        <v>99996000</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="17">
+        <v>10</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="17">
+        <v>3</v>
+      </c>
+      <c r="J51" s="19"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+    </row>
+    <row r="52" spans="1:19" s="13" customFormat="1">
+      <c r="A52" s="11">
         <v>81001000</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B52" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D52" s="11">
         <v>3</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="11" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11" t="s">
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" s="13" customFormat="1">
-      <c r="A51" s="5">
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" s="13" customFormat="1">
+      <c r="A53" s="5">
         <v>81001001</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="5">
-        <v>3</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="1:18" s="13" customFormat="1">
-      <c r="A52" s="5">
-        <v>81002000</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18" s="13" customFormat="1">
-      <c r="A53" s="5">
-        <v>81002001</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>57</v>
@@ -3300,241 +3388,250 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="5">
         <v>3</v>
       </c>
-      <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N53" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O53" s="5"/>
+      <c r="O53" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18" s="13" customFormat="1">
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19" s="13" customFormat="1">
       <c r="A54" s="5">
-        <v>81003000</v>
+        <v>81002000</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="5"/>
       <c r="J54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="5"/>
+      <c r="P54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18" s="13" customFormat="1">
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19" s="13" customFormat="1">
       <c r="A55" s="5">
-        <v>81004000</v>
+        <v>81002001</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" s="13" customFormat="1">
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19" s="13" customFormat="1">
       <c r="A56" s="5">
-        <v>81004001</v>
+        <v>81003000</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2</v>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L56" s="5"/>
-      <c r="M56" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="P56" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18" s="13" customFormat="1">
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19" s="13" customFormat="1">
       <c r="A57" s="5">
-        <v>81005000</v>
+        <v>81004000</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18" s="13" customFormat="1">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19" s="13" customFormat="1">
       <c r="A58" s="5">
-        <v>81005001</v>
+        <v>81004001</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="5">
         <v>2</v>
       </c>
-      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="5"/>
+      <c r="N58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
+      <c r="O58" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18" s="13" customFormat="1">
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19" s="13" customFormat="1">
       <c r="A59" s="5">
-        <v>81005002</v>
+        <v>81005000</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="5"/>
+      <c r="P59" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18" s="13" customFormat="1">
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19" s="13" customFormat="1">
       <c r="A60" s="5">
-        <v>81005003</v>
+        <v>81005001</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>57</v>
@@ -3544,119 +3641,118 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="5">
         <v>2</v>
       </c>
-      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="5"/>
+      <c r="N60" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18" s="13" customFormat="1">
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19" s="13" customFormat="1">
       <c r="A61" s="5">
-        <v>81006000</v>
+        <v>81005002</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="5"/>
       <c r="J61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="5"/>
+      <c r="P61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18" s="13" customFormat="1">
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19" s="13" customFormat="1">
       <c r="A62" s="5">
-        <v>81006001</v>
+        <v>81005003</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="5">
         <v>2</v>
       </c>
-      <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="5"/>
+      <c r="N62" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18" s="13" customFormat="1">
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19" s="13" customFormat="1">
       <c r="A63" s="5">
-        <v>81007000</v>
+        <v>81006000</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="5"/>
       <c r="J63" s="5" t="s">
         <v>16</v>
       </c>
@@ -3666,139 +3762,147 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18" s="13" customFormat="1">
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19" s="13" customFormat="1">
       <c r="A64" s="5">
-        <v>81008000</v>
+        <v>81006001</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D64" s="5">
         <v>3</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="5">
+        <v>2</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="O64" s="5" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18" s="13" customFormat="1">
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19" s="13" customFormat="1">
       <c r="A65" s="5">
-        <v>81009000</v>
+        <v>81007000</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D65" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
+      <c r="P65" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18" s="13" customFormat="1">
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19" s="13" customFormat="1">
       <c r="A66" s="5">
-        <v>81010000</v>
+        <v>81008000</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="D66" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="J66" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="5"/>
+      <c r="P66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18" s="13" customFormat="1">
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19" s="13" customFormat="1">
       <c r="A67" s="5">
-        <v>81010001</v>
+        <v>81009000</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D67" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1</v>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -3810,51 +3914,53 @@
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18" s="13" customFormat="1">
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19" s="13" customFormat="1">
       <c r="A68" s="5">
-        <v>81011000</v>
+        <v>81010000</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D68" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5" t="s">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18" s="13" customFormat="1">
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19" s="13" customFormat="1">
       <c r="A69" s="5">
-        <v>81011001</v>
+        <v>81010001</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>124</v>
@@ -3864,13 +3970,13 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="5">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="5">
         <v>1</v>
       </c>
-      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -3880,165 +3986,178 @@
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18" s="13" customFormat="1">
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19" s="13" customFormat="1">
       <c r="A70" s="5">
-        <v>81012000</v>
+        <v>81011000</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5" t="s">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K70" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="5"/>
+      <c r="P70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18" s="13" customFormat="1">
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19" s="13" customFormat="1">
       <c r="A71" s="5">
-        <v>81012001</v>
+        <v>81011001</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D71" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2</v>
-      </c>
-      <c r="I71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="5">
+        <v>1</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18" s="13" customFormat="1">
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19" s="13" customFormat="1">
       <c r="A72" s="5">
-        <v>81012002</v>
+        <v>81012000</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D72" s="5">
         <v>1</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="5">
-        <v>1</v>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
+      <c r="P72" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="1:18" s="13" customFormat="1">
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19" s="13" customFormat="1">
       <c r="A73" s="5">
-        <v>81013000</v>
+        <v>81012001</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="5"/>
-      <c r="I73" s="6"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="5">
+        <v>2</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
+      <c r="N73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="P73" s="5"/>
-      <c r="Q73" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R73" s="11"/>
-    </row>
-    <row r="74" spans="1:18" s="13" customFormat="1">
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19" s="13" customFormat="1">
       <c r="A74" s="5">
-        <v>81013001</v>
+        <v>81012002</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D74" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -4048,262 +4167,264 @@
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="1:18" s="13" customFormat="1">
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19" s="13" customFormat="1">
       <c r="A75" s="5">
-        <v>81014000</v>
+        <v>81013000</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="1:18" s="13" customFormat="1">
+      <c r="R75" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S75" s="11"/>
+    </row>
+    <row r="76" spans="1:19" s="13" customFormat="1">
       <c r="A76" s="5">
-        <v>81014001</v>
+        <v>81013001</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D76" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R76" s="11"/>
-    </row>
-    <row r="77" spans="1:18" s="13" customFormat="1">
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19" s="13" customFormat="1">
       <c r="A77" s="5">
-        <v>81014002</v>
+        <v>81014000</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>100</v>
+        <v>158</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D77" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+      <c r="M77" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="1:18" s="13" customFormat="1">
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19" s="13" customFormat="1">
       <c r="A78" s="5">
-        <v>81015000</v>
+        <v>81014001</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D78" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="1:18" s="13" customFormat="1">
+      <c r="R78" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S78" s="11"/>
+    </row>
+    <row r="79" spans="1:19" s="13" customFormat="1">
       <c r="A79" s="5">
-        <v>81015001</v>
+        <v>81014002</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D79" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R79" s="11"/>
-    </row>
-    <row r="80" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19" s="13" customFormat="1">
       <c r="A80" s="5">
-        <v>81015002</v>
+        <v>81015000</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="M80" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="1:18" s="13" customFormat="1">
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19" s="13" customFormat="1">
       <c r="A81" s="5">
-        <v>81016000</v>
+        <v>81015001</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>188</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D81" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
-      <c r="O81" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="1:18" s="13" customFormat="1">
+      <c r="R81" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S81" s="11"/>
+    </row>
+    <row r="82" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A82" s="5">
-        <v>81016001</v>
+        <v>81015002</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>97</v>
+        <v>189</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D82" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -4312,48 +4433,50 @@
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="1:18" s="13" customFormat="1">
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19" s="13" customFormat="1">
       <c r="A83" s="5">
-        <v>81017000</v>
+        <v>81016000</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5" t="s">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J83" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="5" t="s">
+      <c r="O83" s="5"/>
+      <c r="P83" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="1:18" s="13" customFormat="1">
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19" s="13" customFormat="1">
       <c r="A84" s="5">
-        <v>81017001</v>
+        <v>81016001</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>96</v>
@@ -4366,12 +4489,12 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -4380,48 +4503,50 @@
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="1:18" s="13" customFormat="1">
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19" s="13" customFormat="1">
       <c r="A85" s="5">
-        <v>81018000</v>
+        <v>81017000</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5" t="s">
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="5"/>
+      <c r="P85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="1:18" s="13" customFormat="1">
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19" s="13" customFormat="1">
       <c r="A86" s="5">
-        <v>81018001</v>
+        <v>81017001</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>96</v>
@@ -4434,12 +4559,12 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -4448,51 +4573,53 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="1:18" s="13" customFormat="1">
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19" s="13" customFormat="1">
       <c r="A87" s="5">
-        <v>81019000</v>
+        <v>81018000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="5"/>
       <c r="J87" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L87" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="5" t="s">
+      <c r="O87" s="5"/>
+      <c r="P87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="1:18" s="13" customFormat="1">
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19" s="13" customFormat="1">
       <c r="A88" s="5">
-        <v>81019001</v>
+        <v>81018001</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>97</v>
@@ -4502,12 +4629,12 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="6"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -4516,98 +4643,99 @@
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="1:18" s="13" customFormat="1">
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19" s="13" customFormat="1">
       <c r="A89" s="5">
-        <v>81019002</v>
+        <v>81019000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D89" s="5">
         <v>1</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
+      <c r="P89" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="1:18" s="13" customFormat="1">
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19" s="13" customFormat="1">
       <c r="A90" s="5">
-        <v>81020000</v>
+        <v>81019001</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D90" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="5">
-        <v>2</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="6"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="1:18" s="13" customFormat="1">
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19" s="13" customFormat="1">
       <c r="A91" s="5">
-        <v>81020001</v>
+        <v>81019002</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>100</v>
+        <v>191</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D91" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H91" s="5"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -4616,58 +4744,70 @@
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="1:18" s="13" customFormat="1">
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19" s="13" customFormat="1">
       <c r="A92" s="5">
-        <v>81021000</v>
+        <v>81020000</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="5">
+        <v>2</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
+      <c r="N92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="1:18" s="13" customFormat="1">
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19" s="13" customFormat="1">
       <c r="A93" s="5">
-        <v>81022000</v>
+        <v>81020001</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>81</v>
+        <v>166</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D93" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="J93" s="6"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -4676,164 +4816,167 @@
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="1:18" s="13" customFormat="1">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19" s="13" customFormat="1">
       <c r="A94" s="5">
-        <v>81023000</v>
+        <v>81021000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D94" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="1:18" s="13" customFormat="1">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19" s="13" customFormat="1">
       <c r="A95" s="5">
-        <v>81023001</v>
+        <v>81022000</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D95" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="5">
-        <v>3</v>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="N95" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="1:18" s="13" customFormat="1">
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19" s="13" customFormat="1">
       <c r="A96" s="5">
-        <v>81024000</v>
+        <v>81023000</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>97</v>
+        <v>170</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D96" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H96" s="5"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
+      <c r="P96" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="1:18" s="13" customFormat="1">
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19" s="13" customFormat="1">
       <c r="A97" s="5">
-        <v>81024001</v>
+        <v>81023001</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>84</v>
+        <v>171</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D97" s="5">
         <v>1</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H97" s="5"/>
-      <c r="I97" s="6"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="5">
+        <v>3</v>
+      </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
+      <c r="N97" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="P97" s="5"/>
-      <c r="Q97" s="11">
-        <v>1005</v>
-      </c>
-      <c r="R97" s="11"/>
-    </row>
-    <row r="98" spans="1:18" s="13" customFormat="1">
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19" s="13" customFormat="1">
       <c r="A98" s="5">
-        <v>81025000</v>
+        <v>81024000</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D98" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="5"/>
+      <c r="H98" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H98" s="5"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -4842,13 +4985,14 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="1:18" s="13" customFormat="1">
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19" s="13" customFormat="1">
       <c r="A99" s="5">
-        <v>81025001</v>
+        <v>81024001</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>84</v>
@@ -4858,90 +5002,76 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
-      <c r="Q99" s="11">
+      <c r="Q99" s="5"/>
+      <c r="R99" s="11">
         <v>1005</v>
       </c>
-      <c r="R99" s="11"/>
-    </row>
-    <row r="100" spans="1:18" s="13" customFormat="1">
+      <c r="S99" s="11"/>
+    </row>
+    <row r="100" spans="1:19" s="13" customFormat="1">
       <c r="A100" s="5">
-        <v>81025002</v>
+        <v>81025000</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D100" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="5">
-        <v>3</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-    </row>
-    <row r="101" spans="1:18" s="13" customFormat="1">
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19" s="13" customFormat="1">
       <c r="A101" s="5">
-        <v>81026000</v>
+        <v>81025001</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D101" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -4949,1095 +5079,1207 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="1:18" s="13" customFormat="1">
+      <c r="R101" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S101" s="11"/>
+    </row>
+    <row r="102" spans="1:19" s="13" customFormat="1">
       <c r="A102" s="5">
-        <v>81026001</v>
+        <v>81025002</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>57</v>
+        <v>193</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D102" s="5">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="5">
-        <v>99</v>
-      </c>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="5">
+        <v>3</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O102" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="1:18" s="13" customFormat="1">
-      <c r="A103" s="16">
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
+    </row>
+    <row r="103" spans="1:19" s="13" customFormat="1">
+      <c r="A103" s="5">
+        <v>81026000</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="5">
+        <v>5</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19" s="13" customFormat="1">
+      <c r="A104" s="5">
+        <v>81026001</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="5">
+        <v>99</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="5">
+        <v>99</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19" s="13" customFormat="1">
+      <c r="A105" s="16">
         <v>81027000</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B105" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C105" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D105" s="16">
         <v>1</v>
       </c>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16" t="s">
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J103" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-    </row>
-    <row r="104" spans="1:18" s="13" customFormat="1">
-      <c r="A104" s="16">
+      <c r="K105" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19" s="13" customFormat="1">
+      <c r="A106" s="16">
         <v>81028000</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B106" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C106" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D106" s="16">
         <v>1</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16" t="s">
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J104" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-    </row>
-    <row r="105" spans="1:18" s="13" customFormat="1">
-      <c r="A105" s="5">
+      <c r="K106" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19" s="13" customFormat="1">
+      <c r="A107" s="5">
         <v>81029000</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D107" s="5">
         <v>1</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H105" s="5"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R105" s="11"/>
-    </row>
-    <row r="106" spans="1:18" s="13" customFormat="1">
-      <c r="A106" s="5">
-        <v>81029001</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="5">
-        <v>1</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H106" s="5"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R106" s="11"/>
-    </row>
-    <row r="107" spans="1:18" s="13" customFormat="1">
-      <c r="A107" s="5">
-        <v>81030000</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D107" s="5">
-        <v>99</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K107" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="1:18" s="13" customFormat="1">
+      <c r="R107" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S107" s="11"/>
+    </row>
+    <row r="108" spans="1:19" s="13" customFormat="1">
       <c r="A108" s="5">
-        <v>81031000</v>
+        <v>81029001</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D108" s="5">
         <v>1</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
-      <c r="O108" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="1:18" s="13" customFormat="1">
+      <c r="R108" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S108" s="11"/>
+    </row>
+    <row r="109" spans="1:19" s="13" customFormat="1">
       <c r="A109" s="5">
-        <v>81032000</v>
+        <v>81030000</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D109" s="5">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="5"/>
       <c r="J109" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L109" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19" s="13" customFormat="1">
       <c r="A110" s="5">
-        <v>81033000</v>
+        <v>81031000</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D110" s="4">
-        <v>6</v>
-      </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="5"/>
       <c r="J110" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L110" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19" s="13" customFormat="1">
       <c r="A111" s="5">
-        <v>81033001</v>
+        <v>81032000</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="4">
-        <v>4</v>
-      </c>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="4"/>
-      <c r="I111" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D111" s="5">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="5"/>
       <c r="J111" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L111" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="1:18" s="13" customFormat="1">
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="5">
-        <v>81034000</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D112" s="11">
-        <v>1</v>
-      </c>
-      <c r="E112" s="11">
-        <v>3</v>
-      </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11">
-        <v>1004</v>
-      </c>
-      <c r="R112" s="11"/>
-    </row>
-    <row r="113" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
+        <v>81033000</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="4">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="4"/>
+      <c r="J112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="5">
-        <v>81034001</v>
+        <v>81033001</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" s="5">
-        <v>20</v>
-      </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="4"/>
+      <c r="J113" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
+      <c r="P113" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19" s="13" customFormat="1">
       <c r="A114" s="5">
+        <v>81034000</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="11">
+        <v>1</v>
+      </c>
+      <c r="E114" s="11">
+        <v>3</v>
+      </c>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+      <c r="R114" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S114" s="11"/>
+    </row>
+    <row r="115" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A115" s="5">
+        <v>81034001</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="5">
+        <v>20</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="5">
         <v>81035000</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D116" s="5">
         <v>3</v>
-      </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="1:18" s="13" customFormat="1">
-      <c r="A115" s="5">
-        <v>81035001</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D115" s="11">
-        <v>1</v>
-      </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H115" s="11"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11">
-        <v>1005</v>
-      </c>
-      <c r="R115" s="11"/>
-    </row>
-    <row r="116" spans="1:18" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A116" s="5">
-        <v>81037000</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D116" s="5">
-        <v>30</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H116" s="5"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:18" s="13" customFormat="1">
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19" s="13" customFormat="1">
       <c r="A117" s="5">
-        <v>81037001</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D117" s="5">
-        <v>3</v>
-      </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="1:18" s="13" customFormat="1">
+        <v>81035001</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D117" s="11">
+        <v>1</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+      <c r="R117" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S117" s="11"/>
+    </row>
+    <row r="118" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A118" s="5">
-        <v>81038000</v>
+        <v>81037000</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>13</v>
+        <v>199</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D118" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19" s="13" customFormat="1">
       <c r="A119" s="5">
-        <v>81039000</v>
+        <v>81037001</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="4">
+        <v>164</v>
+      </c>
+      <c r="D119" s="5">
         <v>3</v>
       </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="4"/>
-      <c r="I119" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19" s="13" customFormat="1">
       <c r="A120" s="5">
-        <v>81039001</v>
+        <v>81038000</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="4">
-        <v>1</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="4"/>
-      <c r="I120" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D120" s="5">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" s="5"/>
       <c r="J120" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="1:18" s="13" customFormat="1">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="5">
-        <v>81040000</v>
+        <v>81039000</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="5">
-        <v>0</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="5">
-        <v>1</v>
-      </c>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="4">
+        <v>3</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" s="4"/>
+      <c r="J121" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
+      <c r="P121" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="1:18" s="13" customFormat="1">
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="5">
-        <v>81041000</v>
+        <v>81039001</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C122" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="5">
-        <v>4</v>
-      </c>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5" t="s">
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="4"/>
+      <c r="J122" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J122" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="K122" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L122" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
-      <c r="O122" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="1:18" s="13" customFormat="1">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="1:19" s="13" customFormat="1">
       <c r="A123" s="5">
-        <v>81042000</v>
+        <v>81040000</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>13</v>
+        <v>204</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D123" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K123" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="5">
+        <v>1</v>
+      </c>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="1:18" s="13" customFormat="1">
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="1:19" s="13" customFormat="1">
       <c r="A124" s="5">
-        <v>81043000</v>
+        <v>81041000</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5" t="s">
+      <c r="G124" s="5"/>
+      <c r="H124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J124" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
+      <c r="K124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
+      <c r="P124" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="1:18" s="13" customFormat="1">
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="1:19" s="13" customFormat="1">
       <c r="A125" s="5">
+        <v>81042000</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="5">
+        <v>4</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="1:19" s="13" customFormat="1">
+      <c r="A126" s="5">
+        <v>81043000</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="5">
+        <v>3</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="1:19" s="13" customFormat="1">
+      <c r="A127" s="5">
         <v>81044000</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B127" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C127" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="11">
+      <c r="D127" s="11">
         <v>1</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11" t="s">
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H125" s="11">
+      <c r="I127" s="11">
         <v>1</v>
       </c>
-      <c r="I125" s="14"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
-      <c r="P125" s="11"/>
-      <c r="Q125" s="11"/>
-      <c r="R125" s="5">
+      <c r="J127" s="14"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="11"/>
+      <c r="S127" s="5">
         <v>81044001</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="13" customFormat="1">
-      <c r="A126" s="5">
+    <row r="128" spans="1:19" s="13" customFormat="1">
+      <c r="A128" s="5">
         <v>81044001</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B128" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C128" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D128" s="11">
         <v>99</v>
       </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11" t="s">
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
-      <c r="P126" s="11"/>
-      <c r="Q126" s="11"/>
-      <c r="R126" s="15"/>
-    </row>
-    <row r="127" spans="1:18" s="13" customFormat="1">
-      <c r="A127" s="5">
+      <c r="I128" s="11"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="11"/>
+      <c r="S128" s="15"/>
+    </row>
+    <row r="129" spans="1:19" s="13" customFormat="1">
+      <c r="A129" s="5">
         <v>81045000</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D127" s="5">
-        <v>3</v>
-      </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="5">
-        <v>3</v>
-      </c>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N127" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="A128" s="5">
-        <v>81046000</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D128" s="5">
-        <v>3</v>
-      </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="1:18">
-      <c r="A129" s="5">
-        <v>81046001</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D129" s="5">
         <v>3</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="5">
-        <v>2</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="5">
+        <v>3</v>
+      </c>
+      <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="O129" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="1:18" s="13" customFormat="1">
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="5">
-        <v>81047000</v>
+        <v>81046000</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="D130" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H130" s="5">
-        <v>2</v>
-      </c>
-      <c r="I130" s="6"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N130" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="1:18" s="13" customFormat="1">
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="5">
+        <v>81046001</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="5">
+        <v>3</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="5">
+        <v>2</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="1:19" s="13" customFormat="1">
+      <c r="A132" s="5">
+        <v>81047000</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="5">
+        <v>10</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" s="5">
+        <v>2</v>
+      </c>
+      <c r="J132" s="6"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="1:19" s="13" customFormat="1">
+      <c r="A133" s="5">
         <v>81048000</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D133" s="11">
         <v>4</v>
       </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" s="11" t="s">
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="11" t="s">
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11"/>
-      <c r="R131" s="11"/>
-    </row>
-    <row r="132" spans="1:18" s="13" customFormat="1">
-      <c r="A132" s="5">
+      <c r="Q133" s="11"/>
+      <c r="R133" s="11"/>
+      <c r="S133" s="11"/>
+    </row>
+    <row r="134" spans="1:19" s="13" customFormat="1">
+      <c r="A134" s="5">
         <v>81048001</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="11">
+      <c r="D134" s="11">
         <v>2</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J132" s="11" t="s">
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
-      <c r="N132" s="11"/>
-      <c r="O132" s="11" t="s">
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P132" s="11"/>
-      <c r="Q132" s="11"/>
-      <c r="R132" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="11"/>
+      <c r="S134" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF1E49-9E80-49B9-9338-1475AA95E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF30EDF9-22E6-497B-B834-7FBD19757FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="232">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -836,6 +836,18 @@
   </si>
   <si>
     <t>isEndTurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임_마나 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹슬라임_만복도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S134"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U135" sqref="U135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6177,14 +6189,16 @@
       <c r="B132" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>97</v>
+      <c r="C132" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="D132" s="5">
         <v>10</v>
       </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+      <c r="F132" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
         <v>85</v>
@@ -6281,6 +6295,109 @@
       <c r="R134" s="11"/>
       <c r="S134" s="11"/>
     </row>
+    <row r="135" spans="1:19" s="13" customFormat="1">
+      <c r="A135" s="5">
+        <v>81049000</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="11">
+        <v>4</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11">
+        <v>81049001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" s="13" customFormat="1">
+      <c r="A136" s="5">
+        <v>81049001</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5">
+        <v>81049002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" s="13" customFormat="1">
+      <c r="A137" s="5">
+        <v>81049002</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="5">
+        <v>10</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+      <c r="N137" s="5"/>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF30EDF9-22E6-497B-B834-7FBD19757FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD91AF-C75B-4CB1-A96E-22476695B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="235">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -849,6 +849,18 @@
   <si>
     <t>킹슬라임_만복도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망_공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81050000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망_만복도 소모하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1384,11 +1396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:S139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U135" sqref="U135"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6398,6 +6410,80 @@
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
     </row>
+    <row r="138" spans="1:19" s="13" customFormat="1">
+      <c r="A138" s="5">
+        <v>81050000</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="5">
+        <v>5</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="5">
+        <v>1</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+    </row>
+    <row r="139" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A139" s="5">
+        <v>81050001</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" s="5">
+        <v>10</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AD91AF-C75B-4CB1-A96E-22476695B537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC9B60-D26E-4D32-9A7D-092C4EF3C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="236">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -860,6 +860,10 @@
   </si>
   <si>
     <t>탐식의 욕망_만복도 소모하기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식_만복도</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1396,11 +1400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S139"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6484,6 +6488,136 @@
       <c r="R139" s="5"/>
       <c r="S139" s="5"/>
     </row>
+    <row r="140" spans="1:19" s="13" customFormat="1">
+      <c r="A140" s="5">
+        <v>81053000</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="5">
+        <v>50</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="5"/>
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="1:19" s="13" customFormat="1">
+      <c r="A141" s="5">
+        <v>81053001</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I141" s="5"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S141" s="11"/>
+    </row>
+    <row r="142" spans="1:19" s="13" customFormat="1">
+      <c r="A142" s="5">
+        <v>81053002</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142" s="5"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S142" s="11"/>
+    </row>
+    <row r="143" spans="1:19" s="13" customFormat="1">
+      <c r="A143" s="5">
+        <v>81053003</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I143" s="5"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S143" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CC9B60-D26E-4D32-9A7D-092C4EF3C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE426671-A31E-40B7-B3A2-5AE7166C0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="240">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -865,6 +865,22 @@
   <si>
     <t>야식_만복도</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSatietyGauge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1400,11 +1416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3364,123 +3380,113 @@
       <c r="R51" s="17"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" s="13" customFormat="1">
-      <c r="A52" s="11">
+    <row r="52" spans="1:19" s="20" customFormat="1">
+      <c r="A52" s="17">
+        <v>99997000</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+    </row>
+    <row r="53" spans="1:19" s="20" customFormat="1">
+      <c r="A53" s="17">
+        <v>99998000</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
+      <c r="J53" s="19"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+    </row>
+    <row r="54" spans="1:19" s="13" customFormat="1">
+      <c r="A54" s="11">
         <v>81001000</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D54" s="11">
         <v>3</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="11" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11" t="s">
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-    </row>
-    <row r="53" spans="1:19" s="13" customFormat="1">
-      <c r="A53" s="5">
-        <v>81001001</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="5">
-        <v>3</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-    </row>
-    <row r="54" spans="1:19" s="13" customFormat="1">
-      <c r="A54" s="5">
-        <v>81002000</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
     </row>
     <row r="55" spans="1:19" s="13" customFormat="1">
       <c r="A55" s="5">
-        <v>81002001</v>
+        <v>81001001</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>57</v>
@@ -3505,7 +3511,7 @@
         <v>105</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -3514,16 +3520,16 @@
     </row>
     <row r="56" spans="1:19" s="13" customFormat="1">
       <c r="A56" s="5">
-        <v>81003000</v>
+        <v>81002000</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -3551,13 +3557,13 @@
     </row>
     <row r="57" spans="1:19" s="13" customFormat="1">
       <c r="A57" s="5">
-        <v>81004000</v>
+        <v>81002001</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D57" s="5">
         <v>0</v>
@@ -3568,13 +3574,19 @@
       <c r="H57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>3</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -3582,16 +3594,16 @@
     </row>
     <row r="58" spans="1:19" s="13" customFormat="1">
       <c r="A58" s="5">
-        <v>81004001</v>
+        <v>81003000</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>57</v>
+        <v>139</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D58" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -3599,36 +3611,36 @@
       <c r="H58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="5">
-        <v>2</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="P58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" s="13" customFormat="1">
       <c r="A59" s="5">
-        <v>81005000</v>
+        <v>81004000</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3637,35 +3649,29 @@
         <v>14</v>
       </c>
       <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19" s="13" customFormat="1">
       <c r="A60" s="5">
-        <v>81005001</v>
+        <v>81004001</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D60" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3683,7 +3689,9 @@
       <c r="N60" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O60" s="5"/>
+      <c r="O60" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -3691,16 +3699,16 @@
     </row>
     <row r="61" spans="1:19" s="13" customFormat="1">
       <c r="A61" s="5">
-        <v>81005002</v>
+        <v>81005000</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3728,10 +3736,10 @@
     </row>
     <row r="62" spans="1:19" s="13" customFormat="1">
       <c r="A62" s="5">
-        <v>81005003</v>
+        <v>81005001</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>57</v>
@@ -3763,16 +3771,16 @@
     </row>
     <row r="63" spans="1:19" s="13" customFormat="1">
       <c r="A63" s="5">
-        <v>81006000</v>
+        <v>81005002</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -3800,16 +3808,16 @@
     </row>
     <row r="64" spans="1:19" s="13" customFormat="1">
       <c r="A64" s="5">
-        <v>81006001</v>
+        <v>81005003</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D64" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3827,9 +3835,7 @@
       <c r="N64" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="O64" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -3837,16 +3843,16 @@
     </row>
     <row r="65" spans="1:19" s="13" customFormat="1">
       <c r="A65" s="5">
-        <v>81007000</v>
+        <v>81006000</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -3856,19 +3862,17 @@
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L65" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
@@ -3876,13 +3880,13 @@
     </row>
     <row r="66" spans="1:19" s="13" customFormat="1">
       <c r="A66" s="5">
-        <v>81008000</v>
+        <v>81006001</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D66" s="5">
         <v>3</v>
@@ -3893,38 +3897,36 @@
       <c r="H66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I66" s="5">
+        <v>2</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="N66" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19" s="13" customFormat="1">
       <c r="A67" s="5">
-        <v>81009000</v>
+        <v>81007000</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D67" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3933,29 +3935,37 @@
         <v>14</v>
       </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="J67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
     </row>
     <row r="68" spans="1:19" s="13" customFormat="1">
       <c r="A68" s="5">
-        <v>81010000</v>
+        <v>81008000</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3965,7 +3975,7 @@
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>16</v>
@@ -3985,16 +3995,16 @@
     </row>
     <row r="69" spans="1:19" s="13" customFormat="1">
       <c r="A69" s="5">
-        <v>81010001</v>
+        <v>81009000</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D69" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -4002,9 +4012,7 @@
       <c r="H69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="5">
-        <v>1</v>
-      </c>
+      <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -4018,16 +4026,16 @@
     </row>
     <row r="70" spans="1:19" s="13" customFormat="1">
       <c r="A70" s="5">
-        <v>81011000</v>
+        <v>81010000</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D70" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -4049,7 +4057,7 @@
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
@@ -4057,10 +4065,10 @@
     </row>
     <row r="71" spans="1:19" s="13" customFormat="1">
       <c r="A71" s="5">
-        <v>81011001</v>
+        <v>81010001</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>124</v>
@@ -4090,16 +4098,16 @@
     </row>
     <row r="72" spans="1:19" s="13" customFormat="1">
       <c r="A72" s="5">
-        <v>81012000</v>
+        <v>81011000</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -4129,16 +4137,16 @@
     </row>
     <row r="73" spans="1:19" s="13" customFormat="1">
       <c r="A73" s="5">
-        <v>81012001</v>
+        <v>81011001</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D73" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4147,18 +4155,14 @@
         <v>14</v>
       </c>
       <c r="I73" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
@@ -4166,13 +4170,13 @@
     </row>
     <row r="74" spans="1:19" s="13" customFormat="1">
       <c r="A74" s="5">
-        <v>81012002</v>
+        <v>81012000</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -4183,74 +4187,86 @@
       <c r="H74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19" s="13" customFormat="1">
       <c r="A75" s="5">
-        <v>81013000</v>
+        <v>81012001</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I75" s="5">
+        <v>2</v>
+      </c>
+      <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S75" s="11"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
     </row>
     <row r="76" spans="1:19" s="13" customFormat="1">
       <c r="A76" s="5">
-        <v>81013001</v>
+        <v>81012002</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D76" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -4263,53 +4279,49 @@
     </row>
     <row r="77" spans="1:19" s="13" customFormat="1">
       <c r="A77" s="5">
-        <v>81014000</v>
+        <v>81013000</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D77" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
+      <c r="R77" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S77" s="11"/>
     </row>
     <row r="78" spans="1:19" s="13" customFormat="1">
       <c r="A78" s="5">
-        <v>81014001</v>
+        <v>81013001</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D78" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -4326,35 +4338,39 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S78" s="11"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
     </row>
     <row r="79" spans="1:19" s="13" customFormat="1">
       <c r="A79" s="5">
-        <v>81014002</v>
+        <v>81014000</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>100</v>
+        <v>158</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D79" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I79" s="5"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="M79" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -4364,53 +4380,49 @@
     </row>
     <row r="80" spans="1:19" s="13" customFormat="1">
       <c r="A80" s="5">
-        <v>81015000</v>
+        <v>81014001</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D80" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
+      <c r="R80" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S80" s="11"/>
     </row>
     <row r="81" spans="1:19" s="13" customFormat="1">
       <c r="A81" s="5">
-        <v>81015001</v>
+        <v>81014002</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>84</v>
+        <v>157</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D81" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -4427,35 +4439,39 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S81" s="11"/>
-    </row>
-    <row r="82" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19" s="13" customFormat="1">
       <c r="A82" s="5">
-        <v>81015002</v>
+        <v>81015000</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="D82" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="5"/>
+      <c r="J82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+      <c r="M82" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
@@ -4465,55 +4481,49 @@
     </row>
     <row r="83" spans="1:19" s="13" customFormat="1">
       <c r="A83" s="5">
-        <v>81016000</v>
+        <v>81015001</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>13</v>
+        <v>188</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D83" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
-      <c r="P83" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-    </row>
-    <row r="84" spans="1:19" s="13" customFormat="1">
+      <c r="R83" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S83" s="11"/>
+    </row>
+    <row r="84" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A84" s="5">
-        <v>81016001</v>
+        <v>81015002</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>97</v>
+        <v>189</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D84" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4535,16 +4545,16 @@
     </row>
     <row r="85" spans="1:19" s="13" customFormat="1">
       <c r="A85" s="5">
-        <v>81017000</v>
+        <v>81016000</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -4574,7 +4584,7 @@
     </row>
     <row r="86" spans="1:19" s="13" customFormat="1">
       <c r="A86" s="5">
-        <v>81017001</v>
+        <v>81016001</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>96</v>
@@ -4605,16 +4615,16 @@
     </row>
     <row r="87" spans="1:19" s="13" customFormat="1">
       <c r="A87" s="5">
-        <v>81018000</v>
+        <v>81017000</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -4644,7 +4654,7 @@
     </row>
     <row r="88" spans="1:19" s="13" customFormat="1">
       <c r="A88" s="5">
-        <v>81018001</v>
+        <v>81017001</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>96</v>
@@ -4675,16 +4685,16 @@
     </row>
     <row r="89" spans="1:19" s="13" customFormat="1">
       <c r="A89" s="5">
-        <v>81019000</v>
+        <v>81018000</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -4694,7 +4704,7 @@
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>16</v>
@@ -4714,10 +4724,10 @@
     </row>
     <row r="90" spans="1:19" s="13" customFormat="1">
       <c r="A90" s="5">
-        <v>81019001</v>
+        <v>81018001</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>97</v>
@@ -4745,13 +4755,13 @@
     </row>
     <row r="91" spans="1:19" s="13" customFormat="1">
       <c r="A91" s="5">
-        <v>81019002</v>
+        <v>81019000</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D91" s="5">
         <v>1</v>
@@ -4760,56 +4770,54 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
+      <c r="J91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
+      <c r="P91" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
     </row>
     <row r="92" spans="1:19" s="13" customFormat="1">
       <c r="A92" s="5">
-        <v>81020000</v>
+        <v>81019001</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>53</v>
+        <v>190</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D92" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="5">
-        <v>2</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O92" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
@@ -4817,16 +4825,16 @@
     </row>
     <row r="93" spans="1:19" s="13" customFormat="1">
       <c r="A93" s="5">
-        <v>81020001</v>
+        <v>81019002</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>100</v>
+        <v>191</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D93" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -4848,16 +4856,16 @@
     </row>
     <row r="94" spans="1:19" s="13" customFormat="1">
       <c r="A94" s="5">
-        <v>81021000</v>
+        <v>81020000</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D94" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -4865,13 +4873,23 @@
       <c r="H94" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="I94" s="5">
+        <v>2</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
+      <c r="N94" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
@@ -4879,25 +4897,25 @@
     </row>
     <row r="95" spans="1:19" s="13" customFormat="1">
       <c r="A95" s="5">
-        <v>81022000</v>
+        <v>81020001</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>81</v>
+        <v>166</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D95" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="J95" s="6"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4910,16 +4928,16 @@
     </row>
     <row r="96" spans="1:19" s="13" customFormat="1">
       <c r="A96" s="5">
-        <v>81023000</v>
+        <v>81021000</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>13</v>
+        <v>168</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D96" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4928,37 +4946,29 @@
         <v>14</v>
       </c>
       <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L96" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
-      <c r="P96" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
     </row>
     <row r="97" spans="1:19" s="13" customFormat="1">
       <c r="A97" s="5">
-        <v>81023001</v>
+        <v>81022000</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D97" s="5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4966,19 +4976,13 @@
       <c r="H97" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I97" s="5">
-        <v>3</v>
-      </c>
+      <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="O97" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
@@ -4986,44 +4990,52 @@
     </row>
     <row r="98" spans="1:19" s="13" customFormat="1">
       <c r="A98" s="5">
-        <v>81024000</v>
+        <v>81023000</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>97</v>
+        <v>170</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D98" s="5">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
+      <c r="P98" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
     </row>
     <row r="99" spans="1:19" s="13" customFormat="1">
       <c r="A99" s="5">
-        <v>81024001</v>
+        <v>81023001</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>84</v>
+        <v>171</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D99" s="5">
         <v>1</v>
@@ -5032,34 +5044,38 @@
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I99" s="5"/>
-      <c r="J99" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I99" s="5">
+        <v>3</v>
+      </c>
+      <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
+      <c r="N99" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
-      <c r="R99" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S99" s="11"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
     </row>
     <row r="100" spans="1:19" s="13" customFormat="1">
       <c r="A100" s="5">
-        <v>81025000</v>
+        <v>81024000</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D100" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5081,10 +5097,10 @@
     </row>
     <row r="101" spans="1:19" s="13" customFormat="1">
       <c r="A101" s="5">
-        <v>81025001</v>
+        <v>81024001</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>84</v>
@@ -5114,94 +5130,80 @@
     </row>
     <row r="102" spans="1:19" s="13" customFormat="1">
       <c r="A102" s="5">
-        <v>81025002</v>
+        <v>81025000</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D102" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="5">
-        <v>3</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O102" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
     </row>
     <row r="103" spans="1:19" s="13" customFormat="1">
       <c r="A103" s="5">
-        <v>81026000</v>
+        <v>81025001</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D103" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K103" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
+      <c r="R103" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S103" s="11"/>
     </row>
     <row r="104" spans="1:19" s="13" customFormat="1">
       <c r="A104" s="5">
-        <v>81026001</v>
+        <v>81025002</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>57</v>
+        <v>193</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D104" s="5">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5210,205 +5212,213 @@
         <v>14</v>
       </c>
       <c r="I104" s="5">
-        <v>99</v>
-      </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
+      <c r="R104" s="11"/>
+      <c r="S104" s="11"/>
     </row>
     <row r="105" spans="1:19" s="13" customFormat="1">
-      <c r="A105" s="16">
+      <c r="A105" s="5">
+        <v>81026000</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="5">
+        <v>5</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19" s="13" customFormat="1">
+      <c r="A106" s="5">
+        <v>81026001</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="5">
+        <v>99</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="5">
+        <v>99</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19" s="13" customFormat="1">
+      <c r="A107" s="16">
         <v>81027000</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B107" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C107" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D107" s="16">
         <v>1</v>
       </c>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16" t="s">
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K105" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
-      <c r="S105" s="16"/>
-    </row>
-    <row r="106" spans="1:19" s="13" customFormat="1">
-      <c r="A106" s="16">
+      <c r="K107" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19" s="13" customFormat="1">
+      <c r="A108" s="16">
         <v>81028000</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B108" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C108" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D108" s="16">
         <v>1</v>
       </c>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16" t="s">
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K106" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
-      <c r="S106" s="16"/>
-    </row>
-    <row r="107" spans="1:19" s="13" customFormat="1">
-      <c r="A107" s="5">
-        <v>81029000</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="5">
-        <v>1</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I107" s="5"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S107" s="11"/>
-    </row>
-    <row r="108" spans="1:19" s="13" customFormat="1">
-      <c r="A108" s="5">
-        <v>81029001</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="5">
-        <v>1</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I108" s="5"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S108" s="11"/>
+      <c r="K108" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
     </row>
     <row r="109" spans="1:19" s="13" customFormat="1">
       <c r="A109" s="5">
-        <v>81030000</v>
+        <v>81029000</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>45</v>
+        <v>181</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D109" s="5">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L109" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="J109" s="6"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
+      <c r="R109" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S109" s="11"/>
     </row>
     <row r="110" spans="1:19" s="13" customFormat="1">
       <c r="A110" s="5">
-        <v>81031000</v>
+        <v>81029001</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D110" s="5">
         <v>1</v>
@@ -5417,40 +5427,34 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J110" s="6"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
+      <c r="R110" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S110" s="11"/>
     </row>
     <row r="111" spans="1:19" s="13" customFormat="1">
       <c r="A111" s="5">
-        <v>81032000</v>
+        <v>81030000</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D111" s="5">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5460,261 +5464,273 @@
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" s="13" customFormat="1">
       <c r="A112" s="5">
-        <v>81033000</v>
+        <v>81031000</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="4">
-        <v>6</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="D112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I112" s="4"/>
+      <c r="I112" s="5"/>
       <c r="J112" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" s="13" customFormat="1">
       <c r="A113" s="5">
-        <v>81033001</v>
+        <v>81032000</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="4">
-        <v>4</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="D113" s="5">
+        <v>2</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
       <c r="H113" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="4"/>
+      <c r="I113" s="5"/>
       <c r="J113" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
     </row>
-    <row r="114" spans="1:19" s="13" customFormat="1">
+    <row r="114" spans="1:19">
       <c r="A114" s="5">
-        <v>81034000</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="11">
-        <v>1</v>
-      </c>
-      <c r="E114" s="11">
-        <v>3</v>
-      </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I114" s="11"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="11"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S114" s="11"/>
-    </row>
-    <row r="115" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+        <v>81033000</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="4">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="5">
-        <v>81034001</v>
+        <v>81033001</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D115" s="5">
-        <v>20</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I115" s="5"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I115" s="4"/>
+      <c r="J115" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
+      <c r="P115" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" s="13" customFormat="1">
       <c r="A116" s="5">
+        <v>81034000</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D116" s="11">
+        <v>1</v>
+      </c>
+      <c r="E116" s="11">
+        <v>3</v>
+      </c>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S116" s="11"/>
+    </row>
+    <row r="117" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A117" s="5">
+        <v>81034001</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D117" s="5">
+        <v>20</v>
+      </c>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="5">
         <v>81035000</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D118" s="5">
         <v>3</v>
-      </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-    </row>
-    <row r="117" spans="1:19" s="13" customFormat="1">
-      <c r="A117" s="5">
-        <v>81035001</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D117" s="11">
-        <v>1</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I117" s="11"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
-      <c r="P117" s="11"/>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S117" s="11"/>
-    </row>
-    <row r="118" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A118" s="5">
-        <v>81037000</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="5">
-        <v>30</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I118" s="5"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
+      <c r="J118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -5725,205 +5741,197 @@
     </row>
     <row r="119" spans="1:19" s="13" customFormat="1">
       <c r="A119" s="5">
-        <v>81037001</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D119" s="5">
-        <v>3</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-    </row>
-    <row r="120" spans="1:19" s="13" customFormat="1">
+        <v>81035001</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="11">
+        <v>1</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I119" s="11"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+      <c r="R119" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S119" s="11"/>
+    </row>
+    <row r="120" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A120" s="5">
-        <v>81038000</v>
+        <v>81037000</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>13</v>
+        <v>199</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D120" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="J120" s="6"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
-      <c r="P120" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" s="13" customFormat="1">
       <c r="A121" s="5">
-        <v>81039000</v>
+        <v>81037001</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="4">
+        <v>164</v>
+      </c>
+      <c r="D121" s="5">
         <v>3</v>
       </c>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
       <c r="H121" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I121" s="4"/>
-      <c r="J121" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K121" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
-      <c r="P121" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" s="13" customFormat="1">
       <c r="A122" s="5">
-        <v>81039001</v>
+        <v>81038000</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="4">
-        <v>1</v>
-      </c>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="D122" s="5">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I122" s="4"/>
+      <c r="I122" s="5"/>
       <c r="J122" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
     </row>
-    <row r="123" spans="1:19" s="13" customFormat="1">
+    <row r="123" spans="1:19">
       <c r="A123" s="5">
-        <v>81040000</v>
+        <v>81039000</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" s="5">
-        <v>0</v>
-      </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="4">
+        <v>3</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
       <c r="H123" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="5">
-        <v>1</v>
-      </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
+      <c r="P123" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
     </row>
-    <row r="124" spans="1:19" s="13" customFormat="1">
+    <row r="124" spans="1:19">
       <c r="A124" s="5">
-        <v>81041000</v>
+        <v>81039001</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="5">
-        <v>4</v>
-      </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I124" s="5"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="5" t="s">
         <v>24</v>
       </c>
@@ -5931,13 +5939,13 @@
         <v>16</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
@@ -5945,16 +5953,16 @@
     </row>
     <row r="125" spans="1:19" s="13" customFormat="1">
       <c r="A125" s="5">
-        <v>81042000</v>
+        <v>81040000</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>13</v>
+        <v>204</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D125" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5962,38 +5970,32 @@
       <c r="H125" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K125" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L125" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I125" s="5">
+        <v>1</v>
+      </c>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
-      <c r="P125" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
       <c r="S125" s="5"/>
     </row>
     <row r="126" spans="1:19" s="13" customFormat="1">
       <c r="A126" s="5">
-        <v>81043000</v>
+        <v>81041000</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C126" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -6008,164 +6010,168 @@
       <c r="K126" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L126" s="5"/>
+      <c r="L126" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
+      <c r="P126" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
       <c r="S126" s="5"/>
     </row>
     <row r="127" spans="1:19" s="13" customFormat="1">
       <c r="A127" s="5">
-        <v>81044000</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D127" s="11">
-        <v>1</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I127" s="11">
-        <v>1</v>
-      </c>
-      <c r="J127" s="14"/>
-      <c r="K127" s="11"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="5">
-        <v>81044001</v>
-      </c>
+        <v>81042000</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="5">
+        <v>4</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
     </row>
     <row r="128" spans="1:19" s="13" customFormat="1">
       <c r="A128" s="5">
-        <v>81044001</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D128" s="11">
-        <v>99</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I128" s="11"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="11"/>
-      <c r="R128" s="11"/>
-      <c r="S128" s="15"/>
+        <v>81043000</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
     </row>
     <row r="129" spans="1:19" s="13" customFormat="1">
       <c r="A129" s="5">
+        <v>81044000</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" s="11">
+        <v>1</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129" s="11">
+        <v>1</v>
+      </c>
+      <c r="J129" s="14"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="11"/>
+      <c r="S129" s="5">
+        <v>81044001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" s="13" customFormat="1">
+      <c r="A130" s="5">
+        <v>81044001</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" s="11">
+        <v>99</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I130" s="11"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="11"/>
+      <c r="S130" s="15"/>
+    </row>
+    <row r="131" spans="1:19" s="13" customFormat="1">
+      <c r="A131" s="5">
         <v>81045000</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B131" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D129" s="5">
-        <v>3</v>
-      </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" s="5">
-        <v>3</v>
-      </c>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O129" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-    </row>
-    <row r="130" spans="1:19">
-      <c r="A130" s="5">
-        <v>81046000</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D130" s="5">
-        <v>3</v>
-      </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K130" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-    </row>
-    <row r="131" spans="1:19">
-      <c r="A131" s="5">
-        <v>81046001</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D131" s="5">
         <v>3</v>
@@ -6177,146 +6183,146 @@
         <v>14</v>
       </c>
       <c r="I131" s="5">
-        <v>2</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
       <c r="S131" s="5"/>
     </row>
-    <row r="132" spans="1:19" s="13" customFormat="1">
+    <row r="132" spans="1:19">
       <c r="A132" s="5">
-        <v>81047000</v>
+        <v>81046000</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D132" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I132" s="5">
-        <v>2</v>
-      </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="M132" s="5"/>
-      <c r="N132" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O132" s="5" t="s">
-        <v>212</v>
-      </c>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
     </row>
-    <row r="133" spans="1:19" s="13" customFormat="1">
+    <row r="133" spans="1:19">
       <c r="A133" s="5">
-        <v>81048000</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="11">
-        <v>4</v>
-      </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K133" s="11" t="s">
+        <v>81046001</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="5">
+        <v>2</v>
+      </c>
+      <c r="J133" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
-      <c r="P133" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q133" s="11"/>
-      <c r="R133" s="11"/>
-      <c r="S133" s="11"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O133" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
     </row>
     <row r="134" spans="1:19" s="13" customFormat="1">
       <c r="A134" s="5">
-        <v>81048001</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>223</v>
+        <v>81047000</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="11">
+        <v>226</v>
+      </c>
+      <c r="D134" s="5">
+        <v>10</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134" s="5">
         <v>2</v>
       </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" s="11"/>
-      <c r="J134" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K134" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L134" s="11"/>
-      <c r="M134" s="11"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
-      <c r="P134" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q134" s="11"/>
-      <c r="R134" s="11"/>
-      <c r="S134" s="11"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O134" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
     </row>
     <row r="135" spans="1:19" s="13" customFormat="1">
       <c r="A135" s="5">
-        <v>81049000</v>
+        <v>81048000</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>13</v>
@@ -6346,86 +6352,96 @@
       </c>
       <c r="Q135" s="11"/>
       <c r="R135" s="11"/>
-      <c r="S135" s="11">
-        <v>81049001</v>
-      </c>
+      <c r="S135" s="11"/>
     </row>
     <row r="136" spans="1:19" s="13" customFormat="1">
       <c r="A136" s="5">
-        <v>81049001</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D136" s="5">
-        <v>1</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5">
-        <v>81049002</v>
-      </c>
+        <v>81048001</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="11">
+        <v>2</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11"/>
+      <c r="S136" s="11"/>
     </row>
     <row r="137" spans="1:19" s="13" customFormat="1">
       <c r="A137" s="5">
-        <v>81049002</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" s="5">
-        <v>10</v>
-      </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
+        <v>81049000</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="11">
+        <v>4</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11">
+        <v>81049001</v>
+      </c>
     </row>
     <row r="138" spans="1:19" s="13" customFormat="1">
       <c r="A138" s="5">
-        <v>81050000</v>
+        <v>81049001</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="D138" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -6433,39 +6449,29 @@
       <c r="H138" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I138" s="5">
-        <v>1</v>
-      </c>
-      <c r="J138" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K138" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L138" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
       <c r="M138" s="5"/>
-      <c r="N138" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O138" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
-      <c r="R138" s="11"/>
-      <c r="S138" s="11"/>
-    </row>
-    <row r="139" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
+      <c r="R138" s="5"/>
+      <c r="S138" s="5">
+        <v>81049002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" s="13" customFormat="1">
       <c r="A139" s="5">
-        <v>81050001</v>
+        <v>81049002</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>100</v>
+        <v>231</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D139" s="5">
         <v>10</v>
@@ -6474,10 +6480,10 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I139" s="5"/>
-      <c r="J139" s="6"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
@@ -6490,47 +6496,59 @@
     </row>
     <row r="140" spans="1:19" s="13" customFormat="1">
       <c r="A140" s="5">
-        <v>81053000</v>
+        <v>81050000</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D140" s="5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I140" s="5"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I140" s="5">
+        <v>1</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
+      <c r="N140" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-    </row>
-    <row r="141" spans="1:19" s="13" customFormat="1">
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+    </row>
+    <row r="141" spans="1:19" s="13" customFormat="1" ht="17.25" customHeight="1">
       <c r="A141" s="5">
-        <v>81053001</v>
+        <v>81050001</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>89</v>
+        <v>234</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D141" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -6547,23 +6565,21 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
-      <c r="R141" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S141" s="11"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
     </row>
     <row r="142" spans="1:19" s="13" customFormat="1">
       <c r="A142" s="5">
-        <v>81053002</v>
+        <v>81053000</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>89</v>
+        <v>235</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D142" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -6580,14 +6596,12 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
-      <c r="R142" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S142" s="11"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
     </row>
     <row r="143" spans="1:19" s="13" customFormat="1">
       <c r="A143" s="5">
-        <v>81053003</v>
+        <v>81053001</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>174</v>
@@ -6618,6 +6632,72 @@
       </c>
       <c r="S143" s="11"/>
     </row>
+    <row r="144" spans="1:19" s="13" customFormat="1">
+      <c r="A144" s="5">
+        <v>81053002</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S144" s="11"/>
+    </row>
+    <row r="145" spans="1:19" s="13" customFormat="1">
+      <c r="A145" s="5">
+        <v>81053003</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D145" s="5">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I145" s="5"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="11">
+        <v>1005</v>
+      </c>
+      <c r="S145" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE426671-A31E-40B7-B3A2-5AE7166C0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B0D4B-0B7F-4C8E-9DC3-6E9B43C1A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="245">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -880,6 +880,26 @@
   </si>
   <si>
     <t>Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_만복도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임_흡혈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,11 +1436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:S152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6698,6 +6718,237 @@
       </c>
       <c r="S145" s="11"/>
     </row>
+    <row r="146" spans="1:19" s="13" customFormat="1">
+      <c r="A146" s="5">
+        <v>81054000</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="5">
+        <v>100</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="1:19" s="13" customFormat="1">
+      <c r="A147" s="5">
+        <v>81054001</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="5">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147" s="5"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S147" s="11"/>
+    </row>
+    <row r="148" spans="1:19" s="13" customFormat="1">
+      <c r="A148" s="5">
+        <v>81054002</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S148" s="11"/>
+    </row>
+    <row r="149" spans="1:19" s="13" customFormat="1">
+      <c r="A149" s="5">
+        <v>81054003</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S149" s="11"/>
+    </row>
+    <row r="150" spans="1:19" s="13" customFormat="1">
+      <c r="A150" s="5">
+        <v>81054004</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D150" s="5">
+        <v>60</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S150" s="11"/>
+    </row>
+    <row r="151" spans="1:19" s="13" customFormat="1">
+      <c r="A151" s="5">
+        <v>81055000</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="11">
+        <v>2</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K151" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q151" s="11"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="5">
+        <v>81055001</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" s="5">
+        <v>2</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B0D4B-0B7F-4C8E-9DC3-6E9B43C1A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB448CF-8EB0-4955-A570-D41A4D71FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="256">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -900,6 +900,49 @@
   </si>
   <si>
     <t>위액 슬라임_흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출_최대 만복도 0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출_루시 공격력 5증가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출_루시 방어력 3증가</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81051002_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkUp_01</t>
+  </si>
+  <si>
+    <t>81051001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxSatietyGauge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬_공격</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이팬_스턴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81052001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1436,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I161" sqref="I161"/>
+      <selection pane="bottomLeft" activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6590,16 +6633,16 @@
     </row>
     <row r="142" spans="1:19" s="13" customFormat="1">
       <c r="A142" s="5">
-        <v>81053000</v>
+        <v>81051000</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="D142" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -6621,129 +6664,155 @@
     </row>
     <row r="143" spans="1:19" s="13" customFormat="1">
       <c r="A143" s="5">
-        <v>81053001</v>
+        <v>81051001</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>89</v>
+        <v>246</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D143" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I143" s="5"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I143" s="5">
+        <v>99</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
+      <c r="N143" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>250</v>
+      </c>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
-      <c r="R143" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S143" s="11"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
     </row>
     <row r="144" spans="1:19" s="13" customFormat="1">
       <c r="A144" s="5">
-        <v>81053002</v>
+        <v>81051002</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>89</v>
+        <v>247</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D144" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I144" s="5"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I144" s="5">
+        <v>99</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
+      <c r="N144" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
-      <c r="R144" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S144" s="11"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
     </row>
     <row r="145" spans="1:19" s="13" customFormat="1">
       <c r="A145" s="5">
-        <v>81053003</v>
+        <v>81052000</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D145" s="5">
-        <v>1</v>
-      </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I145" s="5"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="11">
-        <v>1005</v>
-      </c>
-      <c r="S145" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="11">
+        <v>3</v>
+      </c>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+      <c r="O145" s="11"/>
+      <c r="P145" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q145" s="11"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
     </row>
     <row r="146" spans="1:19" s="13" customFormat="1">
       <c r="A146" s="5">
-        <v>81054000</v>
+        <v>81052001</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="5">
-        <v>100</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I146" s="5"/>
+      <c r="I146" s="5">
+        <v>1</v>
+      </c>
       <c r="J146" s="6"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
+      <c r="N146" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
@@ -6751,16 +6820,16 @@
     </row>
     <row r="147" spans="1:19" s="13" customFormat="1">
       <c r="A147" s="5">
-        <v>81054001</v>
+        <v>81053000</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>84</v>
+        <v>235</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D147" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -6777,20 +6846,18 @@
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
-      <c r="R147" s="11">
-        <v>1004</v>
-      </c>
-      <c r="S147" s="11"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
     </row>
     <row r="148" spans="1:19" s="13" customFormat="1">
       <c r="A148" s="5">
-        <v>81054002</v>
+        <v>81053001</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
@@ -6811,19 +6878,19 @@
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="11">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="S148" s="11"/>
     </row>
     <row r="149" spans="1:19" s="13" customFormat="1">
       <c r="A149" s="5">
-        <v>81054003</v>
+        <v>81053002</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D149" s="5">
         <v>1</v>
@@ -6844,22 +6911,22 @@
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="11">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="S149" s="11"/>
     </row>
     <row r="150" spans="1:19" s="13" customFormat="1">
       <c r="A150" s="5">
-        <v>81054004</v>
+        <v>81053003</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>100</v>
+        <v>174</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D150" s="5">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -6877,68 +6944,62 @@
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="11">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="S150" s="11"/>
     </row>
     <row r="151" spans="1:19" s="13" customFormat="1">
       <c r="A151" s="5">
-        <v>81055000</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" s="11">
-        <v>2</v>
-      </c>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K151" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L151" s="11"/>
-      <c r="M151" s="11"/>
-      <c r="N151" s="11"/>
-      <c r="O151" s="11"/>
-      <c r="P151" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q151" s="11"/>
+        <v>81054000</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D151" s="5">
+        <v>100</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
       <c r="S151" s="5"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" s="13" customFormat="1">
       <c r="A152" s="5">
-        <v>81055001</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>45</v>
+        <v>81054001</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D152" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
+      <c r="J152" s="6"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
@@ -6946,8 +7007,177 @@
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
+      <c r="R152" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S152" s="11"/>
+    </row>
+    <row r="153" spans="1:19" s="13" customFormat="1">
+      <c r="A153" s="5">
+        <v>81054002</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="5">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I153" s="5"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S153" s="11"/>
+    </row>
+    <row r="154" spans="1:19" s="13" customFormat="1">
+      <c r="A154" s="5">
+        <v>81054003</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I154" s="5"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S154" s="11"/>
+    </row>
+    <row r="155" spans="1:19" s="13" customFormat="1">
+      <c r="A155" s="5">
+        <v>81054004</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155" s="5">
+        <v>60</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I155" s="5"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S155" s="11"/>
+    </row>
+    <row r="156" spans="1:19" s="13" customFormat="1">
+      <c r="A156" s="5">
+        <v>81055000</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="11">
+        <v>2</v>
+      </c>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="5">
+        <v>81055001</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D157" s="5">
+        <v>2</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB448CF-8EB0-4955-A570-D41A4D71FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E51F0-9FE9-48B2-9C87-AA95C0DA5968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="264">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -943,6 +943,38 @@
   </si>
   <si>
     <t>81052001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽마 스턴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81056000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어_방어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투준비_방어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투준비_공격</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81058000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81058001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81057000_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,11 +1511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O146" sqref="O146"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7179,6 +7211,166 @@
       <c r="R157" s="5"/>
       <c r="S157" s="5"/>
     </row>
+    <row r="158" spans="1:19" s="13" customFormat="1">
+      <c r="A158" s="5">
+        <v>81056000</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I158" s="5">
+        <v>1</v>
+      </c>
+      <c r="J158" s="6"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+      <c r="N158" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="1:19" s="13" customFormat="1">
+      <c r="A159" s="5">
+        <v>81057000</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="5">
+        <v>3</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="5">
+        <v>1</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O159" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="1:19" s="13" customFormat="1">
+      <c r="A160" s="5">
+        <v>81058000</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="5">
+        <v>1</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O160" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="1:19" s="13" customFormat="1">
+      <c r="A161" s="5">
+        <v>81058001</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="5">
+        <v>1</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L161" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O161" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E51F0-9FE9-48B2-9C87-AA95C0DA5968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E786C-9939-47D9-A90E-5B004F54206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="271">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -975,6 +975,34 @@
   </si>
   <si>
     <t>81057000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발_만복도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발_방어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>식욕 폭발_공격</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>81059001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81059002_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허의 바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허의 바다 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,11 +1539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160:B161"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O163" sqref="O163:O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7371,6 +7399,191 @@
       <c r="R161" s="5"/>
       <c r="S161" s="5"/>
     </row>
+    <row r="162" spans="1:19" s="13" customFormat="1">
+      <c r="A162" s="5">
+        <v>81059000</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D162" s="5">
+        <v>30</v>
+      </c>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+      <c r="R162" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S162" s="11"/>
+    </row>
+    <row r="163" spans="1:19" s="13" customFormat="1">
+      <c r="A163" s="5">
+        <v>81059001</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D163" s="5">
+        <v>3</v>
+      </c>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="5">
+        <v>1</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O163" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="1:19" s="13" customFormat="1">
+      <c r="A164" s="5">
+        <v>81059002</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="5">
+        <v>3</v>
+      </c>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="5">
+        <v>1</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="1:19" s="13" customFormat="1">
+      <c r="A165" s="5">
+        <v>81060000</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D165" s="5">
+        <v>80</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S165" s="11"/>
+    </row>
+    <row r="166" spans="1:19" s="13" customFormat="1">
+      <c r="A166" s="5">
+        <v>81060001</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="5">
+        <v>12</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+      <c r="R166" s="5"/>
+      <c r="S166" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625E786C-9939-47D9-A90E-5B004F54206D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC0898-177A-4D1A-8856-5D3298BA9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="280">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1003,6 +1003,42 @@
   </si>
   <si>
     <t>공허의 바다 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료손질_자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81062001_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81062002_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81063001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1539,11 +1575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S166"/>
+  <dimension ref="A1:S172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O163" sqref="O163:O164"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O176" sqref="O176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7584,6 +7620,234 @@
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
     </row>
+    <row r="167" spans="1:19" s="13" customFormat="1">
+      <c r="A167" s="5">
+        <v>81061000</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="11">
+        <v>3</v>
+      </c>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K167" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q167" s="5"/>
+      <c r="R167" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S167" s="11"/>
+    </row>
+    <row r="168" spans="1:19" s="13" customFormat="1">
+      <c r="A168" s="5">
+        <v>81062000</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="11">
+        <v>3</v>
+      </c>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+      <c r="O168" s="11"/>
+      <c r="P168" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q168" s="5"/>
+      <c r="R168" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S168" s="11"/>
+    </row>
+    <row r="169" spans="1:19" s="13" customFormat="1">
+      <c r="A169" s="5">
+        <v>81062001</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0</v>
+      </c>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="5">
+        <v>99</v>
+      </c>
+      <c r="J169" s="5"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
+      <c r="N169" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O169" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+      <c r="R169" s="5"/>
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:19" s="13" customFormat="1">
+      <c r="A170" s="5">
+        <v>81062002</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" s="5">
+        <v>99</v>
+      </c>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O170" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+      <c r="R170" s="5"/>
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:19" s="13" customFormat="1">
+      <c r="A171" s="5">
+        <v>81063000</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="11">
+        <v>2</v>
+      </c>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K171" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+      <c r="O171" s="11"/>
+      <c r="P171" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q171" s="5"/>
+      <c r="R171" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S171" s="11"/>
+    </row>
+    <row r="172" spans="1:19" s="13" customFormat="1">
+      <c r="A172" s="5">
+        <v>81063001</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="5">
+        <v>5</v>
+      </c>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC0898-177A-4D1A-8856-5D3298BA9247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDBCB40-151B-4806-921F-6DCE971E7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="282">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1040,6 +1040,14 @@
   <si>
     <t>81063001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소룡포_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소룡포_마나회복</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1575,11 +1583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O176" sqref="O176"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7848,6 +7856,68 @@
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
     </row>
+    <row r="173" spans="1:19" s="13" customFormat="1">
+      <c r="A173" s="5">
+        <v>81064000</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D173" s="5">
+        <v>10</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I173" s="5"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:19" s="13" customFormat="1">
+      <c r="A174" s="5">
+        <v>81064001</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="5"/>
+      <c r="N174" s="5"/>
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDBCB40-151B-4806-921F-6DCE971E7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B6D6C-3C06-44C0-954A-7040091A0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="284">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1047,6 +1047,14 @@
   </si>
   <si>
     <t>소룡포_마나회복</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기_만복도</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1583,11 +1591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+      <selection pane="bottomLeft" activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7918,6 +7926,74 @@
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
     </row>
+    <row r="175" spans="1:19" s="13" customFormat="1">
+      <c r="A175" s="5">
+        <v>81065000</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="11">
+        <v>2</v>
+      </c>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K175" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L175" s="11"/>
+      <c r="M175" s="11"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="11"/>
+      <c r="P175" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="11"/>
+      <c r="S175" s="11"/>
+    </row>
+    <row r="176" spans="1:19" s="13" customFormat="1">
+      <c r="A176" s="5">
+        <v>81065001</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D176" s="5">
+        <v>5</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I176" s="5"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+      <c r="R176" s="5"/>
+      <c r="S176" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B6D6C-3C06-44C0-954A-7040091A0901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FF9BC-CC89-41E2-A43F-DFEF954FA73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="287">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1056,6 +1056,18 @@
   <si>
     <t>집어삼키기_만복도</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취_카드소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫는일격_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1591,11 +1603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S176"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I179" sqref="I179"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7994,6 +8006,113 @@
       <c r="R176" s="5"/>
       <c r="S176" s="5"/>
     </row>
+    <row r="177" spans="1:19" s="13" customFormat="1">
+      <c r="A177" s="5">
+        <v>81066000</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="11">
+        <v>2</v>
+      </c>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L177" s="11"/>
+      <c r="M177" s="11"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="11"/>
+      <c r="P177" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="11"/>
+      <c r="S177" s="11"/>
+    </row>
+    <row r="178" spans="1:19" s="13" customFormat="1">
+      <c r="A178" s="5">
+        <v>81066001</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I178" s="5"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+      <c r="R178" s="11">
+        <v>1004</v>
+      </c>
+      <c r="S178" s="11"/>
+    </row>
+    <row r="179" spans="1:19" s="13" customFormat="1">
+      <c r="A179" s="5">
+        <v>81067000</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="11">
+        <v>2</v>
+      </c>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FF9BC-CC89-41E2-A43F-DFEF954FA73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1132B4-0E5C-4C6D-94A9-DD80973AECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="291">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1067,6 +1067,22 @@
   </si>
   <si>
     <t>꿰뚫는일격_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의장막_방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의비수_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81068000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81069000_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1603,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S179"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8113,6 +8129,90 @@
       <c r="R179" s="11"/>
       <c r="S179" s="11"/>
     </row>
+    <row r="180" spans="1:19" s="13" customFormat="1">
+      <c r="A180" s="5">
+        <v>81068000</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" s="5">
+        <v>3</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" s="5">
+        <v>2</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="1:19" s="13" customFormat="1">
+      <c r="A181" s="5">
+        <v>81069000</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="5">
+        <v>2</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="5">
+        <v>2</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K181" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O181" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1132B4-0E5C-4C6D-94A9-DD80973AECFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0969CF-4AA1-4B7B-A7A3-49A1F6E0E835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="294">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1083,6 +1083,18 @@
   </si>
   <si>
     <t>81069000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의가호_체력회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의가호_방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81070001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1619,11 +1631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S181"/>
+  <dimension ref="A1:S183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8213,6 +8225,78 @@
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
     </row>
+    <row r="182" spans="1:19">
+      <c r="A182" s="5">
+        <v>81070000</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D182" s="5">
+        <v>5</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+      <c r="R182" s="5"/>
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="1:19" s="13" customFormat="1">
+      <c r="A183" s="5">
+        <v>81070001</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D183" s="5">
+        <v>20</v>
+      </c>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="5">
+        <v>1</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K183" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O183" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0969CF-4AA1-4B7B-A7A3-49A1F6E0E835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416413A-2AAC-4AC4-9025-21611AD175B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="296">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1096,6 +1096,14 @@
   <si>
     <t>81070001_IconDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화_카드삭제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1631,11 +1639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S183"/>
+  <dimension ref="A1:S185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8297,6 +8305,70 @@
       <c r="R183" s="5"/>
       <c r="S183" s="5"/>
     </row>
+    <row r="184" spans="1:19" s="13" customFormat="1">
+      <c r="A184" s="5">
+        <v>81071000</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D184" s="5">
+        <v>100</v>
+      </c>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I184" s="5"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="5"/>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+      <c r="R184" s="5"/>
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="1:19" s="13" customFormat="1">
+      <c r="A185" s="5">
+        <v>81071001</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D185" s="11">
+        <v>99</v>
+      </c>
+      <c r="E185" s="11">
+        <v>1015</v>
+      </c>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I185" s="11"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="11"/>
+      <c r="M185" s="11"/>
+      <c r="N185" s="11"/>
+      <c r="O185" s="11"/>
+      <c r="P185" s="11"/>
+      <c r="Q185" s="11"/>
+      <c r="R185" s="11"/>
+      <c r="S185" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416413A-2AAC-4AC4-9025-21611AD175B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF6C1F-DBF6-42BA-953B-3C0E48EA60E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="301">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1104,6 +1104,26 @@
   <si>
     <t>완전소화_카드삭제</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부패의 숨결_방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 분비_방어력 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81072000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81073000_IconDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 분비_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1639,11 +1659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S185"/>
+  <dimension ref="A1:S188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O190" sqref="O190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8369,6 +8389,117 @@
       <c r="R185" s="11"/>
       <c r="S185" s="11"/>
     </row>
+    <row r="186" spans="1:19" s="13" customFormat="1">
+      <c r="A186" s="5">
+        <v>81072000</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D186" s="5">
+        <v>99</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" s="5">
+        <v>2</v>
+      </c>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+      <c r="R186" s="5"/>
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="1:19" s="13" customFormat="1">
+      <c r="A187" s="5">
+        <v>81073000</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D187" s="5">
+        <v>99</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="5">
+        <v>2</v>
+      </c>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O187" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="1:19" s="13" customFormat="1">
+      <c r="A188" s="5">
+        <v>81073001</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="11">
+        <v>2</v>
+      </c>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K188" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L188" s="11"/>
+      <c r="M188" s="11"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11"/>
+      <c r="P188" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="11"/>
+      <c r="S188" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF6C1F-DBF6-42BA-953B-3C0E48EA60E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C2814-02E4-4F79-AD8B-D66B404D93B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="304">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1123,6 +1123,18 @@
   </si>
   <si>
     <t>위액 분비_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박_체력회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박_만복도</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명탄_스턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1659,11 +1671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S188"/>
+  <dimension ref="A1:S191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O190" sqref="O190"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8500,6 +8512,103 @@
       <c r="R188" s="11"/>
       <c r="S188" s="11"/>
     </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="5">
+        <v>81074000</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" s="5">
+        <v>5</v>
+      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+      <c r="R189" s="5"/>
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="1:19" s="13" customFormat="1">
+      <c r="A190" s="5">
+        <v>81074001</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D190" s="5">
+        <v>10</v>
+      </c>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I190" s="5"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+      <c r="R190" s="5"/>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="5">
+        <v>81075000</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I191" s="5">
+        <v>1</v>
+      </c>
+      <c r="J191" s="6"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O191" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+      <c r="R191" s="5"/>
+      <c r="S191" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AbilityData.xlsx
+++ b/Assets/ERang/Excels/AbilityData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C2814-02E4-4F79-AD8B-D66B404D93B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D171CC-3C96-417F-B703-50D4023EA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="305">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -1135,6 +1135,10 @@
   </si>
   <si>
     <t>조명탄_스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금고블린_채굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1671,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S191"/>
+  <dimension ref="A1:S192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8609,6 +8613,39 @@
       <c r="R191" s="5"/>
       <c r="S191" s="5"/>
     </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="5">
+        <v>81076000</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D192" s="5">
+        <v>30</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="5"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+      <c r="R192" s="5"/>
+      <c r="S192" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
